--- a/Tallaght Tallght Model_Original/Scneario Results.xlsx
+++ b/Tallaght Tallght Model_Original/Scneario Results.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cae5e1707f7509f6/Documents/PhD/Projects/HSE - Medical Patients Flow - Tallaght/New Version of Tallaght Model/Model Versions/Tallaght-Project/Tallaght Tallght Model_Original/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Heba\SkyDrive\Documents\PhD\Projects\HSE - Medical Patients Flow - Tallaght\New Version of Tallaght Model\Model Versions\Tallaght-Project\Tallaght Tallght Model_Original\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="9384" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Runs" sheetId="6" r:id="rId1"/>
-    <sheet name="Results" sheetId="7" r:id="rId2"/>
+    <sheet name="Runs" sheetId="6" state="hidden" r:id="rId1"/>
+    <sheet name="Results" sheetId="7" state="hidden" r:id="rId2"/>
+    <sheet name="Validation 30-Jun" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="54">
   <si>
     <t>Factors</t>
   </si>
@@ -170,12 +171,30 @@
   <si>
     <t>0</t>
   </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>No. pts in AMAU</t>
+  </si>
+  <si>
+    <t>Actual Data</t>
+  </si>
+  <si>
+    <t>Simulated Data</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>% pts in AMAU</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -242,6 +261,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -272,7 +298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -784,6 +810,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -792,7 +879,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -914,43 +1001,89 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="5" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="5" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="5" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="5" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -965,10 +1098,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -980,113 +1167,79 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="5" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="5" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="5" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="4" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="5" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="5" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1375,7 +1528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection activeCell="U1" sqref="U1"/>
       <selection pane="topRight" activeCell="V1" sqref="V1"/>
@@ -1385,3510 +1538,3510 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="92"/>
-    <col min="2" max="3" width="9.69921875" style="92" customWidth="1"/>
-    <col min="4" max="4" width="11" style="92" customWidth="1"/>
-    <col min="5" max="6" width="9.69921875" style="92" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" style="92" customWidth="1"/>
-    <col min="8" max="9" width="9.69921875" style="92" customWidth="1"/>
-    <col min="10" max="10" width="11.8984375" style="92" customWidth="1"/>
-    <col min="11" max="13" width="9.69921875" style="92" customWidth="1"/>
-    <col min="14" max="14" width="11.59765625" style="92" customWidth="1"/>
-    <col min="15" max="19" width="9.69921875" style="92" customWidth="1"/>
-    <col min="20" max="16384" width="8.796875" style="92"/>
+    <col min="1" max="1" width="8.796875" style="44"/>
+    <col min="2" max="3" width="9.69921875" style="44" customWidth="1"/>
+    <col min="4" max="4" width="11" style="44" customWidth="1"/>
+    <col min="5" max="6" width="9.69921875" style="44" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" style="44" customWidth="1"/>
+    <col min="8" max="9" width="9.69921875" style="44" customWidth="1"/>
+    <col min="10" max="10" width="11.8984375" style="44" customWidth="1"/>
+    <col min="11" max="13" width="9.69921875" style="44" customWidth="1"/>
+    <col min="14" max="14" width="11.59765625" style="44" customWidth="1"/>
+    <col min="15" max="19" width="9.69921875" style="44" customWidth="1"/>
+    <col min="20" max="16384" width="8.796875" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="89" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B1" s="90" t="s">
+    <row r="1" spans="1:19" s="41" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="90" t="s">
+      <c r="G1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="I1" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="J1" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="91" t="s">
+      <c r="K1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="L1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="91" t="s">
+      <c r="M1" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="91" t="s">
+      <c r="N1" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="91" t="s">
+      <c r="O1" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="P1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="91" t="s">
+      <c r="Q1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="91" t="s">
+      <c r="R1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="91" t="s">
+      <c r="S1" s="43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="93">
+      <c r="B2" s="45">
         <v>7.7464758969775103</v>
       </c>
-      <c r="C2" s="93">
+      <c r="C2" s="45">
         <v>14.522497946540717</v>
       </c>
-      <c r="D2" s="93">
+      <c r="D2" s="45">
         <v>5.8965143215411437</v>
       </c>
-      <c r="E2" s="93">
+      <c r="E2" s="45">
         <v>9.6181820704748056</v>
       </c>
-      <c r="F2" s="93">
+      <c r="F2" s="45">
         <v>14.40544645469735</v>
       </c>
-      <c r="G2" s="93">
+      <c r="G2" s="45">
         <v>7.8220396531718697</v>
       </c>
-      <c r="H2" s="93">
+      <c r="H2" s="45">
         <v>4.4996945731045441</v>
       </c>
-      <c r="I2" s="93">
+      <c r="I2" s="45">
         <v>4.5218264560114392</v>
       </c>
-      <c r="J2" s="93">
+      <c r="J2" s="45">
         <v>4.4784025667797529</v>
       </c>
-      <c r="K2" s="94">
+      <c r="K2" s="46">
         <v>2142</v>
       </c>
-      <c r="L2" s="94">
+      <c r="L2" s="46">
         <v>12920</v>
       </c>
-      <c r="M2" s="94">
+      <c r="M2" s="46">
         <v>458</v>
       </c>
-      <c r="N2" s="95">
+      <c r="N2" s="47">
         <v>84.700023086571136</v>
       </c>
-      <c r="O2" s="95">
+      <c r="O2" s="47">
         <v>0.7374804956242198</v>
       </c>
-      <c r="P2" s="95">
+      <c r="P2" s="47">
         <v>0.52377379968601767</v>
       </c>
-      <c r="Q2" s="95">
+      <c r="Q2" s="47">
         <v>47.64871017536359</v>
       </c>
-      <c r="R2" s="96">
+      <c r="R2" s="48">
         <f>K2/L2</f>
         <v>0.16578947368421051</v>
       </c>
-      <c r="S2" s="96">
+      <c r="S2" s="48">
         <f>M2/K2</f>
         <v>0.2138188608776844</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="92" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="93">
+      <c r="B3" s="45">
         <v>7.7511698772192181</v>
       </c>
-      <c r="C3" s="93">
+      <c r="C3" s="45">
         <v>14.171184949395373</v>
       </c>
-      <c r="D3" s="93">
+      <c r="D3" s="45">
         <v>5.9197281330270179</v>
       </c>
-      <c r="E3" s="93">
+      <c r="E3" s="45">
         <v>9.5294399618315069</v>
       </c>
-      <c r="F3" s="93">
+      <c r="F3" s="45">
         <v>14.311956068584145</v>
       </c>
-      <c r="G3" s="93">
+      <c r="G3" s="45">
         <v>7.7372176976182825</v>
       </c>
-      <c r="H3" s="93">
+      <c r="H3" s="45">
         <v>4.7413699274228751</v>
       </c>
-      <c r="I3" s="93">
+      <c r="I3" s="45">
         <v>4.7406835756917607</v>
       </c>
-      <c r="J3" s="93">
+      <c r="J3" s="45">
         <v>4.7420281211342354</v>
       </c>
-      <c r="K3" s="94">
+      <c r="K3" s="46">
         <v>2174</v>
       </c>
-      <c r="L3" s="94">
+      <c r="L3" s="46">
         <v>12973</v>
       </c>
-      <c r="M3" s="94">
+      <c r="M3" s="46">
         <v>474</v>
       </c>
-      <c r="N3" s="95">
+      <c r="N3" s="47">
         <v>83.36433445720499</v>
       </c>
-      <c r="O3" s="95">
+      <c r="O3" s="47">
         <v>0.7784643365382018</v>
       </c>
-      <c r="P3" s="95">
+      <c r="P3" s="47">
         <v>0.56168826089476154</v>
       </c>
-      <c r="Q3" s="95">
+      <c r="Q3" s="47">
         <v>50.518158852890316</v>
       </c>
-      <c r="R3" s="96">
+      <c r="R3" s="48">
         <f>K3/L3</f>
         <v>0.16757881754413012</v>
       </c>
-      <c r="S3" s="96">
+      <c r="S3" s="48">
         <f>M3/K3</f>
         <v>0.21803127874885003</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="93">
+      <c r="B4" s="45">
         <v>7.7075347273560038</v>
       </c>
-      <c r="C4" s="93">
+      <c r="C4" s="45">
         <v>14.419775341722538</v>
       </c>
-      <c r="D4" s="93">
+      <c r="D4" s="45">
         <v>5.9692935312403481</v>
       </c>
-      <c r="E4" s="93">
+      <c r="E4" s="45">
         <v>9.7280021617962014</v>
       </c>
-      <c r="F4" s="93">
+      <c r="F4" s="45">
         <v>14.736130581510766</v>
       </c>
-      <c r="G4" s="93">
+      <c r="G4" s="45">
         <v>7.819443908455086</v>
       </c>
-      <c r="H4" s="93">
+      <c r="H4" s="45">
         <v>4.6037355548870948</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="45">
         <v>4.7717925936139993</v>
       </c>
-      <c r="J4" s="93">
+      <c r="J4" s="45">
         <v>4.4268053884554996</v>
       </c>
-      <c r="K4" s="94">
+      <c r="K4" s="46">
         <v>2184</v>
       </c>
-      <c r="L4" s="94">
+      <c r="L4" s="46">
         <v>13044</v>
       </c>
-      <c r="M4" s="94">
+      <c r="M4" s="46">
         <v>463</v>
       </c>
-      <c r="N4" s="95">
+      <c r="N4" s="47">
         <v>85.172896578606057</v>
       </c>
-      <c r="O4" s="95">
+      <c r="O4" s="47">
         <v>0.76145201387825101</v>
       </c>
-      <c r="P4" s="95">
+      <c r="P4" s="47">
         <v>0.54313987181297474</v>
       </c>
-      <c r="Q4" s="95">
+      <c r="Q4" s="47">
         <v>49.20409336517482</v>
       </c>
-      <c r="R4" s="96">
+      <c r="R4" s="48">
         <f>K4/L4</f>
         <v>0.16743330266789327</v>
       </c>
-      <c r="S4" s="96">
+      <c r="S4" s="48">
         <f>M4/K4</f>
         <v>0.21199633699633699</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="92" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="93">
+      <c r="B5" s="45">
         <v>7.4576541943031609</v>
       </c>
-      <c r="C5" s="93">
+      <c r="C5" s="45">
         <v>13.85161806244024</v>
       </c>
-      <c r="D5" s="93">
+      <c r="D5" s="45">
         <v>5.7449525383760642</v>
       </c>
-      <c r="E5" s="93">
+      <c r="E5" s="45">
         <v>9.4271637858393529</v>
       </c>
-      <c r="F5" s="93">
+      <c r="F5" s="45">
         <v>14.178578306375767</v>
       </c>
-      <c r="G5" s="93">
+      <c r="G5" s="45">
         <v>7.6101218105748298</v>
       </c>
-      <c r="H5" s="93">
+      <c r="H5" s="45">
         <v>4.6986149681070106</v>
       </c>
-      <c r="I5" s="93">
+      <c r="I5" s="45">
         <v>4.8744821701753454</v>
       </c>
-      <c r="J5" s="93">
+      <c r="J5" s="45">
         <v>4.5231118803286723</v>
       </c>
-      <c r="K5" s="94">
+      <c r="K5" s="46">
         <v>2173</v>
       </c>
-      <c r="L5" s="94">
+      <c r="L5" s="46">
         <v>12905</v>
       </c>
-      <c r="M5" s="94">
+      <c r="M5" s="46">
         <v>461</v>
       </c>
-      <c r="N5" s="95">
+      <c r="N5" s="47">
         <v>84.251825278350424</v>
       </c>
-      <c r="O5" s="95">
+      <c r="O5" s="47">
         <v>0.76076512701417742</v>
       </c>
-      <c r="P5" s="95">
+      <c r="P5" s="47">
         <v>0.55184013874887294</v>
       </c>
-      <c r="Q5" s="95">
+      <c r="Q5" s="47">
         <v>50.247677112342984</v>
       </c>
-      <c r="R5" s="96">
+      <c r="R5" s="48">
         <f t="shared" ref="R5:R6" si="0">K5/L5</f>
         <v>0.16838434715226655</v>
       </c>
-      <c r="S5" s="96">
+      <c r="S5" s="48">
         <f t="shared" ref="S5:S6" si="1">M5/K5</f>
         <v>0.21214910262310172</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="92" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="93">
+      <c r="B6" s="45">
         <v>7.3362411377038672</v>
       </c>
-      <c r="C6" s="93">
+      <c r="C6" s="45">
         <v>13.707373479010808</v>
       </c>
-      <c r="D6" s="93">
+      <c r="D6" s="45">
         <v>5.6576360205489875</v>
       </c>
-      <c r="E6" s="93">
+      <c r="E6" s="45">
         <v>9.4482292730674082</v>
       </c>
-      <c r="F6" s="93">
+      <c r="F6" s="45">
         <v>14.40654202959222</v>
       </c>
-      <c r="G6" s="93">
+      <c r="G6" s="45">
         <v>7.5704083099635131</v>
       </c>
-      <c r="H6" s="93">
+      <c r="H6" s="45">
         <v>4.5447480550359947</v>
       </c>
-      <c r="I6" s="93">
+      <c r="I6" s="45">
         <v>4.6139095644533779</v>
       </c>
-      <c r="J6" s="93">
+      <c r="J6" s="45">
         <v>4.4792228724024374</v>
       </c>
-      <c r="K6" s="94">
+      <c r="K6" s="46">
         <v>2119</v>
       </c>
-      <c r="L6" s="94">
+      <c r="L6" s="46">
         <v>12895</v>
       </c>
-      <c r="M6" s="94">
+      <c r="M6" s="46">
         <v>449</v>
       </c>
-      <c r="N6" s="95">
+      <c r="N6" s="47">
         <v>82.788521382638521</v>
       </c>
-      <c r="O6" s="95">
+      <c r="O6" s="47">
         <v>0.75235195246233166</v>
       </c>
-      <c r="P6" s="95">
+      <c r="P6" s="47">
         <v>0.53104929141809687</v>
       </c>
-      <c r="Q6" s="95">
+      <c r="Q6" s="47">
         <v>47.894626719151262</v>
       </c>
-      <c r="R6" s="96">
+      <c r="R6" s="48">
         <f t="shared" si="0"/>
         <v>0.16432725862737496</v>
       </c>
-      <c r="S6" s="96">
+      <c r="S6" s="48">
         <f t="shared" si="1"/>
         <v>0.21189240207645116</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="92" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="97">
-        <f>AVERAGE(B2:B6)</f>
+      <c r="B7" s="49">
+        <f t="shared" ref="B7:S7" si="2">AVERAGE(B2:B6)</f>
         <v>7.5998151667119513</v>
       </c>
-      <c r="C7" s="97">
-        <f>AVERAGE(C2:C6)</f>
+      <c r="C7" s="49">
+        <f t="shared" si="2"/>
         <v>14.134489955821937</v>
       </c>
-      <c r="D7" s="97">
-        <f>AVERAGE(D2:D6)</f>
+      <c r="D7" s="49">
+        <f t="shared" si="2"/>
         <v>5.8376249089467125</v>
       </c>
-      <c r="E7" s="97">
-        <f>AVERAGE(E2:E6)</f>
+      <c r="E7" s="49">
+        <f t="shared" si="2"/>
         <v>9.550203450601856</v>
       </c>
-      <c r="F7" s="97">
-        <f>AVERAGE(F2:F6)</f>
+      <c r="F7" s="49">
+        <f t="shared" si="2"/>
         <v>14.407730688152048</v>
       </c>
-      <c r="G7" s="97">
-        <f>AVERAGE(G2:G6)</f>
+      <c r="G7" s="49">
+        <f t="shared" si="2"/>
         <v>7.7118462759567148</v>
       </c>
-      <c r="H7" s="97">
-        <f>AVERAGE(H2:H6)</f>
+      <c r="H7" s="49">
+        <f t="shared" si="2"/>
         <v>4.6176326157115044</v>
       </c>
-      <c r="I7" s="97">
-        <f>AVERAGE(I2:I6)</f>
+      <c r="I7" s="49">
+        <f t="shared" si="2"/>
         <v>4.7045388719891843</v>
       </c>
-      <c r="J7" s="97">
-        <f>AVERAGE(J2:J6)</f>
+      <c r="J7" s="49">
+        <f t="shared" si="2"/>
         <v>4.5299141658201192</v>
       </c>
-      <c r="K7" s="97">
-        <f>AVERAGE(K2:K6)</f>
+      <c r="K7" s="49">
+        <f t="shared" si="2"/>
         <v>2158.4</v>
       </c>
-      <c r="L7" s="97">
-        <f>AVERAGE(L2:L6)</f>
+      <c r="L7" s="49">
+        <f t="shared" si="2"/>
         <v>12947.4</v>
       </c>
-      <c r="M7" s="97">
-        <f>AVERAGE(M2:M6)</f>
+      <c r="M7" s="49">
+        <f t="shared" si="2"/>
         <v>461</v>
       </c>
-      <c r="N7" s="97">
-        <f>AVERAGE(N2:N6)</f>
+      <c r="N7" s="49">
+        <f t="shared" si="2"/>
         <v>84.055520156674234</v>
       </c>
-      <c r="O7" s="97">
-        <f>AVERAGE(O2:O6)</f>
+      <c r="O7" s="49">
+        <f t="shared" si="2"/>
         <v>0.75810278510343632</v>
       </c>
-      <c r="P7" s="97">
-        <f>AVERAGE(P2:P6)</f>
+      <c r="P7" s="49">
+        <f t="shared" si="2"/>
         <v>0.5422982725121448</v>
       </c>
-      <c r="Q7" s="97">
-        <f>AVERAGE(Q2:Q6)</f>
+      <c r="Q7" s="49">
+        <f t="shared" si="2"/>
         <v>49.102653244984594</v>
       </c>
-      <c r="R7" s="97">
-        <f>AVERAGE(R2:R6)</f>
+      <c r="R7" s="49">
+        <f t="shared" si="2"/>
         <v>0.16670263993517509</v>
       </c>
-      <c r="S7" s="97">
-        <f>AVERAGE(S2:S6)</f>
+      <c r="S7" s="49">
+        <f t="shared" si="2"/>
         <v>0.21357759626448486</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="92" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="50">
         <v>7.0995889511128487</v>
       </c>
-      <c r="C8" s="98">
+      <c r="C8" s="50">
         <v>12.998795387552583</v>
       </c>
-      <c r="D8" s="98">
+      <c r="D8" s="50">
         <v>5.3636087264045971</v>
       </c>
-      <c r="E8" s="98">
+      <c r="E8" s="50">
         <v>8.7970142315833417</v>
       </c>
-      <c r="F8" s="98">
+      <c r="F8" s="50">
         <v>13.506659364692835</v>
       </c>
-      <c r="G8" s="98">
+      <c r="G8" s="50">
         <v>6.9202980159466332</v>
       </c>
-      <c r="H8" s="98">
+      <c r="H8" s="50">
         <v>3.0271279287797075</v>
       </c>
-      <c r="I8" s="98">
+      <c r="I8" s="50">
         <v>3.1810517114266585</v>
       </c>
-      <c r="J8" s="98">
+      <c r="J8" s="50">
         <v>2.8719052112580812</v>
       </c>
-      <c r="K8" s="99">
+      <c r="K8" s="51">
         <v>3003</v>
       </c>
-      <c r="L8" s="99">
+      <c r="L8" s="51">
         <v>12984</v>
       </c>
-      <c r="M8" s="99">
+      <c r="M8" s="51">
         <v>434</v>
       </c>
-      <c r="N8" s="95">
+      <c r="N8" s="47">
         <v>86.701923389072618</v>
       </c>
-      <c r="O8" s="95">
+      <c r="O8" s="47">
         <v>0.43166433971297619</v>
       </c>
-      <c r="P8" s="95">
+      <c r="P8" s="47">
         <v>0.38281385815736674</v>
       </c>
-      <c r="Q8" s="95">
+      <c r="Q8" s="47">
         <v>36.439255777746503</v>
       </c>
-      <c r="R8" s="96">
+      <c r="R8" s="48">
         <f>K8/L8</f>
         <v>0.23128465804066545</v>
       </c>
-      <c r="S8" s="96">
+      <c r="S8" s="48">
         <f>M8/K8</f>
         <v>0.14452214452214451</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="92" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="98">
+      <c r="B9" s="50">
         <v>7.1031172072421374</v>
       </c>
-      <c r="C9" s="98">
+      <c r="C9" s="50">
         <v>13.065658179417991</v>
       </c>
-      <c r="D9" s="98">
+      <c r="D9" s="50">
         <v>5.4602804851361251</v>
       </c>
-      <c r="E9" s="98">
+      <c r="E9" s="50">
         <v>8.8693489181555289</v>
       </c>
-      <c r="F9" s="98">
+      <c r="F9" s="50">
         <v>13.677757669109134</v>
       </c>
-      <c r="G9" s="98">
+      <c r="G9" s="50">
         <v>7.0322952660826239</v>
       </c>
-      <c r="H9" s="98">
+      <c r="H9" s="50">
         <v>2.9646960926687593</v>
       </c>
-      <c r="I9" s="98">
+      <c r="I9" s="50">
         <v>3.0824248033833159</v>
       </c>
-      <c r="J9" s="98">
+      <c r="J9" s="50">
         <v>2.8453775841549414</v>
       </c>
-      <c r="K9" s="99">
+      <c r="K9" s="51">
         <v>2950</v>
       </c>
-      <c r="L9" s="99">
+      <c r="L9" s="51">
         <v>13034</v>
       </c>
-      <c r="M9" s="99">
+      <c r="M9" s="51">
         <v>499</v>
       </c>
-      <c r="N9" s="95">
+      <c r="N9" s="47">
         <v>85.044633890667214</v>
       </c>
-      <c r="O9" s="95">
+      <c r="O9" s="47">
         <v>0.42079560642023284</v>
       </c>
-      <c r="P9" s="95">
+      <c r="P9" s="47">
         <v>0.37139884955813757</v>
       </c>
-      <c r="Q9" s="95">
+      <c r="Q9" s="47">
         <v>33.001807610023732</v>
       </c>
-      <c r="R9" s="96">
+      <c r="R9" s="48">
         <f>K9/L9</f>
         <v>0.22633113395734233</v>
       </c>
-      <c r="S9" s="96">
+      <c r="S9" s="48">
         <f>M9/K9</f>
         <v>0.16915254237288135</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="92" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="98">
+      <c r="B10" s="50">
         <v>7.0594692170278712</v>
       </c>
-      <c r="C10" s="98">
+      <c r="C10" s="50">
         <v>12.98675871927575</v>
       </c>
-      <c r="D10" s="98">
+      <c r="D10" s="50">
         <v>5.4291211920034339</v>
       </c>
-      <c r="E10" s="98">
+      <c r="E10" s="50">
         <v>8.7418955031628247</v>
       </c>
-      <c r="F10" s="98">
+      <c r="F10" s="50">
         <v>13.286014145360614</v>
       </c>
-      <c r="G10" s="98">
+      <c r="G10" s="50">
         <v>6.9800088545049155</v>
       </c>
-      <c r="H10" s="98">
+      <c r="H10" s="50">
         <v>3.098967394868787</v>
       </c>
-      <c r="I10" s="98">
+      <c r="I10" s="50">
         <v>3.2077844270101967</v>
       </c>
-      <c r="J10" s="98">
+      <c r="J10" s="50">
         <v>2.9920554228138991</v>
       </c>
-      <c r="K10" s="99">
+      <c r="K10" s="51">
         <v>2958</v>
       </c>
-      <c r="L10" s="99">
+      <c r="L10" s="51">
         <v>12741</v>
       </c>
-      <c r="M10" s="99">
+      <c r="M10" s="51">
         <v>476</v>
       </c>
-      <c r="N10" s="95">
+      <c r="N10" s="47">
         <v>86.583723868485421</v>
       </c>
-      <c r="O10" s="95">
+      <c r="O10" s="47">
         <v>0.4253028367099157</v>
       </c>
-      <c r="P10" s="95">
+      <c r="P10" s="47">
         <v>0.37621499354316668</v>
       </c>
-      <c r="Q10" s="95">
+      <c r="Q10" s="47">
         <v>33.679892810986559</v>
       </c>
-      <c r="R10" s="96">
+      <c r="R10" s="48">
         <f>K10/L10</f>
         <v>0.23216388038615493</v>
       </c>
-      <c r="S10" s="96">
+      <c r="S10" s="48">
         <f>M10/K10</f>
         <v>0.16091954022988506</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="92" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="98">
+      <c r="B11" s="50">
         <v>6.6733115601453097</v>
       </c>
-      <c r="C11" s="98">
+      <c r="C11" s="50">
         <v>12.467737631164727</v>
       </c>
-      <c r="D11" s="98">
+      <c r="D11" s="50">
         <v>4.9759282522214523</v>
       </c>
-      <c r="E11" s="98">
+      <c r="E11" s="50">
         <v>8.2590134462203117</v>
       </c>
-      <c r="F11" s="98">
+      <c r="F11" s="50">
         <v>12.79377004195578</v>
       </c>
-      <c r="G11" s="98">
+      <c r="G11" s="50">
         <v>6.4417406872604284</v>
       </c>
-      <c r="H11" s="98">
+      <c r="H11" s="50">
         <v>3.1323633913375279</v>
       </c>
-      <c r="I11" s="98">
+      <c r="I11" s="50">
         <v>3.3387831228822775</v>
       </c>
-      <c r="J11" s="98">
+      <c r="J11" s="50">
         <v>2.9250883294134566</v>
       </c>
-      <c r="K11" s="99">
+      <c r="K11" s="51">
         <v>3037</v>
       </c>
-      <c r="L11" s="99">
+      <c r="L11" s="51">
         <v>12856</v>
       </c>
-      <c r="M11" s="99">
+      <c r="M11" s="51">
         <v>455</v>
       </c>
-      <c r="N11" s="95">
+      <c r="N11" s="47">
         <v>87.67618877692513</v>
       </c>
-      <c r="O11" s="95">
+      <c r="O11" s="47">
         <v>0.44194623381273945</v>
       </c>
-      <c r="P11" s="95">
+      <c r="P11" s="47">
         <v>0.39118227800074606</v>
       </c>
-      <c r="Q11" s="95">
+      <c r="Q11" s="47">
         <v>36.346994353546009</v>
       </c>
-      <c r="R11" s="96">
-        <f t="shared" ref="R11" si="2">K11/L11</f>
+      <c r="R11" s="48">
+        <f t="shared" ref="R11" si="3">K11/L11</f>
         <v>0.23623210952084631</v>
       </c>
-      <c r="S11" s="96">
-        <f t="shared" ref="S11" si="3">M11/K11</f>
+      <c r="S11" s="48">
+        <f t="shared" ref="S11" si="4">M11/K11</f>
         <v>0.1498189002304906</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="92" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="98">
+      <c r="B12" s="50">
         <v>6.3856873424958538</v>
       </c>
-      <c r="C12" s="98">
+      <c r="C12" s="50">
         <v>11.95072240754147</v>
       </c>
-      <c r="D12" s="98">
+      <c r="D12" s="50">
         <v>4.8047021485782562</v>
       </c>
-      <c r="E12" s="98">
+      <c r="E12" s="50">
         <v>8.0215570669776852</v>
       </c>
-      <c r="F12" s="98">
+      <c r="F12" s="50">
         <v>12.350510854786027</v>
       </c>
-      <c r="G12" s="98">
+      <c r="G12" s="50">
         <v>6.296137763651938</v>
       </c>
-      <c r="H12" s="98">
+      <c r="H12" s="50">
         <v>3.0698351385458396</v>
       </c>
-      <c r="I12" s="98">
+      <c r="I12" s="50">
         <v>3.2586981155556156</v>
       </c>
-      <c r="J12" s="98">
+      <c r="J12" s="50">
         <v>2.8805703254147801</v>
       </c>
-      <c r="K12" s="99">
+      <c r="K12" s="51">
         <v>2972</v>
       </c>
-      <c r="L12" s="99">
+      <c r="L12" s="51">
         <v>12813</v>
       </c>
-      <c r="M12" s="99">
+      <c r="M12" s="51">
         <v>477</v>
       </c>
-      <c r="N12" s="95">
+      <c r="N12" s="47">
         <v>85.984506650500265</v>
       </c>
-      <c r="O12" s="95">
+      <c r="O12" s="47">
         <v>0.43050237016692799</v>
       </c>
-      <c r="P12" s="95">
+      <c r="P12" s="47">
         <v>0.38058900416435226</v>
       </c>
-      <c r="Q12" s="95">
+      <c r="Q12" s="47">
         <v>35.046876865386231</v>
       </c>
-      <c r="R12" s="96">
+      <c r="R12" s="48">
         <f>K12/L12</f>
         <v>0.23195192382736282</v>
       </c>
-      <c r="S12" s="96">
+      <c r="S12" s="48">
         <f>M12/K12</f>
         <v>0.16049798115746972</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="92" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="97">
-        <f t="shared" ref="B13:S13" si="4">AVERAGE(B8:B12)</f>
+      <c r="B13" s="49">
+        <f t="shared" ref="B13:S13" si="5">AVERAGE(B8:B12)</f>
         <v>6.8642348556048045</v>
       </c>
-      <c r="C13" s="97">
-        <f t="shared" si="4"/>
+      <c r="C13" s="49">
+        <f t="shared" si="5"/>
         <v>12.693934464990503</v>
       </c>
-      <c r="D13" s="97">
-        <f t="shared" si="4"/>
+      <c r="D13" s="49">
+        <f t="shared" si="5"/>
         <v>5.2067281608687734</v>
       </c>
-      <c r="E13" s="97">
-        <f t="shared" si="4"/>
+      <c r="E13" s="49">
+        <f t="shared" si="5"/>
         <v>8.5377658332199378</v>
       </c>
-      <c r="F13" s="97">
-        <f t="shared" si="4"/>
+      <c r="F13" s="49">
+        <f t="shared" si="5"/>
         <v>13.122942415180878</v>
       </c>
-      <c r="G13" s="97">
-        <f t="shared" si="4"/>
+      <c r="G13" s="49">
+        <f t="shared" si="5"/>
         <v>6.7340961174893064</v>
       </c>
-      <c r="H13" s="97">
-        <f t="shared" si="4"/>
+      <c r="H13" s="49">
+        <f t="shared" si="5"/>
         <v>3.0585979892401243</v>
       </c>
-      <c r="I13" s="97">
-        <f t="shared" si="4"/>
+      <c r="I13" s="49">
+        <f t="shared" si="5"/>
         <v>3.2137484360516124</v>
       </c>
-      <c r="J13" s="97">
-        <f t="shared" si="4"/>
+      <c r="J13" s="49">
+        <f t="shared" si="5"/>
         <v>2.9029993746110319</v>
       </c>
-      <c r="K13" s="97">
-        <f t="shared" si="4"/>
+      <c r="K13" s="49">
+        <f t="shared" si="5"/>
         <v>2984</v>
       </c>
-      <c r="L13" s="97">
-        <f t="shared" si="4"/>
+      <c r="L13" s="49">
+        <f t="shared" si="5"/>
         <v>12885.6</v>
       </c>
-      <c r="M13" s="97">
-        <f t="shared" si="4"/>
+      <c r="M13" s="49">
+        <f t="shared" si="5"/>
         <v>468.2</v>
       </c>
-      <c r="N13" s="97">
-        <f t="shared" si="4"/>
+      <c r="N13" s="49">
+        <f t="shared" si="5"/>
         <v>86.398195315130124</v>
       </c>
-      <c r="O13" s="97">
-        <f t="shared" si="4"/>
+      <c r="O13" s="49">
+        <f t="shared" si="5"/>
         <v>0.43004227736455841</v>
       </c>
-      <c r="P13" s="97">
-        <f t="shared" si="4"/>
+      <c r="P13" s="49">
+        <f t="shared" si="5"/>
         <v>0.38043979668475386</v>
       </c>
-      <c r="Q13" s="97">
-        <f t="shared" si="4"/>
+      <c r="Q13" s="49">
+        <f t="shared" si="5"/>
         <v>34.902965483537805</v>
       </c>
-      <c r="R13" s="97">
-        <f t="shared" si="4"/>
+      <c r="R13" s="49">
+        <f t="shared" si="5"/>
         <v>0.23159274114647435</v>
       </c>
-      <c r="S13" s="97">
-        <f t="shared" si="4"/>
+      <c r="S13" s="49">
+        <f t="shared" si="5"/>
         <v>0.15698222170257425</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="92" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="98">
+      <c r="B14" s="50">
         <v>6.2503094710913949</v>
       </c>
-      <c r="C14" s="98">
+      <c r="C14" s="50">
         <v>11.771782678305497</v>
       </c>
-      <c r="D14" s="98">
+      <c r="D14" s="50">
         <v>4.6156737492089048</v>
       </c>
-      <c r="E14" s="98">
+      <c r="E14" s="50">
         <v>7.5630302772404772</v>
       </c>
-      <c r="F14" s="98">
+      <c r="F14" s="50">
         <v>11.731030407637268</v>
       </c>
-      <c r="G14" s="98">
+      <c r="G14" s="50">
         <v>5.8156149558466117</v>
       </c>
-      <c r="H14" s="98">
+      <c r="H14" s="50">
         <v>2.852415914896604</v>
       </c>
-      <c r="I14" s="98">
+      <c r="I14" s="50">
         <v>2.8324823025958721</v>
       </c>
-      <c r="J14" s="98">
+      <c r="J14" s="50">
         <v>2.8724607328447704</v>
       </c>
-      <c r="K14" s="99">
+      <c r="K14" s="51">
         <v>2989</v>
       </c>
-      <c r="L14" s="99">
+      <c r="L14" s="51">
         <v>12648</v>
       </c>
-      <c r="M14" s="99">
+      <c r="M14" s="51">
         <v>890</v>
       </c>
-      <c r="N14" s="95">
+      <c r="N14" s="47">
         <v>82.403047299396832</v>
       </c>
-      <c r="O14" s="95">
+      <c r="O14" s="47">
         <v>0.24702986926029891</v>
       </c>
-      <c r="P14" s="95">
+      <c r="P14" s="47">
         <v>0.38584305947834208</v>
       </c>
-      <c r="Q14" s="95">
+      <c r="Q14" s="47">
         <v>44.903522936923011</v>
       </c>
-      <c r="R14" s="96">
+      <c r="R14" s="48">
         <f>K14/L14</f>
         <v>0.23632194813409235</v>
       </c>
-      <c r="S14" s="96">
+      <c r="S14" s="48">
         <f>M14/K14</f>
         <v>0.29775844764135162</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="92" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="98">
+      <c r="B15" s="50">
         <v>6.8577505430796837</v>
       </c>
-      <c r="C15" s="98">
+      <c r="C15" s="50">
         <v>12.562964156966315</v>
       </c>
-      <c r="D15" s="98">
+      <c r="D15" s="50">
         <v>5.2242837634265369</v>
       </c>
-      <c r="E15" s="98">
+      <c r="E15" s="50">
         <v>8.4829776615021597</v>
       </c>
-      <c r="F15" s="98">
+      <c r="F15" s="50">
         <v>12.978942736128293</v>
       </c>
-      <c r="G15" s="98">
+      <c r="G15" s="50">
         <v>6.6941768064002831</v>
       </c>
-      <c r="H15" s="98">
+      <c r="H15" s="50">
         <v>2.7837634280927444</v>
       </c>
-      <c r="I15" s="98">
+      <c r="I15" s="50">
         <v>2.780436744993366</v>
       </c>
-      <c r="J15" s="98">
+      <c r="J15" s="50">
         <v>2.7872750603608125</v>
       </c>
-      <c r="K15" s="99">
+      <c r="K15" s="51">
         <v>2994</v>
       </c>
-      <c r="L15" s="99">
+      <c r="L15" s="51">
         <v>12708</v>
       </c>
-      <c r="M15" s="99">
+      <c r="M15" s="51">
         <v>923</v>
       </c>
-      <c r="N15" s="95">
+      <c r="N15" s="47">
         <v>83.23036736792146</v>
       </c>
-      <c r="O15" s="95">
+      <c r="O15" s="47">
         <v>0.24292593757750994</v>
       </c>
-      <c r="P15" s="95">
+      <c r="P15" s="47">
         <v>0.38133055851343556</v>
       </c>
-      <c r="Q15" s="95">
+      <c r="Q15" s="47">
         <v>42.632365347501612</v>
       </c>
-      <c r="R15" s="96">
+      <c r="R15" s="48">
         <f>K15/L15</f>
         <v>0.2355996222851747</v>
       </c>
-      <c r="S15" s="96">
+      <c r="S15" s="48">
         <f>M15/K15</f>
         <v>0.30828323313293254</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="92" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="98">
+      <c r="B16" s="50">
         <v>6.814582829927514</v>
       </c>
-      <c r="C16" s="98">
+      <c r="C16" s="50">
         <v>12.751311355545843</v>
       </c>
-      <c r="D16" s="98">
+      <c r="D16" s="50">
         <v>5.1553188420628668</v>
       </c>
-      <c r="E16" s="98">
+      <c r="E16" s="50">
         <v>8.453430464022432</v>
       </c>
-      <c r="F16" s="98">
+      <c r="F16" s="50">
         <v>12.718359122536008</v>
       </c>
-      <c r="G16" s="98">
+      <c r="G16" s="50">
         <v>6.7987021985165894</v>
       </c>
-      <c r="H16" s="98">
+      <c r="H16" s="50">
         <v>2.8714689413692218</v>
       </c>
-      <c r="I16" s="98">
+      <c r="I16" s="50">
         <v>2.8917964334966668</v>
       </c>
-      <c r="J16" s="98">
+      <c r="J16" s="50">
         <v>2.85125445823205</v>
       </c>
-      <c r="K16" s="99">
+      <c r="K16" s="51">
         <v>3001</v>
       </c>
-      <c r="L16" s="99">
+      <c r="L16" s="51">
         <v>12995</v>
       </c>
-      <c r="M16" s="99">
+      <c r="M16" s="51">
         <v>876</v>
       </c>
-      <c r="N16" s="95">
+      <c r="N16" s="47">
         <v>82.698921500662749</v>
       </c>
-      <c r="O16" s="95">
+      <c r="O16" s="47">
         <v>0.24902089825500157</v>
       </c>
-      <c r="P16" s="95">
+      <c r="P16" s="47">
         <v>0.3903759045600837</v>
       </c>
-      <c r="Q16" s="95">
+      <c r="Q16" s="47">
         <v>45.324348527149468</v>
       </c>
-      <c r="R16" s="96">
+      <c r="R16" s="48">
         <f>K16/L16</f>
         <v>0.2309349749903809</v>
       </c>
-      <c r="S16" s="96">
+      <c r="S16" s="48">
         <f>M16/K16</f>
         <v>0.29190269910029992</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="92" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="98">
+      <c r="B17" s="50">
         <v>6.8986942199487791</v>
       </c>
-      <c r="C17" s="98">
+      <c r="C17" s="50">
         <v>12.583367096448143</v>
       </c>
-      <c r="D17" s="98">
+      <c r="D17" s="50">
         <v>5.26995843996235</v>
       </c>
-      <c r="E17" s="98">
+      <c r="E17" s="50">
         <v>8.6281190764626174</v>
       </c>
-      <c r="F17" s="98">
+      <c r="F17" s="50">
         <v>13.143893783907505</v>
       </c>
-      <c r="G17" s="98">
+      <c r="G17" s="50">
         <v>6.856555858138683</v>
       </c>
-      <c r="H17" s="98">
+      <c r="H17" s="50">
         <v>2.8793876264071918</v>
       </c>
-      <c r="I17" s="98">
+      <c r="I17" s="50">
         <v>2.9254866923776195</v>
       </c>
-      <c r="J17" s="98">
+      <c r="J17" s="50">
         <v>2.8309544305141916</v>
       </c>
-      <c r="K17" s="99">
+      <c r="K17" s="51">
         <v>3048</v>
       </c>
-      <c r="L17" s="99">
+      <c r="L17" s="51">
         <v>12809</v>
       </c>
-      <c r="M17" s="99">
+      <c r="M17" s="51">
         <v>893</v>
       </c>
-      <c r="N17" s="95">
+      <c r="N17" s="47">
         <v>82.906136978215571</v>
       </c>
-      <c r="O17" s="95">
+      <c r="O17" s="47">
         <v>0.25016092079533209</v>
       </c>
-      <c r="P17" s="95">
+      <c r="P17" s="47">
         <v>0.38979648760255503</v>
       </c>
-      <c r="Q17" s="95">
+      <c r="Q17" s="47">
         <v>44.758465656818579</v>
       </c>
-      <c r="R17" s="96">
-        <f t="shared" ref="R17" si="5">K17/L17</f>
+      <c r="R17" s="48">
+        <f t="shared" ref="R17" si="6">K17/L17</f>
         <v>0.23795768600202982</v>
       </c>
-      <c r="S17" s="96">
-        <f t="shared" ref="S17" si="6">M17/K17</f>
+      <c r="S17" s="48">
+        <f t="shared" ref="S17" si="7">M17/K17</f>
         <v>0.29297900262467191</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="92" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="98">
+      <c r="B18" s="50">
         <v>6.8118448099089202</v>
       </c>
-      <c r="C18" s="98">
+      <c r="C18" s="50">
         <v>12.582944696225951</v>
       </c>
-      <c r="D18" s="98">
+      <c r="D18" s="50">
         <v>5.1403817382058126</v>
       </c>
-      <c r="E18" s="98">
+      <c r="E18" s="50">
         <v>8.3012233858456828</v>
       </c>
-      <c r="F18" s="98">
+      <c r="F18" s="50">
         <v>12.762991760702594</v>
       </c>
-      <c r="G18" s="98">
+      <c r="G18" s="50">
         <v>6.4699199717780393</v>
       </c>
-      <c r="H18" s="98">
+      <c r="H18" s="50">
         <v>2.8903737013915056</v>
       </c>
-      <c r="I18" s="98">
+      <c r="I18" s="50">
         <v>2.9317203412378947</v>
       </c>
-      <c r="J18" s="98">
+      <c r="J18" s="50">
         <v>2.8457760748524126</v>
       </c>
-      <c r="K18" s="99">
+      <c r="K18" s="51">
         <v>3060</v>
       </c>
-      <c r="L18" s="99">
+      <c r="L18" s="51">
         <v>12748</v>
       </c>
-      <c r="M18" s="99">
+      <c r="M18" s="51">
         <v>887</v>
       </c>
-      <c r="N18" s="95">
+      <c r="N18" s="47">
         <v>82.658657199136513</v>
       </c>
-      <c r="O18" s="95">
+      <c r="O18" s="47">
         <v>0.25381061456320975</v>
       </c>
-      <c r="P18" s="95">
+      <c r="P18" s="47">
         <v>0.39547281042084298</v>
       </c>
-      <c r="Q18" s="95">
+      <c r="Q18" s="47">
         <v>45.71227705164678</v>
       </c>
-      <c r="R18" s="96">
+      <c r="R18" s="48">
         <f>K18/L18</f>
         <v>0.24003765296517102</v>
       </c>
-      <c r="S18" s="96">
+      <c r="S18" s="48">
         <f>M18/K18</f>
         <v>0.28986928104575166</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="92" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="97">
-        <f t="shared" ref="B19:S19" si="7">AVERAGE(B14:B18)</f>
+      <c r="B19" s="49">
+        <f t="shared" ref="B19:S19" si="8">AVERAGE(B14:B18)</f>
         <v>6.7266363747912594</v>
       </c>
-      <c r="C19" s="97">
-        <f t="shared" si="7"/>
+      <c r="C19" s="49">
+        <f t="shared" si="8"/>
         <v>12.450473996698349</v>
       </c>
-      <c r="D19" s="97">
-        <f t="shared" si="7"/>
+      <c r="D19" s="49">
+        <f t="shared" si="8"/>
         <v>5.0811233065732937</v>
       </c>
-      <c r="E19" s="97">
-        <f t="shared" si="7"/>
+      <c r="E19" s="49">
+        <f t="shared" si="8"/>
         <v>8.2857561730146738</v>
       </c>
-      <c r="F19" s="97">
-        <f t="shared" si="7"/>
+      <c r="F19" s="49">
+        <f t="shared" si="8"/>
         <v>12.667043562182332</v>
       </c>
-      <c r="G19" s="97">
-        <f t="shared" si="7"/>
+      <c r="G19" s="49">
+        <f t="shared" si="8"/>
         <v>6.5269939581360417</v>
       </c>
-      <c r="H19" s="97">
-        <f t="shared" si="7"/>
+      <c r="H19" s="49">
+        <f t="shared" si="8"/>
         <v>2.8554819224314536</v>
       </c>
-      <c r="I19" s="97">
-        <f t="shared" si="7"/>
+      <c r="I19" s="49">
+        <f t="shared" si="8"/>
         <v>2.8723845029402839</v>
       </c>
-      <c r="J19" s="97">
-        <f t="shared" si="7"/>
+      <c r="J19" s="49">
+        <f t="shared" si="8"/>
         <v>2.8375441513608477</v>
       </c>
-      <c r="K19" s="97">
-        <f t="shared" si="7"/>
+      <c r="K19" s="49">
+        <f t="shared" si="8"/>
         <v>3018.4</v>
       </c>
-      <c r="L19" s="97">
-        <f t="shared" si="7"/>
+      <c r="L19" s="49">
+        <f t="shared" si="8"/>
         <v>12781.6</v>
       </c>
-      <c r="M19" s="97">
-        <f t="shared" si="7"/>
+      <c r="M19" s="49">
+        <f t="shared" si="8"/>
         <v>893.8</v>
       </c>
-      <c r="N19" s="97">
-        <f t="shared" si="7"/>
+      <c r="N19" s="49">
+        <f t="shared" si="8"/>
         <v>82.779426069066631</v>
       </c>
-      <c r="O19" s="97">
-        <f t="shared" si="7"/>
+      <c r="O19" s="49">
+        <f t="shared" si="8"/>
         <v>0.24858964809027045</v>
       </c>
-      <c r="P19" s="97">
-        <f t="shared" si="7"/>
+      <c r="P19" s="49">
+        <f t="shared" si="8"/>
         <v>0.38856376411505184</v>
       </c>
-      <c r="Q19" s="97">
-        <f t="shared" si="7"/>
+      <c r="Q19" s="49">
+        <f t="shared" si="8"/>
         <v>44.666195904007893</v>
       </c>
-      <c r="R19" s="97">
-        <f t="shared" si="7"/>
+      <c r="R19" s="49">
+        <f t="shared" si="8"/>
         <v>0.23617037687536979</v>
       </c>
-      <c r="S19" s="97">
-        <f t="shared" si="7"/>
+      <c r="S19" s="49">
+        <f t="shared" si="8"/>
         <v>0.29615853270900155</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="93">
+      <c r="B20" s="45">
         <v>7.2308513171965414</v>
       </c>
-      <c r="C20" s="93">
+      <c r="C20" s="45">
         <v>13.517718555064034</v>
       </c>
-      <c r="D20" s="93">
+      <c r="D20" s="45">
         <v>5.4609685398253198</v>
       </c>
-      <c r="E20" s="93">
+      <c r="E20" s="45">
         <v>9.0692488771570829</v>
       </c>
-      <c r="F20" s="93">
+      <c r="F20" s="45">
         <v>13.894250459111994</v>
       </c>
-      <c r="G20" s="93">
+      <c r="G20" s="45">
         <v>7.2448448511785939</v>
       </c>
-      <c r="H20" s="93">
+      <c r="H20" s="45">
         <v>2.7703011171462717</v>
       </c>
-      <c r="I20" s="93">
+      <c r="I20" s="45">
         <v>2.8789405893727218</v>
       </c>
-      <c r="J20" s="93">
+      <c r="J20" s="45">
         <v>2.6567754677000508</v>
       </c>
-      <c r="K20" s="94">
+      <c r="K20" s="46">
         <v>2247</v>
       </c>
-      <c r="L20" s="94">
+      <c r="L20" s="46">
         <v>12715</v>
       </c>
-      <c r="M20" s="94">
+      <c r="M20" s="46">
         <v>468</v>
       </c>
-      <c r="N20" s="95">
+      <c r="N20" s="47">
         <v>82.853640900362365</v>
       </c>
-      <c r="O20" s="95">
+      <c r="O20" s="47">
         <v>0.22650101491689023</v>
       </c>
-      <c r="P20" s="95">
+      <c r="P20" s="47">
         <v>0.35599685593044778</v>
       </c>
-      <c r="Q20" s="95">
+      <c r="Q20" s="47">
         <v>32.564824572175105</v>
       </c>
-      <c r="R20" s="96">
+      <c r="R20" s="48">
         <f>K20/L20</f>
         <v>0.17672040896578844</v>
       </c>
-      <c r="S20" s="96">
+      <c r="S20" s="48">
         <f>M20/K20</f>
         <v>0.20827770360480641</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="92" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="93">
+      <c r="B21" s="45">
         <v>7.8709837007566312</v>
       </c>
-      <c r="C21" s="93">
+      <c r="C21" s="45">
         <v>14.429823381998428</v>
       </c>
-      <c r="D21" s="93">
+      <c r="D21" s="45">
         <v>6.0947692898937449</v>
       </c>
-      <c r="E21" s="93">
+      <c r="E21" s="45">
         <v>9.7652914996695745</v>
       </c>
-      <c r="F21" s="93">
+      <c r="F21" s="45">
         <v>14.927738190085078</v>
       </c>
-      <c r="G21" s="93">
+      <c r="G21" s="45">
         <v>7.8311696811758571</v>
       </c>
-      <c r="H21" s="93">
+      <c r="H21" s="45">
         <v>2.7321373649149368</v>
       </c>
-      <c r="I21" s="93">
+      <c r="I21" s="45">
         <v>2.8166977043522889</v>
       </c>
-      <c r="J21" s="93">
+      <c r="J21" s="45">
         <v>2.6514494148536705</v>
       </c>
-      <c r="K21" s="94">
+      <c r="K21" s="46">
         <v>2197</v>
       </c>
-      <c r="L21" s="94">
+      <c r="L21" s="46">
         <v>13094</v>
       </c>
-      <c r="M21" s="94">
+      <c r="M21" s="46">
         <v>465</v>
       </c>
-      <c r="N21" s="95">
+      <c r="N21" s="47">
         <v>83.297487578225088</v>
       </c>
-      <c r="O21" s="95">
+      <c r="O21" s="47">
         <v>0.21478381891560727</v>
       </c>
-      <c r="P21" s="95">
+      <c r="P21" s="47">
         <v>0.34220958330995421</v>
       </c>
-      <c r="Q21" s="95">
+      <c r="Q21" s="47">
         <v>31.573158249141827</v>
       </c>
-      <c r="R21" s="96">
+      <c r="R21" s="48">
         <f>K21/L21</f>
         <v>0.1677867725675882</v>
       </c>
-      <c r="S21" s="96">
+      <c r="S21" s="48">
         <f>M21/K21</f>
         <v>0.21165225307237143</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="92" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="93">
+      <c r="B22" s="45">
         <v>7.2562965422686352</v>
       </c>
-      <c r="C22" s="93">
+      <c r="C22" s="45">
         <v>13.507852236944819</v>
       </c>
-      <c r="D22" s="93">
+      <c r="D22" s="45">
         <v>5.5175450619070228</v>
       </c>
-      <c r="E22" s="93">
+      <c r="E22" s="45">
         <v>9.0298038546160342</v>
       </c>
-      <c r="F22" s="93">
+      <c r="F22" s="45">
         <v>13.663435729903592</v>
       </c>
-      <c r="G22" s="93">
+      <c r="G22" s="45">
         <v>7.2149698774666309</v>
       </c>
-      <c r="H22" s="93">
+      <c r="H22" s="45">
         <v>2.8786665145195443</v>
       </c>
-      <c r="I22" s="93">
+      <c r="I22" s="45">
         <v>3.0697188469687706</v>
       </c>
-      <c r="J22" s="93">
+      <c r="J22" s="45">
         <v>2.6904630518924884</v>
       </c>
-      <c r="K22" s="94">
+      <c r="K22" s="46">
         <v>2246</v>
       </c>
-      <c r="L22" s="94">
+      <c r="L22" s="46">
         <v>12647</v>
       </c>
-      <c r="M22" s="94">
+      <c r="M22" s="46">
         <v>449</v>
       </c>
-      <c r="N22" s="95">
+      <c r="N22" s="47">
         <v>83.860382097043839</v>
       </c>
-      <c r="O22" s="95">
+      <c r="O22" s="47">
         <v>0.23531088659517482</v>
       </c>
-      <c r="P22" s="95">
+      <c r="P22" s="47">
         <v>0.36480345881661147</v>
       </c>
-      <c r="Q22" s="95">
+      <c r="Q22" s="47">
         <v>34.763290165489131</v>
       </c>
-      <c r="R22" s="96">
+      <c r="R22" s="48">
         <f>K22/L22</f>
         <v>0.17759152368150549</v>
       </c>
-      <c r="S22" s="96">
+      <c r="S22" s="48">
         <f>M22/K22</f>
         <v>0.19991095280498664</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="92" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="93">
+      <c r="B23" s="45">
         <v>7.4328336398583339</v>
       </c>
-      <c r="C23" s="93">
+      <c r="C23" s="45">
         <v>13.896218048061794</v>
       </c>
-      <c r="D23" s="93">
+      <c r="D23" s="45">
         <v>5.6315625752770408</v>
       </c>
-      <c r="E23" s="93">
+      <c r="E23" s="45">
         <v>9.32649475031325</v>
       </c>
-      <c r="F23" s="93">
+      <c r="F23" s="45">
         <v>14.107863580131893</v>
       </c>
-      <c r="G23" s="93">
+      <c r="G23" s="45">
         <v>7.4796435128275895</v>
       </c>
-      <c r="H23" s="93">
+      <c r="H23" s="45">
         <v>2.8526452996566141</v>
       </c>
-      <c r="I23" s="93">
+      <c r="I23" s="45">
         <v>2.9358288075480892</v>
       </c>
-      <c r="J23" s="93">
+      <c r="J23" s="45">
         <v>2.769073083784344</v>
       </c>
-      <c r="K23" s="94">
+      <c r="K23" s="46">
         <v>2271</v>
       </c>
-      <c r="L23" s="94">
+      <c r="L23" s="46">
         <v>12925</v>
       </c>
-      <c r="M23" s="94">
+      <c r="M23" s="46">
         <v>475</v>
       </c>
-      <c r="N23" s="95">
+      <c r="N23" s="47">
         <v>82.774688188681836</v>
       </c>
-      <c r="O23" s="95">
+      <c r="O23" s="47">
         <v>0.22931073736076224</v>
       </c>
-      <c r="P23" s="95">
+      <c r="P23" s="47">
         <v>0.36365322326608912</v>
       </c>
-      <c r="Q23" s="95">
+      <c r="Q23" s="47">
         <v>32.639205693213619</v>
       </c>
-      <c r="R23" s="96">
-        <f t="shared" ref="R23:R24" si="8">K23/L23</f>
+      <c r="R23" s="48">
+        <f t="shared" ref="R23:R24" si="9">K23/L23</f>
         <v>0.17570599613152804</v>
       </c>
-      <c r="S23" s="96">
-        <f t="shared" ref="S23:S24" si="9">M23/K23</f>
+      <c r="S23" s="48">
+        <f t="shared" ref="S23:S24" si="10">M23/K23</f>
         <v>0.20915896081021576</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="92" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="93">
+      <c r="B24" s="45">
         <v>7.4804365802803297</v>
       </c>
-      <c r="C24" s="93">
+      <c r="C24" s="45">
         <v>13.921000424801212</v>
       </c>
-      <c r="D24" s="93">
+      <c r="D24" s="45">
         <v>5.5991264919693906</v>
       </c>
-      <c r="E24" s="93">
+      <c r="E24" s="45">
         <v>9.226580305376693</v>
       </c>
-      <c r="F24" s="93">
+      <c r="F24" s="45">
         <v>13.958222282831279</v>
       </c>
-      <c r="G24" s="93">
+      <c r="G24" s="45">
         <v>7.4244937389337746</v>
       </c>
-      <c r="H24" s="93">
+      <c r="H24" s="45">
         <v>2.9627619956185396</v>
       </c>
-      <c r="I24" s="93">
+      <c r="I24" s="45">
         <v>3.1015787269744175</v>
       </c>
-      <c r="J24" s="93">
+      <c r="J24" s="45">
         <v>2.8355033955429336</v>
       </c>
-      <c r="K24" s="94">
+      <c r="K24" s="46">
         <v>2340</v>
       </c>
-      <c r="L24" s="94">
+      <c r="L24" s="46">
         <v>12879</v>
       </c>
-      <c r="M24" s="94">
+      <c r="M24" s="46">
         <v>465</v>
       </c>
-      <c r="N24" s="95">
+      <c r="N24" s="47">
         <v>84.548283191064229</v>
       </c>
-      <c r="O24" s="95">
+      <c r="O24" s="47">
         <v>0.24236772261990203</v>
       </c>
-      <c r="P24" s="95">
+      <c r="P24" s="47">
         <v>0.37266056099241013</v>
       </c>
-      <c r="Q24" s="95">
+      <c r="Q24" s="47">
         <v>35.108398931180261</v>
       </c>
-      <c r="R24" s="96">
-        <f t="shared" si="8"/>
+      <c r="R24" s="48">
+        <f t="shared" si="9"/>
         <v>0.1816911250873515</v>
       </c>
-      <c r="S24" s="96">
-        <f t="shared" si="9"/>
+      <c r="S24" s="48">
+        <f t="shared" si="10"/>
         <v>0.19871794871794871</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="92" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="97">
-        <f t="shared" ref="B25:S25" si="10">AVERAGE(B20:B24)</f>
+      <c r="B25" s="49">
+        <f t="shared" ref="B25:S25" si="11">AVERAGE(B20:B24)</f>
         <v>7.4542803560720943</v>
       </c>
-      <c r="C25" s="97">
-        <f t="shared" si="10"/>
+      <c r="C25" s="49">
+        <f t="shared" si="11"/>
         <v>13.854522529374057</v>
       </c>
-      <c r="D25" s="97">
-        <f t="shared" si="10"/>
+      <c r="D25" s="49">
+        <f t="shared" si="11"/>
         <v>5.6607943917745036</v>
       </c>
-      <c r="E25" s="97">
-        <f t="shared" si="10"/>
+      <c r="E25" s="49">
+        <f t="shared" si="11"/>
         <v>9.2834838574265284</v>
       </c>
-      <c r="F25" s="97">
-        <f t="shared" si="10"/>
+      <c r="F25" s="49">
+        <f t="shared" si="11"/>
         <v>14.110302048412768</v>
       </c>
-      <c r="G25" s="97">
-        <f t="shared" si="10"/>
+      <c r="G25" s="49">
+        <f t="shared" si="11"/>
         <v>7.4390243323164897</v>
       </c>
-      <c r="H25" s="97">
-        <f t="shared" si="10"/>
+      <c r="H25" s="49">
+        <f t="shared" si="11"/>
         <v>2.8393024583711814</v>
       </c>
-      <c r="I25" s="97">
-        <f t="shared" si="10"/>
+      <c r="I25" s="49">
+        <f t="shared" si="11"/>
         <v>2.9605529350432578</v>
       </c>
-      <c r="J25" s="97">
-        <f t="shared" si="10"/>
+      <c r="J25" s="49">
+        <f t="shared" si="11"/>
         <v>2.7206528827546976</v>
       </c>
-      <c r="K25" s="97">
-        <f t="shared" si="10"/>
+      <c r="K25" s="49">
+        <f t="shared" si="11"/>
         <v>2260.1999999999998</v>
       </c>
-      <c r="L25" s="97">
-        <f t="shared" si="10"/>
+      <c r="L25" s="49">
+        <f t="shared" si="11"/>
         <v>12852</v>
       </c>
-      <c r="M25" s="97">
-        <f t="shared" si="10"/>
+      <c r="M25" s="49">
+        <f t="shared" si="11"/>
         <v>464.4</v>
       </c>
-      <c r="N25" s="97">
-        <f t="shared" si="10"/>
+      <c r="N25" s="49">
+        <f t="shared" si="11"/>
         <v>83.466896391075466</v>
       </c>
-      <c r="O25" s="97">
-        <f t="shared" si="10"/>
+      <c r="O25" s="49">
+        <f t="shared" si="11"/>
         <v>0.22965483608166731</v>
       </c>
-      <c r="P25" s="97">
-        <f t="shared" si="10"/>
+      <c r="P25" s="49">
+        <f t="shared" si="11"/>
         <v>0.35986473646310252</v>
       </c>
-      <c r="Q25" s="97">
-        <f t="shared" si="10"/>
+      <c r="Q25" s="49">
+        <f t="shared" si="11"/>
         <v>33.329775522239991</v>
       </c>
-      <c r="R25" s="97">
-        <f t="shared" si="10"/>
+      <c r="R25" s="49">
+        <f t="shared" si="11"/>
         <v>0.17589916528675237</v>
       </c>
-      <c r="S25" s="97">
-        <f t="shared" si="10"/>
+      <c r="S25" s="49">
+        <f t="shared" si="11"/>
         <v>0.20554356380206579</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="92" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="93">
+      <c r="B26" s="45">
         <v>7.2158968851736214</v>
       </c>
-      <c r="C26" s="93">
+      <c r="C26" s="45">
         <v>13.407546501101397</v>
       </c>
-      <c r="D26" s="93">
+      <c r="D26" s="45">
         <v>5.4633206013336642</v>
       </c>
-      <c r="E26" s="93">
+      <c r="E26" s="45">
         <v>8.7688203702671998</v>
       </c>
-      <c r="F26" s="93">
+      <c r="F26" s="45">
         <v>13.539629215071029</v>
       </c>
-      <c r="G26" s="93">
+      <c r="G26" s="45">
         <v>6.9428145682093687</v>
       </c>
-      <c r="H26" s="93">
+      <c r="H26" s="45">
         <v>2.9555524502971395</v>
       </c>
-      <c r="I26" s="93">
+      <c r="I26" s="45">
         <v>3.1227942599293308</v>
       </c>
-      <c r="J26" s="93">
+      <c r="J26" s="45">
         <v>2.7826051631508508</v>
       </c>
-      <c r="K26" s="94">
+      <c r="K26" s="46">
         <v>3003</v>
       </c>
-      <c r="L26" s="94">
+      <c r="L26" s="46">
         <v>12871</v>
       </c>
-      <c r="M26" s="94">
+      <c r="M26" s="46">
         <v>476</v>
       </c>
-      <c r="N26" s="95">
+      <c r="N26" s="47">
         <v>86.215939097695454</v>
       </c>
-      <c r="O26" s="95">
+      <c r="O26" s="47">
         <v>0.31375406739640094</v>
       </c>
-      <c r="P26" s="95">
+      <c r="P26" s="47">
         <v>0.37977802098716085</v>
       </c>
-      <c r="Q26" s="95">
+      <c r="Q26" s="47">
         <v>42.77167002822253</v>
       </c>
-      <c r="R26" s="96">
+      <c r="R26" s="48">
         <f>K26/L26</f>
         <v>0.23331520472379769</v>
       </c>
-      <c r="S26" s="96">
+      <c r="S26" s="48">
         <f>M26/K26</f>
         <v>0.1585081585081585</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="92" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="93">
+      <c r="B27" s="45">
         <v>6.4882255390627854</v>
       </c>
-      <c r="C27" s="93">
+      <c r="C27" s="45">
         <v>12.240543120122458</v>
       </c>
-      <c r="D27" s="93">
+      <c r="D27" s="45">
         <v>4.8275253121464976</v>
       </c>
-      <c r="E27" s="93">
+      <c r="E27" s="45">
         <v>8.2088539854710429</v>
       </c>
-      <c r="F27" s="93">
+      <c r="F27" s="45">
         <v>12.581081492864463</v>
       </c>
-      <c r="G27" s="93">
+      <c r="G27" s="45">
         <v>6.4943044749194581</v>
       </c>
-      <c r="H27" s="93">
+      <c r="H27" s="45">
         <v>2.9968167775726968</v>
       </c>
-      <c r="I27" s="93">
+      <c r="I27" s="45">
         <v>3.2143076708817993</v>
       </c>
-      <c r="J27" s="93">
+      <c r="J27" s="45">
         <v>2.7770365064392708</v>
       </c>
-      <c r="K27" s="94">
+      <c r="K27" s="46">
         <v>3010</v>
       </c>
-      <c r="L27" s="94">
+      <c r="L27" s="46">
         <v>12668</v>
       </c>
-      <c r="M27" s="94">
+      <c r="M27" s="46">
         <v>470</v>
       </c>
-      <c r="N27" s="95">
+      <c r="N27" s="47">
         <v>85.779481371365932</v>
       </c>
-      <c r="O27" s="95">
+      <c r="O27" s="47">
         <v>0.31639928118204241</v>
       </c>
-      <c r="P27" s="95">
+      <c r="P27" s="47">
         <v>0.38143519641932588</v>
       </c>
-      <c r="Q27" s="95">
+      <c r="Q27" s="47">
         <v>45.723068951088138</v>
       </c>
-      <c r="R27" s="96">
+      <c r="R27" s="48">
         <f>K27/L27</f>
         <v>0.23760656772971267</v>
       </c>
-      <c r="S27" s="96">
+      <c r="S27" s="48">
         <f>M27/K27</f>
         <v>0.15614617940199335</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="93">
+      <c r="B28" s="45">
         <v>6.8642142939989306</v>
       </c>
-      <c r="C28" s="93">
+      <c r="C28" s="45">
         <v>12.684436036341177</v>
       </c>
-      <c r="D28" s="93">
+      <c r="D28" s="45">
         <v>5.25683668730814</v>
       </c>
-      <c r="E28" s="93">
+      <c r="E28" s="45">
         <v>8.5070652600584129</v>
       </c>
-      <c r="F28" s="93">
+      <c r="F28" s="45">
         <v>12.870060757536461</v>
       </c>
-      <c r="G28" s="93">
+      <c r="G28" s="45">
         <v>6.7848301952644015</v>
       </c>
-      <c r="H28" s="93">
+      <c r="H28" s="45">
         <v>2.9949312205720116</v>
       </c>
-      <c r="I28" s="93">
+      <c r="I28" s="45">
         <v>3.1815156867358709</v>
       </c>
-      <c r="J28" s="93">
+      <c r="J28" s="45">
         <v>2.8042648077242718</v>
       </c>
-      <c r="K28" s="94">
+      <c r="K28" s="46">
         <v>2999</v>
       </c>
-      <c r="L28" s="94">
+      <c r="L28" s="46">
         <v>12997</v>
       </c>
-      <c r="M28" s="94">
+      <c r="M28" s="46">
         <v>469</v>
       </c>
-      <c r="N28" s="95">
+      <c r="N28" s="47">
         <v>84.453043507353783</v>
       </c>
-      <c r="O28" s="95">
+      <c r="O28" s="47">
         <v>0.31505163332630304</v>
       </c>
-      <c r="P28" s="95">
+      <c r="P28" s="47">
         <v>0.38064276103292188</v>
       </c>
-      <c r="Q28" s="95">
+      <c r="Q28" s="47">
         <v>45.410498335663078</v>
       </c>
-      <c r="R28" s="96">
+      <c r="R28" s="48">
         <f>K28/L28</f>
         <v>0.23074555666692315</v>
       </c>
-      <c r="S28" s="96">
+      <c r="S28" s="48">
         <f>M28/K28</f>
         <v>0.15638546182060686</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="92" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="93">
+      <c r="B29" s="45">
         <v>6.7067855802196021</v>
       </c>
-      <c r="C29" s="93">
+      <c r="C29" s="45">
         <v>12.34586267946001</v>
       </c>
-      <c r="D29" s="93">
+      <c r="D29" s="45">
         <v>5.0906066961160592</v>
       </c>
-      <c r="E29" s="93">
+      <c r="E29" s="45">
         <v>8.4271120804221962</v>
       </c>
-      <c r="F29" s="93">
+      <c r="F29" s="45">
         <v>13.033432696052952</v>
       </c>
-      <c r="G29" s="93">
+      <c r="G29" s="45">
         <v>6.5611241594408476</v>
       </c>
-      <c r="H29" s="93">
+      <c r="H29" s="45">
         <v>3.0748818068598793</v>
       </c>
-      <c r="I29" s="93">
+      <c r="I29" s="45">
         <v>3.2104408768036303</v>
       </c>
-      <c r="J29" s="93">
+      <c r="J29" s="45">
         <v>2.9379328626514942</v>
       </c>
-      <c r="K29" s="94">
+      <c r="K29" s="46">
         <v>3087</v>
       </c>
-      <c r="L29" s="94">
+      <c r="L29" s="46">
         <v>12701</v>
       </c>
-      <c r="M29" s="94">
+      <c r="M29" s="46">
         <v>459</v>
       </c>
-      <c r="N29" s="95">
+      <c r="N29" s="47">
         <v>85.27361590771352</v>
       </c>
-      <c r="O29" s="95">
+      <c r="O29" s="47">
         <v>0.33202834105890999</v>
       </c>
-      <c r="P29" s="95">
+      <c r="P29" s="47">
         <v>0.39598269337669101</v>
       </c>
-      <c r="Q29" s="95">
+      <c r="Q29" s="47">
         <v>44.951953922731782</v>
       </c>
-      <c r="R29" s="96">
-        <f t="shared" ref="R29:R30" si="11">K29/L29</f>
+      <c r="R29" s="48">
+        <f t="shared" ref="R29:R30" si="12">K29/L29</f>
         <v>0.24305172821037713</v>
       </c>
-      <c r="S29" s="96">
-        <f t="shared" ref="S29:S30" si="12">M29/K29</f>
+      <c r="S29" s="48">
+        <f t="shared" ref="S29:S30" si="13">M29/K29</f>
         <v>0.14868804664723032</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="92" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="93">
+      <c r="B30" s="45">
         <v>6.5816083496879276</v>
       </c>
-      <c r="C30" s="93">
+      <c r="C30" s="45">
         <v>12.369205411053416</v>
       </c>
-      <c r="D30" s="93">
+      <c r="D30" s="45">
         <v>4.9637253814426714</v>
       </c>
-      <c r="E30" s="93">
+      <c r="E30" s="45">
         <v>8.1908720185935042</v>
       </c>
-      <c r="F30" s="93">
+      <c r="F30" s="45">
         <v>12.66825006363058</v>
       </c>
-      <c r="G30" s="93">
+      <c r="G30" s="45">
         <v>6.3957154557755871</v>
       </c>
-      <c r="H30" s="93">
+      <c r="H30" s="45">
         <v>3.0082760139316407</v>
       </c>
-      <c r="I30" s="93">
+      <c r="I30" s="45">
         <v>3.1292317428117853</v>
       </c>
-      <c r="J30" s="93">
+      <c r="J30" s="45">
         <v>2.886403322255032</v>
       </c>
-      <c r="K30" s="94">
+      <c r="K30" s="46">
         <v>3065</v>
       </c>
-      <c r="L30" s="94">
+      <c r="L30" s="46">
         <v>12631</v>
       </c>
-      <c r="M30" s="94">
+      <c r="M30" s="46">
         <v>500</v>
       </c>
-      <c r="N30" s="95">
+      <c r="N30" s="47">
         <v>84.538730815900848</v>
       </c>
-      <c r="O30" s="95">
+      <c r="O30" s="47">
         <v>0.32269088962651998</v>
       </c>
-      <c r="P30" s="95">
+      <c r="P30" s="47">
         <v>0.38925642330563165</v>
       </c>
-      <c r="Q30" s="95">
+      <c r="Q30" s="47">
         <v>44.325733198391852</v>
       </c>
-      <c r="R30" s="96">
-        <f t="shared" si="11"/>
+      <c r="R30" s="48">
+        <f t="shared" si="12"/>
         <v>0.24265695511044255</v>
       </c>
-      <c r="S30" s="96">
-        <f t="shared" si="12"/>
+      <c r="S30" s="48">
+        <f t="shared" si="13"/>
         <v>0.16313213703099511</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="92" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="97">
-        <f t="shared" ref="B31:S31" si="13">AVERAGE(B26:B30)</f>
+      <c r="B31" s="49">
+        <f t="shared" ref="B31:S31" si="14">AVERAGE(B26:B30)</f>
         <v>6.7713461296285731</v>
       </c>
-      <c r="C31" s="97">
-        <f t="shared" si="13"/>
+      <c r="C31" s="49">
+        <f t="shared" si="14"/>
         <v>12.609518749615692</v>
       </c>
-      <c r="D31" s="97">
-        <f t="shared" si="13"/>
+      <c r="D31" s="49">
+        <f t="shared" si="14"/>
         <v>5.1204029356694063</v>
       </c>
-      <c r="E31" s="97">
-        <f t="shared" si="13"/>
+      <c r="E31" s="49">
+        <f t="shared" si="14"/>
         <v>8.4205447429624716</v>
       </c>
-      <c r="F31" s="97">
-        <f t="shared" si="13"/>
+      <c r="F31" s="49">
+        <f t="shared" si="14"/>
         <v>12.938490845031097</v>
       </c>
-      <c r="G31" s="97">
-        <f t="shared" si="13"/>
+      <c r="G31" s="49">
+        <f t="shared" si="14"/>
         <v>6.6357577707219324</v>
       </c>
-      <c r="H31" s="97">
-        <f t="shared" si="13"/>
+      <c r="H31" s="49">
+        <f t="shared" si="14"/>
         <v>3.0060916538466733</v>
       </c>
-      <c r="I31" s="97">
-        <f t="shared" si="13"/>
+      <c r="I31" s="49">
+        <f t="shared" si="14"/>
         <v>3.1716580474324836</v>
       </c>
-      <c r="J31" s="97">
-        <f t="shared" si="13"/>
+      <c r="J31" s="49">
+        <f t="shared" si="14"/>
         <v>2.8376485324441836</v>
       </c>
-      <c r="K31" s="97">
-        <f t="shared" si="13"/>
+      <c r="K31" s="49">
+        <f t="shared" si="14"/>
         <v>3032.8</v>
       </c>
-      <c r="L31" s="97">
-        <f t="shared" si="13"/>
+      <c r="L31" s="49">
+        <f t="shared" si="14"/>
         <v>12773.6</v>
       </c>
-      <c r="M31" s="97">
-        <f t="shared" si="13"/>
+      <c r="M31" s="49">
+        <f t="shared" si="14"/>
         <v>474.8</v>
       </c>
-      <c r="N31" s="97">
-        <f t="shared" si="13"/>
+      <c r="N31" s="49">
+        <f t="shared" si="14"/>
         <v>85.252162140005908</v>
       </c>
-      <c r="O31" s="97">
-        <f t="shared" si="13"/>
+      <c r="O31" s="49">
+        <f t="shared" si="14"/>
         <v>0.31998484251803527</v>
       </c>
-      <c r="P31" s="97">
-        <f t="shared" si="13"/>
+      <c r="P31" s="49">
+        <f t="shared" si="14"/>
         <v>0.38541901902434628</v>
       </c>
-      <c r="Q31" s="97">
-        <f t="shared" si="13"/>
+      <c r="Q31" s="49">
+        <f t="shared" si="14"/>
         <v>44.636584887219477</v>
       </c>
-      <c r="R31" s="97">
-        <f t="shared" si="13"/>
+      <c r="R31" s="49">
+        <f t="shared" si="14"/>
         <v>0.23747520248825063</v>
       </c>
-      <c r="S31" s="97">
-        <f t="shared" si="13"/>
+      <c r="S31" s="49">
+        <f t="shared" si="14"/>
         <v>0.15657199668179683</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="92" t="s">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="93">
+      <c r="B32" s="45">
         <v>7.4569986224518736</v>
       </c>
-      <c r="C32" s="93">
+      <c r="C32" s="45">
         <v>13.678404967106209</v>
       </c>
-      <c r="D32" s="93">
+      <c r="D32" s="45">
         <v>5.7739906102857823</v>
       </c>
-      <c r="E32" s="93">
+      <c r="E32" s="45">
         <v>9.3742382308811116</v>
       </c>
-      <c r="F32" s="93">
+      <c r="F32" s="45">
         <v>14.188260224308387</v>
       </c>
-      <c r="G32" s="93">
+      <c r="G32" s="45">
         <v>7.5254617047270349</v>
       </c>
-      <c r="H32" s="93">
+      <c r="H32" s="45">
         <v>2.8084379988803132</v>
       </c>
-      <c r="I32" s="93">
+      <c r="I32" s="45">
         <v>2.7330117936010438</v>
       </c>
-      <c r="J32" s="93">
+      <c r="J32" s="45">
         <v>2.8826932037123245</v>
       </c>
-      <c r="K32" s="94">
+      <c r="K32" s="46">
         <v>2290</v>
       </c>
-      <c r="L32" s="94">
+      <c r="L32" s="46">
         <v>12876</v>
       </c>
-      <c r="M32" s="94">
+      <c r="M32" s="46">
         <v>892</v>
       </c>
-      <c r="N32" s="95">
+      <c r="N32" s="47">
         <v>77.067885272520144</v>
       </c>
-      <c r="O32" s="95">
+      <c r="O32" s="47">
         <v>0.407548305317949</v>
       </c>
-      <c r="P32" s="95">
+      <c r="P32" s="47">
         <v>0.36114282759701538</v>
       </c>
-      <c r="Q32" s="95">
+      <c r="Q32" s="47">
         <v>40.672301151883204</v>
       </c>
-      <c r="R32" s="96">
+      <c r="R32" s="48">
         <f>K32/L32</f>
         <v>0.17785026405716062</v>
       </c>
-      <c r="S32" s="96">
+      <c r="S32" s="48">
         <f>M32/K32</f>
         <v>0.38951965065502181</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="92" t="s">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="93">
+      <c r="B33" s="45">
         <v>7.4185176282124861</v>
       </c>
-      <c r="C33" s="93">
+      <c r="C33" s="45">
         <v>13.650046792550837</v>
       </c>
-      <c r="D33" s="93">
+      <c r="D33" s="45">
         <v>5.7264307541709867</v>
       </c>
-      <c r="E33" s="93">
+      <c r="E33" s="45">
         <v>9.157719781868165</v>
       </c>
-      <c r="F33" s="93">
+      <c r="F33" s="45">
         <v>13.923559920338496</v>
       </c>
-      <c r="G33" s="93">
+      <c r="G33" s="45">
         <v>7.3132694685725967</v>
       </c>
-      <c r="H33" s="93">
+      <c r="H33" s="45">
         <v>2.8390677929858352</v>
       </c>
-      <c r="I33" s="93">
+      <c r="I33" s="45">
         <v>2.8205222146424469</v>
       </c>
-      <c r="J33" s="93">
+      <c r="J33" s="45">
         <v>2.8581801893874692</v>
       </c>
-      <c r="K33" s="94">
+      <c r="K33" s="46">
         <v>2242</v>
       </c>
-      <c r="L33" s="94">
+      <c r="L33" s="46">
         <v>12623</v>
       </c>
-      <c r="M33" s="94">
+      <c r="M33" s="46">
         <v>861</v>
       </c>
-      <c r="N33" s="95">
+      <c r="N33" s="47">
         <v>76.650283128485341</v>
       </c>
-      <c r="O33" s="95">
+      <c r="O33" s="47">
         <v>0.40183994523266486</v>
       </c>
-      <c r="P33" s="95">
+      <c r="P33" s="47">
         <v>0.35582642031343054</v>
       </c>
-      <c r="Q33" s="95">
+      <c r="Q33" s="47">
         <v>40.973125472027625</v>
       </c>
-      <c r="R33" s="96">
+      <c r="R33" s="48">
         <f>K33/L33</f>
         <v>0.17761229501703241</v>
       </c>
-      <c r="S33" s="96">
+      <c r="S33" s="48">
         <f>M33/K33</f>
         <v>0.38403211418376448</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="92" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="93">
+      <c r="B34" s="45">
         <v>7.79591533562684</v>
       </c>
-      <c r="C34" s="93">
+      <c r="C34" s="45">
         <v>14.533209054811632</v>
       </c>
-      <c r="D34" s="93">
+      <c r="D34" s="45">
         <v>6.0239147957864558</v>
       </c>
-      <c r="E34" s="93">
+      <c r="E34" s="45">
         <v>9.8677268097852053</v>
       </c>
-      <c r="F34" s="93">
+      <c r="F34" s="45">
         <v>14.980780042595049</v>
       </c>
-      <c r="G34" s="93">
+      <c r="G34" s="45">
         <v>8.0838507194290692</v>
       </c>
-      <c r="H34" s="93">
+      <c r="H34" s="45">
         <v>2.729800642331472</v>
       </c>
-      <c r="I34" s="93">
+      <c r="I34" s="45">
         <v>2.7125138664657333</v>
       </c>
-      <c r="J34" s="93">
+      <c r="J34" s="45">
         <v>2.7471532099226774</v>
       </c>
-      <c r="K34" s="94">
+      <c r="K34" s="46">
         <v>2213</v>
       </c>
-      <c r="L34" s="94">
+      <c r="L34" s="46">
         <v>13021</v>
       </c>
-      <c r="M34" s="94">
+      <c r="M34" s="46">
         <v>841</v>
       </c>
-      <c r="N34" s="95">
+      <c r="N34" s="47">
         <v>78.422348021684144</v>
       </c>
-      <c r="O34" s="95">
+      <c r="O34" s="47">
         <v>0.39449050620580889</v>
       </c>
-      <c r="P34" s="95">
+      <c r="P34" s="47">
         <v>0.3490981431587129</v>
       </c>
-      <c r="Q34" s="95">
+      <c r="Q34" s="47">
         <v>40.39761154448987</v>
       </c>
-      <c r="R34" s="96">
+      <c r="R34" s="48">
         <f>K34/L34</f>
         <v>0.16995622456032564</v>
       </c>
-      <c r="S34" s="96">
+      <c r="S34" s="48">
         <f>M34/K34</f>
         <v>0.38002711251694532</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="92" t="s">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="93">
+      <c r="B35" s="45">
         <v>7.2101451720570848</v>
       </c>
-      <c r="C35" s="93">
+      <c r="C35" s="45">
         <v>13.530696694997802</v>
       </c>
-      <c r="D35" s="93">
+      <c r="D35" s="45">
         <v>5.4898615161543818</v>
       </c>
-      <c r="E35" s="93">
+      <c r="E35" s="45">
         <v>9.2513736755684111</v>
       </c>
-      <c r="F35" s="93">
+      <c r="F35" s="45">
         <v>13.972158398081453</v>
       </c>
-      <c r="G35" s="93">
+      <c r="G35" s="45">
         <v>7.3448303914962763</v>
       </c>
-      <c r="H35" s="93">
+      <c r="H35" s="45">
         <v>2.7855933788032856</v>
       </c>
-      <c r="I35" s="93">
+      <c r="I35" s="45">
         <v>2.6043045323298335</v>
       </c>
-      <c r="J35" s="93">
+      <c r="J35" s="45">
         <v>2.9577934379871147</v>
       </c>
-      <c r="K35" s="94">
+      <c r="K35" s="46">
         <v>2281</v>
       </c>
-      <c r="L35" s="94">
+      <c r="L35" s="46">
         <v>12840</v>
       </c>
-      <c r="M35" s="94">
+      <c r="M35" s="46">
         <v>888</v>
       </c>
-      <c r="N35" s="95">
+      <c r="N35" s="47">
         <v>76.306514461264769</v>
       </c>
-      <c r="O35" s="95">
+      <c r="O35" s="47">
         <v>0.40693479190622739</v>
       </c>
-      <c r="P35" s="95">
+      <c r="P35" s="47">
         <v>0.35931002664680517</v>
       </c>
-      <c r="Q35" s="95">
+      <c r="Q35" s="47">
         <v>40.533965939187809</v>
       </c>
-      <c r="R35" s="96">
-        <f t="shared" ref="R35:R36" si="14">K35/L35</f>
+      <c r="R35" s="48">
+        <f t="shared" ref="R35:R36" si="15">K35/L35</f>
         <v>0.17764797507788163</v>
       </c>
-      <c r="S35" s="96">
-        <f t="shared" ref="S35:S36" si="15">M35/K35</f>
+      <c r="S35" s="48">
+        <f t="shared" ref="S35:S36" si="16">M35/K35</f>
         <v>0.38930293730819815</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="92" t="s">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="93">
+      <c r="B36" s="45">
         <v>7.8788657653032601</v>
       </c>
-      <c r="C36" s="93">
+      <c r="C36" s="45">
         <v>14.601631541979481</v>
       </c>
-      <c r="D36" s="93">
+      <c r="D36" s="45">
         <v>6.1400685414211242</v>
       </c>
-      <c r="E36" s="93">
+      <c r="E36" s="45">
         <v>9.7629433830726278</v>
       </c>
-      <c r="F36" s="93">
+      <c r="F36" s="45">
         <v>14.668325571622264</v>
       </c>
-      <c r="G36" s="93">
+      <c r="G36" s="45">
         <v>7.9997327290708942</v>
       </c>
-      <c r="H36" s="93">
+      <c r="H36" s="45">
         <v>2.8078467861743373</v>
       </c>
-      <c r="I36" s="93">
+      <c r="I36" s="45">
         <v>2.7637674051666417</v>
       </c>
-      <c r="J36" s="93">
+      <c r="J36" s="45">
         <v>2.8509900399768777</v>
       </c>
-      <c r="K36" s="94">
+      <c r="K36" s="46">
         <v>2247</v>
       </c>
-      <c r="L36" s="94">
+      <c r="L36" s="46">
         <v>13040</v>
       </c>
-      <c r="M36" s="94">
+      <c r="M36" s="46">
         <v>852</v>
       </c>
-      <c r="N36" s="95">
+      <c r="N36" s="47">
         <v>77.553430533000693</v>
       </c>
-      <c r="O36" s="95">
+      <c r="O36" s="47">
         <v>0.39681776897312149</v>
       </c>
-      <c r="P36" s="95">
+      <c r="P36" s="47">
         <v>0.35036145982427508</v>
       </c>
-      <c r="Q36" s="95">
+      <c r="Q36" s="47">
         <v>39.899873171005822</v>
       </c>
-      <c r="R36" s="96">
-        <f t="shared" si="14"/>
+      <c r="R36" s="48">
+        <f t="shared" si="15"/>
         <v>0.1723159509202454</v>
       </c>
-      <c r="S36" s="96">
-        <f t="shared" si="15"/>
+      <c r="S36" s="48">
+        <f t="shared" si="16"/>
         <v>0.37917222963951935</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="92" t="s">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="97">
-        <f t="shared" ref="B37:S37" si="16">AVERAGE(B32:B36)</f>
+      <c r="B37" s="49">
+        <f t="shared" ref="B37:S37" si="17">AVERAGE(B32:B36)</f>
         <v>7.5520885047303095</v>
       </c>
-      <c r="C37" s="97">
-        <f t="shared" si="16"/>
+      <c r="C37" s="49">
+        <f t="shared" si="17"/>
         <v>13.998797810289194</v>
       </c>
-      <c r="D37" s="97">
-        <f t="shared" si="16"/>
+      <c r="D37" s="49">
+        <f t="shared" si="17"/>
         <v>5.8308532435637463</v>
       </c>
-      <c r="E37" s="97">
-        <f t="shared" si="16"/>
+      <c r="E37" s="49">
+        <f t="shared" si="17"/>
         <v>9.4828003762351045</v>
       </c>
-      <c r="F37" s="97">
-        <f t="shared" si="16"/>
+      <c r="F37" s="49">
+        <f t="shared" si="17"/>
         <v>14.346616831389131</v>
       </c>
-      <c r="G37" s="97">
-        <f t="shared" si="16"/>
+      <c r="G37" s="49">
+        <f t="shared" si="17"/>
         <v>7.6534290026591751</v>
       </c>
-      <c r="H37" s="97">
-        <f t="shared" si="16"/>
+      <c r="H37" s="49">
+        <f t="shared" si="17"/>
         <v>2.7941493198350491</v>
       </c>
-      <c r="I37" s="97">
-        <f t="shared" si="16"/>
+      <c r="I37" s="49">
+        <f t="shared" si="17"/>
         <v>2.7268239624411397</v>
       </c>
-      <c r="J37" s="97">
-        <f t="shared" si="16"/>
+      <c r="J37" s="49">
+        <f t="shared" si="17"/>
         <v>2.8593620161972928</v>
       </c>
-      <c r="K37" s="97">
-        <f t="shared" si="16"/>
+      <c r="K37" s="49">
+        <f t="shared" si="17"/>
         <v>2254.6</v>
       </c>
-      <c r="L37" s="97">
-        <f t="shared" si="16"/>
+      <c r="L37" s="49">
+        <f t="shared" si="17"/>
         <v>12880</v>
       </c>
-      <c r="M37" s="97">
-        <f t="shared" si="16"/>
+      <c r="M37" s="49">
+        <f t="shared" si="17"/>
         <v>866.8</v>
       </c>
-      <c r="N37" s="97">
-        <f t="shared" si="16"/>
+      <c r="N37" s="49">
+        <f t="shared" si="17"/>
         <v>77.200092283391015</v>
       </c>
-      <c r="O37" s="97">
-        <f t="shared" si="16"/>
+      <c r="O37" s="49">
+        <f t="shared" si="17"/>
         <v>0.40152626352715426</v>
       </c>
-      <c r="P37" s="97">
-        <f t="shared" si="16"/>
+      <c r="P37" s="49">
+        <f t="shared" si="17"/>
         <v>0.35514777550804777</v>
       </c>
-      <c r="Q37" s="97">
-        <f t="shared" si="16"/>
+      <c r="Q37" s="49">
+        <f t="shared" si="17"/>
         <v>40.495375455718865</v>
       </c>
-      <c r="R37" s="97">
-        <f t="shared" si="16"/>
+      <c r="R37" s="49">
+        <f t="shared" si="17"/>
         <v>0.17507654192652916</v>
       </c>
-      <c r="S37" s="97">
-        <f t="shared" si="16"/>
+      <c r="S37" s="49">
+        <f t="shared" si="17"/>
         <v>0.38441080886068979</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="92" t="s">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="93">
+      <c r="B38" s="45">
         <v>6.7532659473208927</v>
       </c>
-      <c r="C38" s="93">
+      <c r="C38" s="45">
         <v>12.436911831245489</v>
       </c>
-      <c r="D38" s="93">
+      <c r="D38" s="45">
         <v>5.251408599377652</v>
       </c>
-      <c r="E38" s="93">
+      <c r="E38" s="45">
         <v>8.4032372796001074</v>
       </c>
-      <c r="F38" s="93">
+      <c r="F38" s="45">
         <v>12.949280433431472</v>
       </c>
-      <c r="G38" s="93">
+      <c r="G38" s="45">
         <v>6.6400219706498058</v>
       </c>
-      <c r="H38" s="93">
+      <c r="H38" s="45">
         <v>4.7655885398265925</v>
       </c>
-      <c r="I38" s="93">
+      <c r="I38" s="45">
         <v>4.7702410394470141</v>
       </c>
-      <c r="J38" s="93">
+      <c r="J38" s="45">
         <v>4.7607691865917507</v>
       </c>
-      <c r="K38" s="94">
+      <c r="K38" s="46">
         <v>3004</v>
       </c>
-      <c r="L38" s="94">
+      <c r="L38" s="46">
         <v>12727</v>
       </c>
-      <c r="M38" s="94">
+      <c r="M38" s="46">
         <v>914</v>
       </c>
-      <c r="N38" s="95">
+      <c r="N38" s="47">
         <v>85.162145056167063</v>
       </c>
-      <c r="O38" s="95">
+      <c r="O38" s="47">
         <v>0.82920079693070059</v>
       </c>
-      <c r="P38" s="95">
+      <c r="P38" s="47">
         <v>0.61954320611850933</v>
       </c>
-      <c r="Q38" s="95">
+      <c r="Q38" s="47">
         <v>45.569284914609518</v>
       </c>
-      <c r="R38" s="96">
+      <c r="R38" s="48">
         <f>K38/L38</f>
         <v>0.23603362929205626</v>
       </c>
-      <c r="S38" s="96">
+      <c r="S38" s="48">
         <f>M38/K38</f>
         <v>0.30426098535286283</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="92" t="s">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="93">
+      <c r="B39" s="45">
         <v>6.8127446444569548</v>
       </c>
-      <c r="C39" s="93">
+      <c r="C39" s="45">
         <v>12.785929821455316</v>
       </c>
-      <c r="D39" s="93">
+      <c r="D39" s="45">
         <v>5.0573201856477841</v>
       </c>
-      <c r="E39" s="93">
+      <c r="E39" s="45">
         <v>8.656529187312449</v>
       </c>
-      <c r="F39" s="93">
+      <c r="F39" s="45">
         <v>13.151242959475089</v>
       </c>
-      <c r="G39" s="93">
+      <c r="G39" s="45">
         <v>6.8339150650486191</v>
       </c>
-      <c r="H39" s="93">
+      <c r="H39" s="45">
         <v>4.6331745659796217</v>
       </c>
-      <c r="I39" s="93">
+      <c r="I39" s="45">
         <v>4.6380726011565701</v>
       </c>
-      <c r="J39" s="93">
+      <c r="J39" s="45">
         <v>4.6282606280910779</v>
       </c>
-      <c r="K39" s="94">
+      <c r="K39" s="46">
         <v>3002</v>
       </c>
-      <c r="L39" s="94">
+      <c r="L39" s="46">
         <v>12882</v>
       </c>
-      <c r="M39" s="94">
+      <c r="M39" s="46">
         <v>962</v>
       </c>
-      <c r="N39" s="95">
+      <c r="N39" s="47">
         <v>83.137855120336013</v>
       </c>
-      <c r="O39" s="95">
+      <c r="O39" s="47">
         <v>0.81892175976098547</v>
       </c>
-      <c r="P39" s="95">
+      <c r="P39" s="47">
         <v>0.60364409595454482</v>
       </c>
-      <c r="Q39" s="95">
+      <c r="Q39" s="47">
         <v>44.074132187154888</v>
       </c>
-      <c r="R39" s="96">
+      <c r="R39" s="48">
         <f>K39/L39</f>
         <v>0.23303834808259588</v>
       </c>
-      <c r="S39" s="96">
+      <c r="S39" s="48">
         <f>M39/K39</f>
         <v>0.32045303131245834</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="92" t="s">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="93">
+      <c r="B40" s="45">
         <v>7.0593752016976721</v>
       </c>
-      <c r="C40" s="93">
+      <c r="C40" s="45">
         <v>13.031884157031582</v>
       </c>
-      <c r="D40" s="93">
+      <c r="D40" s="45">
         <v>5.3336302705293228</v>
       </c>
-      <c r="E40" s="93">
+      <c r="E40" s="45">
         <v>8.7387487210300279</v>
       </c>
-      <c r="F40" s="93">
+      <c r="F40" s="45">
         <v>13.358720136731348</v>
       </c>
-      <c r="G40" s="93">
+      <c r="G40" s="45">
         <v>6.9122036018430375</v>
       </c>
-      <c r="H40" s="93">
+      <c r="H40" s="45">
         <v>4.6703554098054108</v>
       </c>
-      <c r="I40" s="93">
+      <c r="I40" s="45">
         <v>4.6166799968155638</v>
       </c>
-      <c r="J40" s="93">
+      <c r="J40" s="45">
         <v>4.7243367901331501</v>
       </c>
-      <c r="K40" s="94">
+      <c r="K40" s="46">
         <v>3021</v>
       </c>
-      <c r="L40" s="94">
+      <c r="L40" s="46">
         <v>13089</v>
       </c>
-      <c r="M40" s="94">
+      <c r="M40" s="46">
         <v>899</v>
       </c>
-      <c r="N40" s="95">
+      <c r="N40" s="47">
         <v>82.581116761556629</v>
       </c>
-      <c r="O40" s="95">
+      <c r="O40" s="47">
         <v>0.82599172437926316</v>
       </c>
-      <c r="P40" s="95">
+      <c r="P40" s="47">
         <v>0.61483632975759694</v>
       </c>
-      <c r="Q40" s="95">
+      <c r="Q40" s="47">
         <v>44.907631350173425</v>
       </c>
-      <c r="R40" s="96">
+      <c r="R40" s="48">
         <f>K40/L40</f>
         <v>0.23080449232179692</v>
       </c>
-      <c r="S40" s="96">
+      <c r="S40" s="48">
         <f>M40/K40</f>
         <v>0.29758358159549819</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="92" t="s">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="93">
+      <c r="B41" s="45">
         <v>6.8429526144766237</v>
       </c>
-      <c r="C41" s="93">
+      <c r="C41" s="45">
         <v>12.456961517603395</v>
       </c>
-      <c r="D41" s="93">
+      <c r="D41" s="45">
         <v>5.1658351812040424</v>
       </c>
-      <c r="E41" s="93">
+      <c r="E41" s="45">
         <v>8.3825666459670174</v>
       </c>
-      <c r="F41" s="93">
+      <c r="F41" s="45">
         <v>12.791135367700601</v>
       </c>
-      <c r="G41" s="93">
+      <c r="G41" s="45">
         <v>6.6446272689140677</v>
       </c>
-      <c r="H41" s="93">
+      <c r="H41" s="45">
         <v>4.7427251068845271</v>
       </c>
-      <c r="I41" s="93">
+      <c r="I41" s="45">
         <v>4.6852408421919831</v>
       </c>
-      <c r="J41" s="93">
+      <c r="J41" s="45">
         <v>4.8033256995212348</v>
       </c>
-      <c r="K41" s="94">
+      <c r="K41" s="46">
         <v>3042</v>
       </c>
-      <c r="L41" s="94">
+      <c r="L41" s="46">
         <v>12916</v>
       </c>
-      <c r="M41" s="94">
+      <c r="M41" s="46">
         <v>912</v>
       </c>
-      <c r="N41" s="95">
+      <c r="N41" s="47">
         <v>84.981777236769545</v>
       </c>
-      <c r="O41" s="95">
+      <c r="O41" s="47">
         <v>0.8196082947700819</v>
       </c>
-      <c r="P41" s="95">
+      <c r="P41" s="47">
         <v>0.61357655043500769</v>
       </c>
-      <c r="Q41" s="95">
+      <c r="Q41" s="47">
         <v>46.71656954044083</v>
       </c>
-      <c r="R41" s="96">
-        <f t="shared" ref="R41:R42" si="17">K41/L41</f>
+      <c r="R41" s="48">
+        <f t="shared" ref="R41:R42" si="18">K41/L41</f>
         <v>0.23552183338494889</v>
       </c>
-      <c r="S41" s="96">
-        <f t="shared" ref="S41:S42" si="18">M41/K41</f>
+      <c r="S41" s="48">
+        <f t="shared" ref="S41:S42" si="19">M41/K41</f>
         <v>0.29980276134122286</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="92" t="s">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="93">
+      <c r="B42" s="45">
         <v>6.5797229432031381</v>
       </c>
-      <c r="C42" s="93">
+      <c r="C42" s="45">
         <v>12.318757289093883</v>
       </c>
-      <c r="D42" s="93">
+      <c r="D42" s="45">
         <v>4.9875983228236693</v>
       </c>
-      <c r="E42" s="93">
+      <c r="E42" s="45">
         <v>8.3550559707266565</v>
       </c>
-      <c r="F42" s="93">
+      <c r="F42" s="45">
         <v>12.741670766702462</v>
       </c>
-      <c r="G42" s="93">
+      <c r="G42" s="45">
         <v>6.6094262174893474</v>
       </c>
-      <c r="H42" s="93">
+      <c r="H42" s="45">
         <v>4.628997105341087</v>
       </c>
-      <c r="I42" s="93">
+      <c r="I42" s="45">
         <v>4.5536007509713388</v>
       </c>
-      <c r="J42" s="93">
+      <c r="J42" s="45">
         <v>4.7013310570150546</v>
       </c>
-      <c r="K42" s="94">
+      <c r="K42" s="46">
         <v>3001</v>
       </c>
-      <c r="L42" s="94">
+      <c r="L42" s="46">
         <v>12805</v>
       </c>
-      <c r="M42" s="94">
+      <c r="M42" s="46">
         <v>922</v>
       </c>
-      <c r="N42" s="95">
+      <c r="N42" s="47">
         <v>82.08140333715707</v>
       </c>
-      <c r="O42" s="95">
+      <c r="O42" s="47">
         <v>0.80869914744547455</v>
       </c>
-      <c r="P42" s="95">
+      <c r="P42" s="47">
         <v>0.5987537381034832</v>
       </c>
-      <c r="Q42" s="95">
+      <c r="Q42" s="47">
         <v>44.213361339598897</v>
       </c>
-      <c r="R42" s="96">
-        <f t="shared" si="17"/>
+      <c r="R42" s="48">
+        <f t="shared" si="18"/>
         <v>0.23436157750878564</v>
       </c>
-      <c r="S42" s="96">
-        <f t="shared" si="18"/>
+      <c r="S42" s="48">
+        <f t="shared" si="19"/>
         <v>0.30723092302565813</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="92" t="s">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="97">
-        <f t="shared" ref="B43:S43" si="19">AVERAGE(B38:B42)</f>
+      <c r="B43" s="49">
+        <f t="shared" ref="B43:S43" si="20">AVERAGE(B38:B42)</f>
         <v>6.8096122702310566</v>
       </c>
-      <c r="C43" s="97">
-        <f t="shared" si="19"/>
+      <c r="C43" s="49">
+        <f t="shared" si="20"/>
         <v>12.606088923285933</v>
       </c>
-      <c r="D43" s="97">
-        <f t="shared" si="19"/>
+      <c r="D43" s="49">
+        <f t="shared" si="20"/>
         <v>5.1591585119164938</v>
       </c>
-      <c r="E43" s="97">
-        <f t="shared" si="19"/>
+      <c r="E43" s="49">
+        <f t="shared" si="20"/>
         <v>8.5072275609272516</v>
       </c>
-      <c r="F43" s="97">
-        <f t="shared" si="19"/>
+      <c r="F43" s="49">
+        <f t="shared" si="20"/>
         <v>12.998409932808192</v>
       </c>
-      <c r="G43" s="97">
-        <f t="shared" si="19"/>
+      <c r="G43" s="49">
+        <f t="shared" si="20"/>
         <v>6.7280388247889764</v>
       </c>
-      <c r="H43" s="97">
-        <f t="shared" si="19"/>
+      <c r="H43" s="49">
+        <f t="shared" si="20"/>
         <v>4.688168145567448</v>
       </c>
-      <c r="I43" s="97">
-        <f t="shared" si="19"/>
+      <c r="I43" s="49">
+        <f t="shared" si="20"/>
         <v>4.6527670461164936</v>
       </c>
-      <c r="J43" s="97">
-        <f t="shared" si="19"/>
+      <c r="J43" s="49">
+        <f t="shared" si="20"/>
         <v>4.7236046722704534</v>
       </c>
-      <c r="K43" s="97">
-        <f t="shared" si="19"/>
+      <c r="K43" s="49">
+        <f t="shared" si="20"/>
         <v>3014</v>
       </c>
-      <c r="L43" s="97">
-        <f t="shared" si="19"/>
+      <c r="L43" s="49">
+        <f t="shared" si="20"/>
         <v>12883.8</v>
       </c>
-      <c r="M43" s="97">
-        <f t="shared" si="19"/>
+      <c r="M43" s="49">
+        <f t="shared" si="20"/>
         <v>921.8</v>
       </c>
-      <c r="N43" s="97">
-        <f t="shared" si="19"/>
+      <c r="N43" s="49">
+        <f t="shared" si="20"/>
         <v>83.588859502397284</v>
       </c>
-      <c r="O43" s="97">
-        <f t="shared" si="19"/>
+      <c r="O43" s="49">
+        <f t="shared" si="20"/>
         <v>0.82048434465730102</v>
       </c>
-      <c r="P43" s="97">
-        <f t="shared" si="19"/>
+      <c r="P43" s="49">
+        <f t="shared" si="20"/>
         <v>0.61007078407382831</v>
       </c>
-      <c r="Q43" s="97">
-        <f t="shared" si="19"/>
+      <c r="Q43" s="49">
+        <f t="shared" si="20"/>
         <v>45.096195866395519</v>
       </c>
-      <c r="R43" s="97">
-        <f t="shared" si="19"/>
+      <c r="R43" s="49">
+        <f t="shared" si="20"/>
         <v>0.23395197611803673</v>
       </c>
-      <c r="S43" s="97">
-        <f t="shared" si="19"/>
+      <c r="S43" s="49">
+        <f t="shared" si="20"/>
         <v>0.30586625652554006</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="92" t="s">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="93">
+      <c r="B44" s="45">
         <v>6.4017773014851658</v>
       </c>
-      <c r="C44" s="93">
+      <c r="C44" s="45">
         <v>11.911352243601465</v>
       </c>
-      <c r="D44" s="93">
+      <c r="D44" s="45">
         <v>4.7581132490892619</v>
       </c>
-      <c r="E44" s="93">
+      <c r="E44" s="45">
         <v>7.9308190709644721</v>
       </c>
-      <c r="F44" s="93">
+      <c r="F44" s="45">
         <v>12.361602448225051</v>
       </c>
-      <c r="G44" s="93">
+      <c r="G44" s="45">
         <v>6.1095807525761252</v>
       </c>
-      <c r="H44" s="93">
+      <c r="H44" s="45">
         <v>2.9324728492513921</v>
       </c>
-      <c r="I44" s="93">
+      <c r="I44" s="45">
         <v>2.9637302840008255</v>
       </c>
-      <c r="J44" s="93">
+      <c r="J44" s="45">
         <v>2.9004588375889404</v>
       </c>
-      <c r="K44" s="94">
+      <c r="K44" s="46">
         <v>3067</v>
       </c>
-      <c r="L44" s="94">
+      <c r="L44" s="46">
         <v>12845</v>
       </c>
-      <c r="M44" s="94">
+      <c r="M44" s="46">
         <v>911</v>
       </c>
-      <c r="N44" s="95">
+      <c r="N44" s="47">
         <v>84.928261576544301</v>
       </c>
-      <c r="O44" s="95">
+      <c r="O44" s="47">
         <v>0.3278014291845231</v>
       </c>
-      <c r="P44" s="95">
+      <c r="P44" s="47">
         <v>0.39366216701906637</v>
       </c>
-      <c r="Q44" s="95">
+      <c r="Q44" s="47">
         <v>43.943946949880107</v>
       </c>
-      <c r="R44" s="96">
+      <c r="R44" s="48">
         <f>K44/L44</f>
         <v>0.23876994939665239</v>
       </c>
-      <c r="S44" s="96">
+      <c r="S44" s="48">
         <f>M44/K44</f>
         <v>0.29703293120313007</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="92" t="s">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="93">
+      <c r="B45" s="45">
         <v>6.7627069550602377</v>
       </c>
-      <c r="C45" s="93">
+      <c r="C45" s="45">
         <v>12.481966605783716</v>
       </c>
-      <c r="D45" s="93">
+      <c r="D45" s="45">
         <v>5.0723517330035781</v>
       </c>
-      <c r="E45" s="93">
+      <c r="E45" s="45">
         <v>8.3109459909724741</v>
       </c>
-      <c r="F45" s="93">
+      <c r="F45" s="45">
         <v>13.003428582938849</v>
       </c>
-      <c r="G45" s="93">
+      <c r="G45" s="45">
         <v>6.4271172897417781</v>
       </c>
-      <c r="H45" s="93">
+      <c r="H45" s="45">
         <v>2.8163053705660954</v>
       </c>
-      <c r="I45" s="93">
+      <c r="I45" s="45">
         <v>2.8146163204011212</v>
       </c>
-      <c r="J45" s="93">
+      <c r="J45" s="45">
         <v>2.8180405825785835</v>
       </c>
-      <c r="K45" s="94">
+      <c r="K45" s="46">
         <v>3022</v>
       </c>
-      <c r="L45" s="94">
+      <c r="L45" s="46">
         <v>12851</v>
       </c>
-      <c r="M45" s="94">
+      <c r="M45" s="46">
         <v>899</v>
       </c>
-      <c r="N45" s="95">
+      <c r="N45" s="47">
         <v>83.160849599643655</v>
       </c>
-      <c r="O45" s="95">
+      <c r="O45" s="47">
         <v>0.31550749767317798</v>
       </c>
-      <c r="P45" s="95">
+      <c r="P45" s="47">
         <v>0.38076103955580376</v>
       </c>
-      <c r="Q45" s="95">
+      <c r="Q45" s="47">
         <v>43.753469577159372</v>
       </c>
-      <c r="R45" s="96">
+      <c r="R45" s="48">
         <f>K45/L45</f>
         <v>0.23515679713640961</v>
       </c>
-      <c r="S45" s="96">
+      <c r="S45" s="48">
         <f>M45/K45</f>
         <v>0.29748510919920584</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="92" t="s">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="93">
+      <c r="B46" s="45">
         <v>7.3911041610488173</v>
       </c>
-      <c r="C46" s="93">
+      <c r="C46" s="45">
         <v>13.507932960424851</v>
       </c>
-      <c r="D46" s="93">
+      <c r="D46" s="45">
         <v>5.6686150898476786</v>
       </c>
-      <c r="E46" s="93">
+      <c r="E46" s="45">
         <v>9.060510430127982</v>
       </c>
-      <c r="F46" s="93">
+      <c r="F46" s="45">
         <v>13.739820442474723</v>
       </c>
-      <c r="G46" s="93">
+      <c r="G46" s="45">
         <v>7.2362317385147774</v>
       </c>
-      <c r="H46" s="93">
+      <c r="H46" s="45">
         <v>2.8608192979582032</v>
       </c>
-      <c r="I46" s="93">
+      <c r="I46" s="45">
         <v>2.864449572415841</v>
       </c>
-      <c r="J46" s="93">
+      <c r="J46" s="45">
         <v>2.8570829932312756</v>
       </c>
-      <c r="K46" s="94">
+      <c r="K46" s="46">
         <v>3061</v>
       </c>
-      <c r="L46" s="94">
+      <c r="L46" s="46">
         <v>13255</v>
       </c>
-      <c r="M46" s="94">
+      <c r="M46" s="46">
         <v>913</v>
       </c>
-      <c r="N46" s="95">
+      <c r="N46" s="47">
         <v>81.928667178073596</v>
       </c>
-      <c r="O46" s="95">
+      <c r="O46" s="47">
         <v>0.32286152094668763</v>
       </c>
-      <c r="P46" s="95">
+      <c r="P46" s="47">
         <v>0.389659626521495</v>
       </c>
-      <c r="Q46" s="95">
+      <c r="Q46" s="47">
         <v>45.878364632584692</v>
       </c>
-      <c r="R46" s="96">
+      <c r="R46" s="48">
         <f>K46/L46</f>
         <v>0.23093172387778196</v>
       </c>
-      <c r="S46" s="96">
+      <c r="S46" s="48">
         <f>M46/K46</f>
         <v>0.29826853969291084</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="92" t="s">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="93">
+      <c r="B47" s="45">
         <v>6.7364673675046545</v>
       </c>
-      <c r="C47" s="93">
+      <c r="C47" s="45">
         <v>12.625850050477762</v>
       </c>
-      <c r="D47" s="93">
+      <c r="D47" s="45">
         <v>5.1308107205371645</v>
       </c>
-      <c r="E47" s="93">
+      <c r="E47" s="45">
         <v>8.3758156405245039</v>
       </c>
-      <c r="F47" s="93">
+      <c r="F47" s="45">
         <v>12.764689824497902</v>
       </c>
-      <c r="G47" s="93">
+      <c r="G47" s="45">
         <v>6.6191599927602773</v>
       </c>
-      <c r="H47" s="93">
+      <c r="H47" s="45">
         <v>2.8176455388694732</v>
       </c>
-      <c r="I47" s="93">
+      <c r="I47" s="45">
         <v>2.7555826421265674</v>
       </c>
-      <c r="J47" s="93">
+      <c r="J47" s="45">
         <v>2.8828805392236823</v>
       </c>
-      <c r="K47" s="94">
+      <c r="K47" s="46">
         <v>2900</v>
       </c>
-      <c r="L47" s="94">
+      <c r="L47" s="46">
         <v>12913</v>
       </c>
-      <c r="M47" s="94">
+      <c r="M47" s="46">
         <v>929</v>
       </c>
-      <c r="N47" s="95">
+      <c r="N47" s="47">
         <v>81.873419522220999</v>
       </c>
-      <c r="O47" s="95">
+      <c r="O47" s="47">
         <v>0.30531504835478612</v>
       </c>
-      <c r="P47" s="95">
+      <c r="P47" s="47">
         <v>0.3672693335199404</v>
       </c>
-      <c r="Q47" s="95">
+      <c r="Q47" s="47">
         <v>42.167642721826404</v>
       </c>
-      <c r="R47" s="96">
-        <f t="shared" ref="R47:R48" si="20">K47/L47</f>
+      <c r="R47" s="48">
+        <f t="shared" ref="R47:R48" si="21">K47/L47</f>
         <v>0.22457988074033919</v>
       </c>
-      <c r="S47" s="96">
-        <f t="shared" ref="S47:S48" si="21">M47/K47</f>
+      <c r="S47" s="48">
+        <f t="shared" ref="S47:S48" si="22">M47/K47</f>
         <v>0.32034482758620692</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="92" t="s">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="93">
+      <c r="B48" s="45">
         <v>6.5972358676427323</v>
       </c>
-      <c r="C48" s="93">
+      <c r="C48" s="45">
         <v>12.249040927907545</v>
       </c>
-      <c r="D48" s="93">
+      <c r="D48" s="45">
         <v>4.9725113314335179</v>
       </c>
-      <c r="E48" s="93">
+      <c r="E48" s="45">
         <v>8.3672248077499756</v>
       </c>
-      <c r="F48" s="93">
+      <c r="F48" s="45">
         <v>12.979681114945596</v>
       </c>
-      <c r="G48" s="93">
+      <c r="G48" s="45">
         <v>6.5138056685910284</v>
       </c>
-      <c r="H48" s="93">
+      <c r="H48" s="45">
         <v>2.8511045233506582</v>
       </c>
-      <c r="I48" s="93">
+      <c r="I48" s="45">
         <v>2.8996309985576842</v>
       </c>
-      <c r="J48" s="93">
+      <c r="J48" s="45">
         <v>2.8023168019782982</v>
       </c>
-      <c r="K48" s="94">
+      <c r="K48" s="46">
         <v>3126</v>
       </c>
-      <c r="L48" s="94">
+      <c r="L48" s="46">
         <v>12948</v>
       </c>
-      <c r="M48" s="94">
+      <c r="M48" s="46">
         <v>878</v>
       </c>
-      <c r="N48" s="95">
+      <c r="N48" s="47">
         <v>84.498312657796831</v>
       </c>
-      <c r="O48" s="95">
+      <c r="O48" s="47">
         <v>0.33613348727617459</v>
       </c>
-      <c r="P48" s="95">
+      <c r="P48" s="47">
         <v>0.4052628808468039</v>
       </c>
-      <c r="Q48" s="95">
+      <c r="Q48" s="47">
         <v>45.878627857745506</v>
       </c>
-      <c r="R48" s="96">
-        <f t="shared" si="20"/>
+      <c r="R48" s="48">
+        <f t="shared" si="21"/>
         <v>0.24142724745134383</v>
       </c>
-      <c r="S48" s="96">
-        <f t="shared" si="21"/>
+      <c r="S48" s="48">
+        <f t="shared" si="22"/>
         <v>0.28087012156110047</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="92" t="s">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="97">
-        <f t="shared" ref="B49:S49" si="22">AVERAGE(B44:B48)</f>
+      <c r="B49" s="49">
+        <f t="shared" ref="B49:S49" si="23">AVERAGE(B44:B48)</f>
         <v>6.7778583305483222</v>
       </c>
-      <c r="C49" s="97">
-        <f t="shared" si="22"/>
+      <c r="C49" s="49">
+        <f t="shared" si="23"/>
         <v>12.555228557639069</v>
       </c>
-      <c r="D49" s="97">
-        <f t="shared" si="22"/>
+      <c r="D49" s="49">
+        <f t="shared" si="23"/>
         <v>5.1204804247822393</v>
       </c>
-      <c r="E49" s="97">
-        <f t="shared" si="22"/>
+      <c r="E49" s="49">
+        <f t="shared" si="23"/>
         <v>8.409063188067881</v>
       </c>
-      <c r="F49" s="97">
-        <f t="shared" si="22"/>
+      <c r="F49" s="49">
+        <f t="shared" si="23"/>
         <v>12.969844482616423</v>
       </c>
-      <c r="G49" s="97">
-        <f t="shared" si="22"/>
+      <c r="G49" s="49">
+        <f t="shared" si="23"/>
         <v>6.5811790884367962</v>
       </c>
-      <c r="H49" s="97">
-        <f t="shared" si="22"/>
+      <c r="H49" s="49">
+        <f t="shared" si="23"/>
         <v>2.8556695159991645</v>
       </c>
-      <c r="I49" s="97">
-        <f t="shared" si="22"/>
+      <c r="I49" s="49">
+        <f t="shared" si="23"/>
         <v>2.859601963500408</v>
       </c>
-      <c r="J49" s="97">
-        <f t="shared" si="22"/>
+      <c r="J49" s="49">
+        <f t="shared" si="23"/>
         <v>2.8521559509201557</v>
       </c>
-      <c r="K49" s="97">
-        <f t="shared" si="22"/>
+      <c r="K49" s="49">
+        <f t="shared" si="23"/>
         <v>3035.2</v>
       </c>
-      <c r="L49" s="97">
-        <f t="shared" si="22"/>
+      <c r="L49" s="49">
+        <f t="shared" si="23"/>
         <v>12962.4</v>
       </c>
-      <c r="M49" s="97">
-        <f t="shared" si="22"/>
+      <c r="M49" s="49">
+        <f t="shared" si="23"/>
         <v>906</v>
       </c>
-      <c r="N49" s="97">
-        <f t="shared" si="22"/>
+      <c r="N49" s="49">
+        <f t="shared" si="23"/>
         <v>83.277902106855862</v>
       </c>
-      <c r="O49" s="97">
-        <f t="shared" si="22"/>
+      <c r="O49" s="49">
+        <f t="shared" si="23"/>
         <v>0.32152379668706987</v>
       </c>
-      <c r="P49" s="97">
-        <f t="shared" si="22"/>
+      <c r="P49" s="49">
+        <f t="shared" si="23"/>
         <v>0.38732300949262194</v>
       </c>
-      <c r="Q49" s="97">
-        <f t="shared" si="22"/>
+      <c r="Q49" s="49">
+        <f t="shared" si="23"/>
         <v>44.324410347839219</v>
       </c>
-      <c r="R49" s="97">
-        <f t="shared" si="22"/>
+      <c r="R49" s="49">
+        <f t="shared" si="23"/>
         <v>0.23417311972050539</v>
       </c>
-      <c r="S49" s="97">
-        <f t="shared" si="22"/>
+      <c r="S49" s="49">
+        <f t="shared" si="23"/>
         <v>0.29880030584851081</v>
       </c>
     </row>
-    <row r="50" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="92" t="s">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="98">
+      <c r="B50" s="50">
         <v>6.5575549978697927</v>
       </c>
-      <c r="C50" s="98">
+      <c r="C50" s="50">
         <v>12.184868558975607</v>
       </c>
-      <c r="D50" s="98">
+      <c r="D50" s="50">
         <v>4.9665387673971839</v>
       </c>
-      <c r="E50" s="98">
+      <c r="E50" s="50">
         <v>8.2845232610750994</v>
       </c>
-      <c r="F50" s="98">
+      <c r="F50" s="50">
         <v>12.738318313574203</v>
       </c>
-      <c r="G50" s="98">
+      <c r="G50" s="50">
         <v>6.4135839348421424</v>
       </c>
-      <c r="H50" s="98">
+      <c r="H50" s="50">
         <v>2.846348468035413</v>
       </c>
-      <c r="I50" s="98">
+      <c r="I50" s="50">
         <v>2.7518324365446274</v>
       </c>
-      <c r="J50" s="98">
+      <c r="J50" s="50">
         <v>2.9318508820166818</v>
       </c>
-      <c r="K50" s="99">
+      <c r="K50" s="51">
         <v>2963</v>
       </c>
-      <c r="L50" s="99">
+      <c r="L50" s="51">
         <v>12872</v>
       </c>
-      <c r="M50" s="99">
+      <c r="M50" s="51">
         <v>913</v>
       </c>
-      <c r="N50" s="95">
+      <c r="N50" s="47">
         <v>81.889958802422854</v>
       </c>
-      <c r="O50" s="95">
+      <c r="O50" s="47">
         <v>0.24817010784948554</v>
       </c>
-      <c r="P50" s="95">
+      <c r="P50" s="47">
         <v>0.38545255658704997</v>
       </c>
-      <c r="Q50" s="95">
+      <c r="Q50" s="47">
         <v>45.347206163911359</v>
       </c>
-      <c r="R50" s="96">
+      <c r="R50" s="48">
         <f>K50/L50</f>
         <v>0.23018955873213176</v>
       </c>
-      <c r="S50" s="96">
+      <c r="S50" s="48">
         <f>M50/K50</f>
         <v>0.30813364832939588</v>
       </c>
     </row>
-    <row r="51" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="92" t="s">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="98">
+      <c r="B51" s="50">
         <v>6.9104852650028272</v>
       </c>
-      <c r="C51" s="98">
+      <c r="C51" s="50">
         <v>12.688941214985228</v>
       </c>
-      <c r="D51" s="98">
+      <c r="D51" s="50">
         <v>5.2466227239161212</v>
       </c>
-      <c r="E51" s="98">
+      <c r="E51" s="50">
         <v>8.5037379358252885</v>
       </c>
-      <c r="F51" s="98">
+      <c r="F51" s="50">
         <v>13.001529515812088</v>
       </c>
-      <c r="G51" s="98">
+      <c r="G51" s="50">
         <v>6.7276447342216787</v>
       </c>
-      <c r="H51" s="98">
+      <c r="H51" s="50">
         <v>2.8590293034289078</v>
       </c>
-      <c r="I51" s="98">
+      <c r="I51" s="50">
         <v>2.8761611732207175</v>
       </c>
-      <c r="J51" s="98">
+      <c r="J51" s="50">
         <v>2.8421319561530658</v>
       </c>
-      <c r="K51" s="99">
+      <c r="K51" s="51">
         <v>3043</v>
       </c>
-      <c r="L51" s="99">
+      <c r="L51" s="51">
         <v>12977</v>
       </c>
-      <c r="M51" s="99">
+      <c r="M51" s="51">
         <v>916</v>
       </c>
-      <c r="N51" s="95">
+      <c r="N51" s="47">
         <v>83.516355118998632</v>
       </c>
-      <c r="O51" s="95">
+      <c r="O51" s="47">
         <v>0.25064061838587975</v>
       </c>
-      <c r="P51" s="95">
+      <c r="P51" s="47">
         <v>0.39309121986797851</v>
       </c>
-      <c r="Q51" s="95">
+      <c r="Q51" s="47">
         <v>44.400959646016751</v>
       </c>
-      <c r="R51" s="96">
+      <c r="R51" s="48">
         <f>K51/L51</f>
         <v>0.23449179317253602</v>
       </c>
-      <c r="S51" s="96">
+      <c r="S51" s="48">
         <f>M51/K51</f>
         <v>0.30101873151495234</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="92" t="s">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A52" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="98">
+      <c r="B52" s="50">
         <v>6.748393046210067</v>
       </c>
-      <c r="C52" s="98">
+      <c r="C52" s="50">
         <v>12.538190730037952</v>
       </c>
-      <c r="D52" s="98">
+      <c r="D52" s="50">
         <v>5.081298379983135</v>
       </c>
-      <c r="E52" s="98">
+      <c r="E52" s="50">
         <v>8.4103198320724619</v>
       </c>
-      <c r="F52" s="98">
+      <c r="F52" s="50">
         <v>12.977081423751164</v>
       </c>
-      <c r="G52" s="98">
+      <c r="G52" s="50">
         <v>6.6553377888491614</v>
       </c>
-      <c r="H52" s="98">
+      <c r="H52" s="50">
         <v>2.7939102007670873</v>
       </c>
-      <c r="I52" s="98">
+      <c r="I52" s="50">
         <v>2.7953419513670834</v>
       </c>
-      <c r="J52" s="98">
+      <c r="J52" s="50">
         <v>2.7925856825282476</v>
       </c>
-      <c r="K52" s="99">
+      <c r="K52" s="51">
         <v>2918</v>
       </c>
-      <c r="L52" s="99">
+      <c r="L52" s="51">
         <v>12893</v>
       </c>
-      <c r="M52" s="99">
+      <c r="M52" s="51">
         <v>905</v>
       </c>
-      <c r="N52" s="95">
+      <c r="N52" s="47">
         <v>82.109488647529886</v>
       </c>
-      <c r="O52" s="95">
+      <c r="O52" s="47">
         <v>0.2373655118382321</v>
       </c>
-      <c r="P52" s="95">
+      <c r="P52" s="47">
         <v>0.3744223545331602</v>
       </c>
-      <c r="Q52" s="95">
+      <c r="Q52" s="47">
         <v>43.201438005047123</v>
       </c>
-      <c r="R52" s="96">
+      <c r="R52" s="48">
         <f>K52/L52</f>
         <v>0.22632436205693013</v>
       </c>
-      <c r="S52" s="96">
+      <c r="S52" s="48">
         <f>M52/K52</f>
         <v>0.31014393420150788</v>
       </c>
     </row>
-    <row r="53" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="92" t="s">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A53" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="98">
+      <c r="B53" s="50">
         <v>6.6217254243746817</v>
       </c>
-      <c r="C53" s="98">
+      <c r="C53" s="50">
         <v>12.479166736245585</v>
       </c>
-      <c r="D53" s="98">
+      <c r="D53" s="50">
         <v>4.980472604124901</v>
       </c>
-      <c r="E53" s="98">
+      <c r="E53" s="50">
         <v>8.3404877782175291</v>
       </c>
-      <c r="F53" s="98">
+      <c r="F53" s="50">
         <v>12.736294344708764</v>
       </c>
-      <c r="G53" s="98">
+      <c r="G53" s="50">
         <v>6.5894092709805285</v>
       </c>
-      <c r="H53" s="98">
+      <c r="H53" s="50">
         <v>2.8632639866041738</v>
       </c>
-      <c r="I53" s="98">
+      <c r="I53" s="50">
         <v>2.8809742022713394</v>
       </c>
-      <c r="J53" s="98">
+      <c r="J53" s="50">
         <v>2.84588218839786</v>
       </c>
-      <c r="K53" s="99">
+      <c r="K53" s="51">
         <v>3022</v>
       </c>
-      <c r="L53" s="99">
+      <c r="L53" s="51">
         <v>12894</v>
       </c>
-      <c r="M53" s="99">
+      <c r="M53" s="51">
         <v>897</v>
       </c>
-      <c r="N53" s="95">
+      <c r="N53" s="47">
         <v>83.704685108215202</v>
       </c>
-      <c r="O53" s="95">
+      <c r="O53" s="47">
         <v>0.25562050069211678</v>
       </c>
-      <c r="P53" s="95">
+      <c r="P53" s="47">
         <v>0.3956668488601901</v>
       </c>
-      <c r="Q53" s="95">
+      <c r="Q53" s="47">
         <v>45.912183996733027</v>
       </c>
-      <c r="R53" s="96">
-        <f t="shared" ref="R53" si="23">K53/L53</f>
+      <c r="R53" s="48">
+        <f t="shared" ref="R53" si="24">K53/L53</f>
         <v>0.23437257639212036</v>
       </c>
-      <c r="S53" s="96">
-        <f t="shared" ref="S53" si="24">M53/K53</f>
+      <c r="S53" s="48">
+        <f t="shared" ref="S53" si="25">M53/K53</f>
         <v>0.29682329583057576</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="92" t="s">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A54" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B54" s="93">
+      <c r="B54" s="45">
         <v>6.7758080933708991</v>
       </c>
-      <c r="C54" s="93">
+      <c r="C54" s="45">
         <v>12.422404393617596</v>
       </c>
-      <c r="D54" s="93">
+      <c r="D54" s="45">
         <v>5.2072175833519401</v>
       </c>
-      <c r="E54" s="93">
+      <c r="E54" s="45">
         <v>8.301656632101702</v>
       </c>
-      <c r="F54" s="93">
+      <c r="F54" s="45">
         <v>12.836821125402922</v>
       </c>
-      <c r="G54" s="93">
+      <c r="G54" s="45">
         <v>6.5511085447714219</v>
       </c>
-      <c r="H54" s="93">
+      <c r="H54" s="45">
         <v>2.8179726029970475</v>
       </c>
-      <c r="I54" s="93">
+      <c r="I54" s="45">
         <v>2.8601990634290027</v>
       </c>
-      <c r="J54" s="93">
+      <c r="J54" s="45">
         <v>2.7753344639814927</v>
       </c>
-      <c r="K54" s="94">
+      <c r="K54" s="46">
         <v>3029</v>
       </c>
-      <c r="L54" s="94">
+      <c r="L54" s="46">
         <v>12942</v>
       </c>
-      <c r="M54" s="94">
+      <c r="M54" s="46">
         <v>942</v>
       </c>
-      <c r="N54" s="95">
+      <c r="N54" s="47">
         <v>82.317960391522689</v>
       </c>
-      <c r="O54" s="95">
+      <c r="O54" s="47">
         <v>0.2493331494590208</v>
       </c>
-      <c r="P54" s="95">
+      <c r="P54" s="47">
         <v>0.38921032523945726</v>
       </c>
-      <c r="Q54" s="95">
+      <c r="Q54" s="47">
         <v>45.523373066620408</v>
       </c>
-      <c r="R54" s="96">
+      <c r="R54" s="48">
         <f>K54/L54</f>
         <v>0.2340441971874517</v>
       </c>
-      <c r="S54" s="96">
+      <c r="S54" s="48">
         <f>M54/K54</f>
         <v>0.31099372730274016</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="92" t="s">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A55" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B55" s="97">
-        <f t="shared" ref="B55:S55" si="25">AVERAGE(B50:B54)</f>
+      <c r="B55" s="49">
+        <f t="shared" ref="B55:S55" si="26">AVERAGE(B50:B54)</f>
         <v>6.7227933653656535</v>
       </c>
-      <c r="C55" s="97">
-        <f t="shared" si="25"/>
+      <c r="C55" s="49">
+        <f t="shared" si="26"/>
         <v>12.462714326772394</v>
       </c>
-      <c r="D55" s="97">
-        <f t="shared" si="25"/>
+      <c r="D55" s="49">
+        <f t="shared" si="26"/>
         <v>5.0964300117546566</v>
       </c>
-      <c r="E55" s="97">
-        <f t="shared" si="25"/>
+      <c r="E55" s="49">
+        <f t="shared" si="26"/>
         <v>8.3681450878584158</v>
       </c>
-      <c r="F55" s="97">
-        <f t="shared" si="25"/>
+      <c r="F55" s="49">
+        <f t="shared" si="26"/>
         <v>12.858008944649828</v>
       </c>
-      <c r="G55" s="97">
-        <f t="shared" si="25"/>
+      <c r="G55" s="49">
+        <f t="shared" si="26"/>
         <v>6.5874168547329859</v>
       </c>
-      <c r="H55" s="97">
-        <f t="shared" si="25"/>
+      <c r="H55" s="49">
+        <f t="shared" si="26"/>
         <v>2.8361049123665256</v>
       </c>
-      <c r="I55" s="97">
-        <f t="shared" si="25"/>
+      <c r="I55" s="49">
+        <f t="shared" si="26"/>
         <v>2.8329017653665542</v>
       </c>
-      <c r="J55" s="97">
-        <f t="shared" si="25"/>
+      <c r="J55" s="49">
+        <f t="shared" si="26"/>
         <v>2.8375570346154695</v>
       </c>
-      <c r="K55" s="97">
-        <f t="shared" si="25"/>
+      <c r="K55" s="49">
+        <f t="shared" si="26"/>
         <v>2995</v>
       </c>
-      <c r="L55" s="97">
-        <f t="shared" si="25"/>
+      <c r="L55" s="49">
+        <f t="shared" si="26"/>
         <v>12915.6</v>
       </c>
-      <c r="M55" s="97">
-        <f t="shared" si="25"/>
+      <c r="M55" s="49">
+        <f t="shared" si="26"/>
         <v>914.6</v>
       </c>
-      <c r="N55" s="97">
-        <f t="shared" si="25"/>
+      <c r="N55" s="49">
+        <f t="shared" si="26"/>
         <v>82.707689613737855</v>
       </c>
-      <c r="O55" s="97">
-        <f t="shared" si="25"/>
+      <c r="O55" s="49">
+        <f t="shared" si="26"/>
         <v>0.24822597764494697</v>
       </c>
-      <c r="P55" s="97">
-        <f t="shared" si="25"/>
+      <c r="P55" s="49">
+        <f t="shared" si="26"/>
         <v>0.38756866101756721</v>
       </c>
-      <c r="Q55" s="97">
-        <f t="shared" si="25"/>
+      <c r="Q55" s="49">
+        <f t="shared" si="26"/>
         <v>44.87703217566574</v>
       </c>
-      <c r="R55" s="97">
-        <f t="shared" si="25"/>
+      <c r="R55" s="49">
+        <f t="shared" si="26"/>
         <v>0.23188449750823401</v>
       </c>
-      <c r="S55" s="97">
-        <f t="shared" si="25"/>
+      <c r="S55" s="49">
+        <f t="shared" si="26"/>
         <v>0.30542266743583441</v>
       </c>
     </row>
@@ -4905,7 +5058,7 @@
   <dimension ref="B1:Y35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="T2" sqref="T2:U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4940,268 +5093,268 @@
   <sheetData>
     <row r="1" spans="2:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="47" t="s">
+      <c r="E2" s="98"/>
+      <c r="F2" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="52" t="s">
+      <c r="G2" s="92"/>
+      <c r="H2" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="47" t="s">
+      <c r="I2" s="98"/>
+      <c r="J2" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="48"/>
-      <c r="L2" s="47" t="s">
+      <c r="K2" s="92"/>
+      <c r="L2" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="47" t="s">
+      <c r="M2" s="92"/>
+      <c r="N2" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="47" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="47" t="s">
+      <c r="Q2" s="92"/>
+      <c r="R2" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="48"/>
-      <c r="T2" s="47" t="s">
+      <c r="S2" s="92"/>
+      <c r="T2" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="75"/>
+      <c r="U2" s="93"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="61"/>
+      <c r="B3" s="95"/>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="83">
         <v>11</v>
       </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="45">
+      <c r="E3" s="84"/>
+      <c r="F3" s="76">
         <v>11</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="50">
+      <c r="G3" s="75"/>
+      <c r="H3" s="83">
         <v>11</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="45">
+      <c r="I3" s="84"/>
+      <c r="J3" s="76">
         <v>11</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="45">
+      <c r="K3" s="75"/>
+      <c r="L3" s="76">
         <v>18</v>
       </c>
-      <c r="M3" s="46"/>
-      <c r="N3" s="45">
+      <c r="M3" s="75"/>
+      <c r="N3" s="76">
         <v>18</v>
       </c>
-      <c r="O3" s="46"/>
-      <c r="P3" s="45">
+      <c r="O3" s="75"/>
+      <c r="P3" s="76">
         <v>18</v>
       </c>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="45">
+      <c r="Q3" s="75"/>
+      <c r="R3" s="76">
         <v>18</v>
       </c>
-      <c r="S3" s="46"/>
-      <c r="T3" s="45">
+      <c r="S3" s="75"/>
+      <c r="T3" s="76">
         <v>18</v>
       </c>
-      <c r="U3" s="76"/>
+      <c r="U3" s="77"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B4" s="61"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="83">
         <v>12</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="45">
+      <c r="E4" s="84"/>
+      <c r="F4" s="76">
         <v>12</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="50">
+      <c r="G4" s="75"/>
+      <c r="H4" s="83">
         <v>24</v>
       </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="45">
+      <c r="I4" s="84"/>
+      <c r="J4" s="76">
         <v>24</v>
       </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="45">
+      <c r="K4" s="75"/>
+      <c r="L4" s="76">
         <v>12</v>
       </c>
-      <c r="M4" s="46"/>
-      <c r="N4" s="45">
+      <c r="M4" s="75"/>
+      <c r="N4" s="76">
         <v>12</v>
       </c>
-      <c r="O4" s="46"/>
-      <c r="P4" s="45">
+      <c r="O4" s="75"/>
+      <c r="P4" s="76">
         <v>24</v>
       </c>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="45">
+      <c r="Q4" s="75"/>
+      <c r="R4" s="76">
         <v>24</v>
       </c>
-      <c r="S4" s="46"/>
-      <c r="T4" s="45">
+      <c r="S4" s="75"/>
+      <c r="T4" s="76">
         <v>24</v>
       </c>
-      <c r="U4" s="76"/>
+      <c r="U4" s="77"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="61"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="43" t="s">
+      <c r="E5" s="87"/>
+      <c r="F5" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="58" t="s">
+      <c r="G5" s="89"/>
+      <c r="H5" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="43" t="s">
+      <c r="I5" s="87"/>
+      <c r="J5" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="43" t="s">
+      <c r="K5" s="89"/>
+      <c r="L5" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="44"/>
-      <c r="N5" s="43" t="s">
+      <c r="M5" s="89"/>
+      <c r="N5" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="44"/>
-      <c r="P5" s="43" t="s">
+      <c r="O5" s="89"/>
+      <c r="P5" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="43" t="s">
+      <c r="Q5" s="89"/>
+      <c r="R5" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="44"/>
-      <c r="T5" s="43" t="s">
+      <c r="S5" s="89"/>
+      <c r="T5" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="77"/>
+      <c r="U5" s="90"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="61"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="83">
         <v>0</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="42" t="s">
+      <c r="E6" s="84"/>
+      <c r="F6" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="87" t="s">
+      <c r="G6" s="75"/>
+      <c r="H6" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="42" t="s">
+      <c r="I6" s="84"/>
+      <c r="J6" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="42" t="s">
+      <c r="K6" s="75"/>
+      <c r="L6" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="46"/>
-      <c r="N6" s="42" t="s">
+      <c r="M6" s="75"/>
+      <c r="N6" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="46"/>
-      <c r="P6" s="42" t="s">
+      <c r="O6" s="75"/>
+      <c r="P6" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="45">
+      <c r="Q6" s="75"/>
+      <c r="R6" s="76">
         <v>0</v>
       </c>
-      <c r="S6" s="46"/>
-      <c r="T6" s="45" t="s">
+      <c r="S6" s="75"/>
+      <c r="T6" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="76"/>
+      <c r="U6" s="77"/>
     </row>
     <row r="7" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="62"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="78">
         <v>0</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="41" t="s">
+      <c r="E7" s="79"/>
+      <c r="F7" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="88" t="s">
+      <c r="G7" s="80"/>
+      <c r="H7" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="85">
+      <c r="I7" s="79"/>
+      <c r="J7" s="82">
         <v>0</v>
       </c>
-      <c r="K7" s="49"/>
-      <c r="L7" s="41" t="s">
+      <c r="K7" s="80"/>
+      <c r="L7" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="49"/>
-      <c r="N7" s="85">
+      <c r="M7" s="80"/>
+      <c r="N7" s="82">
         <v>0</v>
       </c>
-      <c r="O7" s="49"/>
-      <c r="P7" s="85">
+      <c r="O7" s="80"/>
+      <c r="P7" s="82">
         <v>0</v>
       </c>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="41" t="s">
+      <c r="Q7" s="80"/>
+      <c r="R7" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="49"/>
-      <c r="T7" s="41">
+      <c r="S7" s="80"/>
+      <c r="T7" s="68">
         <v>0</v>
       </c>
-      <c r="U7" s="86"/>
+      <c r="U7" s="69"/>
     </row>
     <row r="8" spans="2:21" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56" t="s">
+      <c r="C8" s="71"/>
+      <c r="D8" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="57"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="5" t="s">
         <v>11</v>
       </c>
@@ -5252,16 +5405,16 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="52" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="54">
         <v>7.5998151667119513</v>
       </c>
-      <c r="E9" s="74"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="11">
         <v>6.8642348556048045</v>
       </c>
@@ -5320,14 +5473,14 @@
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="66"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="71">
+      <c r="D10" s="56">
         <v>9.550203450601856</v>
       </c>
-      <c r="E10" s="72"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="7">
         <v>8.5377658332199378</v>
       </c>
@@ -5386,14 +5539,14 @@
       </c>
     </row>
     <row r="11" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="66"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="71">
+      <c r="D11" s="56">
         <v>4.6176326157115044</v>
       </c>
-      <c r="E11" s="72"/>
+      <c r="E11" s="57"/>
       <c r="F11" s="7">
         <v>3.0585979892401243</v>
       </c>
@@ -5452,16 +5605,16 @@
       </c>
     </row>
     <row r="12" spans="2:21" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="52" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="59">
         <v>0.84055520156674202</v>
       </c>
-      <c r="E12" s="80"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="24">
         <v>0.863981953151301</v>
       </c>
@@ -5520,14 +5673,14 @@
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="66"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="83">
+      <c r="D13" s="64">
         <v>0.75810278510343632</v>
       </c>
-      <c r="E13" s="84"/>
+      <c r="E13" s="65"/>
       <c r="F13" s="15">
         <v>0.43004227736455841</v>
       </c>
@@ -5586,14 +5739,14 @@
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="66"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="83">
+      <c r="D14" s="64">
         <v>0.5422982725121448</v>
       </c>
-      <c r="E14" s="84"/>
+      <c r="E14" s="65"/>
       <c r="F14" s="15">
         <v>0.38043979668475386</v>
       </c>
@@ -5652,14 +5805,14 @@
       </c>
     </row>
     <row r="15" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="67"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="81">
+      <c r="D15" s="66">
         <v>0.49102653244984601</v>
       </c>
-      <c r="E15" s="82"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="28">
         <v>0.34902965483537801</v>
       </c>
@@ -5718,16 +5871,16 @@
       </c>
     </row>
     <row r="16" spans="2:21" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="53" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="79">
+      <c r="D16" s="59">
         <v>0.16670263993517509</v>
       </c>
-      <c r="E16" s="80"/>
+      <c r="E16" s="60"/>
       <c r="F16" s="15">
         <v>0.23159274114647435</v>
       </c>
@@ -5786,14 +5939,14 @@
       </c>
     </row>
     <row r="17" spans="2:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="68"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="69">
+      <c r="D17" s="61">
         <v>0.21357759626448486</v>
       </c>
-      <c r="E17" s="70"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="20">
         <v>0.15698222170257425</v>
       </c>
@@ -5853,312 +6006,312 @@
     </row>
     <row r="18" spans="2:25" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:25" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="47" t="s">
+      <c r="E19" s="92"/>
+      <c r="F19" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="47" t="s">
+      <c r="G19" s="92"/>
+      <c r="H19" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="47" t="s">
+      <c r="I19" s="92"/>
+      <c r="J19" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="48"/>
-      <c r="L19" s="47" t="s">
+      <c r="K19" s="92"/>
+      <c r="L19" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="48"/>
-      <c r="N19" s="47" t="s">
+      <c r="M19" s="92"/>
+      <c r="N19" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="O19" s="48"/>
-      <c r="P19" s="47" t="s">
+      <c r="O19" s="92"/>
+      <c r="P19" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="47" t="s">
+      <c r="Q19" s="92"/>
+      <c r="R19" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="48"/>
-      <c r="T19" s="47" t="s">
+      <c r="S19" s="92"/>
+      <c r="T19" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="U19" s="48"/>
-      <c r="V19" s="47" t="s">
+      <c r="U19" s="92"/>
+      <c r="V19" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="W19" s="48"/>
-      <c r="X19" s="47" t="s">
+      <c r="W19" s="92"/>
+      <c r="X19" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="Y19" s="75"/>
+      <c r="Y19" s="93"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B20" s="61"/>
+      <c r="B20" s="95"/>
       <c r="C20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="76">
         <v>11</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="45">
+      <c r="E20" s="75"/>
+      <c r="F20" s="76">
         <v>11</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="45">
+      <c r="G20" s="75"/>
+      <c r="H20" s="76">
         <v>11</v>
       </c>
-      <c r="I20" s="46"/>
-      <c r="J20" s="45">
+      <c r="I20" s="75"/>
+      <c r="J20" s="76">
         <v>11</v>
       </c>
-      <c r="K20" s="46"/>
-      <c r="L20" s="45">
+      <c r="K20" s="75"/>
+      <c r="L20" s="76">
         <v>11</v>
       </c>
-      <c r="M20" s="46"/>
-      <c r="N20" s="45">
+      <c r="M20" s="75"/>
+      <c r="N20" s="76">
         <v>18</v>
       </c>
-      <c r="O20" s="46"/>
-      <c r="P20" s="45">
+      <c r="O20" s="75"/>
+      <c r="P20" s="76">
         <v>18</v>
       </c>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="45">
+      <c r="Q20" s="75"/>
+      <c r="R20" s="76">
         <v>18</v>
       </c>
-      <c r="S20" s="46"/>
-      <c r="T20" s="45">
+      <c r="S20" s="75"/>
+      <c r="T20" s="76">
         <v>18</v>
       </c>
-      <c r="U20" s="46"/>
-      <c r="V20" s="45">
+      <c r="U20" s="75"/>
+      <c r="V20" s="76">
         <v>18</v>
       </c>
-      <c r="W20" s="46"/>
-      <c r="X20" s="45">
+      <c r="W20" s="75"/>
+      <c r="X20" s="76">
         <v>18</v>
       </c>
-      <c r="Y20" s="76"/>
+      <c r="Y20" s="77"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B21" s="61"/>
+      <c r="B21" s="95"/>
       <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="76">
         <v>12</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="45">
+      <c r="E21" s="75"/>
+      <c r="F21" s="76">
         <v>12</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="45">
+      <c r="G21" s="75"/>
+      <c r="H21" s="76">
         <v>24</v>
       </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="45">
+      <c r="I21" s="75"/>
+      <c r="J21" s="76">
         <v>24</v>
       </c>
-      <c r="K21" s="46"/>
-      <c r="L21" s="45">
+      <c r="K21" s="75"/>
+      <c r="L21" s="76">
         <v>24</v>
       </c>
-      <c r="M21" s="46"/>
-      <c r="N21" s="45">
+      <c r="M21" s="75"/>
+      <c r="N21" s="76">
         <v>12</v>
       </c>
-      <c r="O21" s="46"/>
-      <c r="P21" s="45">
+      <c r="O21" s="75"/>
+      <c r="P21" s="76">
         <v>12</v>
       </c>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="45">
+      <c r="Q21" s="75"/>
+      <c r="R21" s="76">
         <v>24</v>
       </c>
-      <c r="S21" s="46"/>
-      <c r="T21" s="45">
+      <c r="S21" s="75"/>
+      <c r="T21" s="76">
         <v>24</v>
       </c>
-      <c r="U21" s="46"/>
-      <c r="V21" s="45">
+      <c r="U21" s="75"/>
+      <c r="V21" s="76">
         <v>24</v>
       </c>
-      <c r="W21" s="46"/>
-      <c r="X21" s="45">
+      <c r="W21" s="75"/>
+      <c r="X21" s="76">
         <v>24</v>
       </c>
-      <c r="Y21" s="76"/>
+      <c r="Y21" s="77"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B22" s="61"/>
+      <c r="B22" s="95"/>
       <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="43" t="s">
+      <c r="E22" s="89"/>
+      <c r="F22" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="43" t="s">
+      <c r="G22" s="89"/>
+      <c r="H22" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="44"/>
-      <c r="J22" s="43" t="s">
+      <c r="I22" s="89"/>
+      <c r="J22" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K22" s="44"/>
-      <c r="L22" s="43" t="s">
+      <c r="K22" s="89"/>
+      <c r="L22" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="M22" s="44"/>
-      <c r="N22" s="43" t="s">
+      <c r="M22" s="89"/>
+      <c r="N22" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="O22" s="44"/>
-      <c r="P22" s="43" t="s">
+      <c r="O22" s="89"/>
+      <c r="P22" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="43" t="s">
+      <c r="Q22" s="89"/>
+      <c r="R22" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="S22" s="44"/>
-      <c r="T22" s="43" t="s">
+      <c r="S22" s="89"/>
+      <c r="T22" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="U22" s="44"/>
-      <c r="V22" s="43" t="s">
+      <c r="U22" s="89"/>
+      <c r="V22" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="W22" s="44"/>
-      <c r="X22" s="43" t="s">
+      <c r="W22" s="89"/>
+      <c r="X22" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="Y22" s="77"/>
+      <c r="Y22" s="90"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B23" s="61"/>
+      <c r="B23" s="95"/>
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="74">
         <v>0</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="42" t="s">
+      <c r="E23" s="75"/>
+      <c r="F23" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="42" t="s">
+      <c r="G23" s="75"/>
+      <c r="H23" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="46"/>
-      <c r="J23" s="42" t="s">
+      <c r="I23" s="75"/>
+      <c r="J23" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="46"/>
-      <c r="L23" s="42" t="s">
+      <c r="K23" s="75"/>
+      <c r="L23" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="46"/>
-      <c r="N23" s="42">
+      <c r="M23" s="75"/>
+      <c r="N23" s="74">
         <v>0</v>
       </c>
-      <c r="O23" s="46"/>
-      <c r="P23" s="42" t="s">
+      <c r="O23" s="75"/>
+      <c r="P23" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="45" t="s">
+      <c r="Q23" s="75"/>
+      <c r="R23" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="S23" s="46"/>
-      <c r="T23" s="45" t="s">
+      <c r="S23" s="75"/>
+      <c r="T23" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="U23" s="46"/>
-      <c r="V23" s="45" t="s">
+      <c r="U23" s="75"/>
+      <c r="V23" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="W23" s="46"/>
-      <c r="X23" s="42" t="s">
+      <c r="W23" s="75"/>
+      <c r="X23" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="Y23" s="78"/>
+      <c r="Y23" s="99"/>
     </row>
     <row r="24" spans="2:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="62"/>
+      <c r="B24" s="96"/>
       <c r="C24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="68">
         <v>0</v>
       </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="41" t="s">
+      <c r="E24" s="80"/>
+      <c r="F24" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="49"/>
-      <c r="H24" s="85">
+      <c r="G24" s="80"/>
+      <c r="H24" s="82">
         <v>0</v>
       </c>
-      <c r="I24" s="49"/>
-      <c r="J24" s="41">
+      <c r="I24" s="80"/>
+      <c r="J24" s="68">
         <v>0</v>
       </c>
-      <c r="K24" s="49"/>
-      <c r="L24" s="41" t="s">
+      <c r="K24" s="80"/>
+      <c r="L24" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="M24" s="49"/>
-      <c r="N24" s="85">
+      <c r="M24" s="80"/>
+      <c r="N24" s="82">
         <v>0</v>
       </c>
-      <c r="O24" s="49"/>
-      <c r="P24" s="41" t="s">
+      <c r="O24" s="80"/>
+      <c r="P24" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="41" t="s">
+      <c r="Q24" s="80"/>
+      <c r="R24" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="S24" s="49"/>
-      <c r="T24" s="41">
+      <c r="S24" s="80"/>
+      <c r="T24" s="68">
         <v>0</v>
       </c>
-      <c r="U24" s="49"/>
-      <c r="V24" s="41">
+      <c r="U24" s="80"/>
+      <c r="V24" s="68">
         <v>0</v>
       </c>
-      <c r="W24" s="49"/>
-      <c r="X24" s="85">
+      <c r="W24" s="80"/>
+      <c r="X24" s="82">
         <v>0</v>
       </c>
-      <c r="Y24" s="86"/>
+      <c r="Y24" s="69"/>
     </row>
     <row r="25" spans="2:25" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="55"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="5" t="s">
         <v>11</v>
       </c>
@@ -6227,7 +6380,7 @@
       </c>
     </row>
     <row r="26" spans="2:25" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="52" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="32" t="s">
@@ -6312,7 +6465,7 @@
       </c>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B27" s="66"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="33" t="s">
         <v>17</v>
       </c>
@@ -6395,7 +6548,7 @@
       </c>
     </row>
     <row r="28" spans="2:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="66"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="33" t="s">
         <v>16</v>
       </c>
@@ -6478,7 +6631,7 @@
       </c>
     </row>
     <row r="29" spans="2:25" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="52" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="32" t="s">
@@ -6563,7 +6716,7 @@
       </c>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B30" s="66"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="33" t="s">
         <v>20</v>
       </c>
@@ -6646,7 +6799,7 @@
       </c>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B31" s="66"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="33" t="s">
         <v>21</v>
       </c>
@@ -6729,7 +6882,7 @@
       </c>
     </row>
     <row r="32" spans="2:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="67"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="34" t="s">
         <v>22</v>
       </c>
@@ -6812,7 +6965,7 @@
       </c>
     </row>
     <row r="33" spans="2:25" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="53" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="33" t="s">
@@ -6897,7 +7050,7 @@
       </c>
     </row>
     <row r="34" spans="2:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="68"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="35" t="s">
         <v>44</v>
       </c>
@@ -6982,54 +7135,74 @@
     <row r="35" spans="2:25" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="140">
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
     <mergeCell ref="P23:Q23"/>
@@ -7054,76 +7227,240 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.69921875" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="115" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="116"/>
+      <c r="E2" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="117"/>
+    </row>
+    <row r="3" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="114"/>
+      <c r="C3" s="118" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="121" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="54">
+        <v>10.43</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="13">
+        <v>10.98</v>
+      </c>
+      <c r="F4" s="36">
+        <f>(E4-$C4)/$C4</f>
+        <v>5.2732502396931995E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="102">
+        <v>4.46</v>
+      </c>
+      <c r="D5" s="103"/>
+      <c r="E5" s="104">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="F5" s="105">
+        <f>(E5-$C5)/$C5</f>
+        <v>-6.0538116591928155E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="65"/>
+      <c r="E6" s="16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="65"/>
+      <c r="E7" s="16">
+        <v>0.44</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="67"/>
+      <c r="E8" s="29">
+        <v>0.24</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="111" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="106">
+        <v>1453</v>
+      </c>
+      <c r="D9" s="107"/>
+      <c r="E9" s="108">
+        <v>1546.8</v>
+      </c>
+      <c r="F9" s="27">
+        <f t="shared" ref="F9" si="0">(E9-$C9)/$C9</f>
+        <v>6.4556090846524403E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="111" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="64">
+        <v>0.15</v>
+      </c>
+      <c r="D10" s="65"/>
+      <c r="E10" s="15">
+        <v>0.16</v>
+      </c>
+      <c r="F10" s="19">
+        <f>(E10-$C10)/$C10</f>
+        <v>6.6666666666666735E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="112" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="61">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D11" s="62"/>
+      <c r="E11" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="F11" s="23">
+        <f>(E11-$C11)/$C11</f>
+        <v>-0.10714285714285723</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tallaght Tallght Model_Original/Scneario Results.xlsx
+++ b/Tallaght Tallght Model_Original/Scneario Results.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cae5e1707f7509f6/Documents/PhD/Projects/HSE - Medical Patients Flow - Tallaght/New Version of Tallaght Model/Model Versions/Tallaght-Project/Tallaght Tallght Model_Original/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heba\SkyDrive\Documents\PhD\Projects\HSE - Medical Patients Flow - Tallaght\New Version of Tallaght Model\Model Versions\Tallaght-Project\Tallaght Tallght Model_Original\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="30720" windowHeight="9384" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="9384" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Run" sheetId="6" state="hidden" r:id="rId1"/>
     <sheet name="Results" sheetId="7" state="hidden" r:id="rId2"/>
-    <sheet name="Validation 30-Jun" sheetId="8" state="hidden" r:id="rId3"/>
+    <sheet name="Validation 30-Jun" sheetId="8" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="9" state="hidden" r:id="rId4"/>
     <sheet name="Runs" sheetId="10" state="hidden" r:id="rId5"/>
     <sheet name="Runs1" sheetId="12" state="hidden" r:id="rId6"/>
-    <sheet name="Scenarios" sheetId="11" state="hidden" r:id="rId7"/>
+    <sheet name="Scenarios" sheetId="11" r:id="rId7"/>
     <sheet name="DOE" sheetId="13" r:id="rId8"/>
     <sheet name="Runs2" sheetId="14" r:id="rId9"/>
     <sheet name="Scenarios (10-Jul)" sheetId="16" r:id="rId10"/>
@@ -29,6 +29,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">DOE!$A$2:$K$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">DOE!$A$2:$K$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">Scenarios!$B$2:$W$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'Scenarios (2)'!$B$2:$W$30</definedName>
   </definedNames>
@@ -2170,6 +2171,30 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2440,13 +2465,19 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2462,36 +2493,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2542,10 +2543,10 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="85" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="85" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15573,8 +15574,8 @@
   </sheetPr>
   <dimension ref="B1:U57"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E30"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -16209,28 +16210,28 @@
       </c>
     </row>
     <row r="12" spans="2:21" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="237" t="s">
+      <c r="B12" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="238"/>
-      <c r="D12" s="238"/>
-      <c r="E12" s="238"/>
-      <c r="F12" s="238"/>
-      <c r="G12" s="238"/>
-      <c r="H12" s="238"/>
-      <c r="I12" s="238"/>
-      <c r="J12" s="238"/>
-      <c r="K12" s="238"/>
-      <c r="L12" s="238"/>
-      <c r="M12" s="238"/>
-      <c r="N12" s="238"/>
-      <c r="O12" s="238"/>
-      <c r="P12" s="238"/>
-      <c r="Q12" s="238"/>
-      <c r="R12" s="238"/>
-      <c r="S12" s="238"/>
-      <c r="T12" s="238"/>
-      <c r="U12" s="239"/>
+      <c r="C12" s="246"/>
+      <c r="D12" s="246"/>
+      <c r="E12" s="246"/>
+      <c r="F12" s="246"/>
+      <c r="G12" s="246"/>
+      <c r="H12" s="246"/>
+      <c r="I12" s="246"/>
+      <c r="J12" s="246"/>
+      <c r="K12" s="246"/>
+      <c r="L12" s="246"/>
+      <c r="M12" s="246"/>
+      <c r="N12" s="246"/>
+      <c r="O12" s="246"/>
+      <c r="P12" s="246"/>
+      <c r="Q12" s="246"/>
+      <c r="R12" s="246"/>
+      <c r="S12" s="246"/>
+      <c r="T12" s="246"/>
+      <c r="U12" s="247"/>
     </row>
     <row r="13" spans="2:21" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="124" t="s">
@@ -16976,7 +16977,7 @@
         <v>0.45863832489702255</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B25" s="127" t="s">
         <v>132</v>
       </c>
@@ -17517,18 +17518,18 @@
       </c>
     </row>
     <row r="41" spans="2:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="240" t="s">
+      <c r="B41" s="248" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="241"/>
-      <c r="D41" s="241"/>
-      <c r="E41" s="241"/>
-      <c r="F41" s="241"/>
-      <c r="G41" s="241"/>
-      <c r="H41" s="241"/>
-      <c r="I41" s="241"/>
-      <c r="J41" s="241"/>
-      <c r="K41" s="242"/>
+      <c r="C41" s="249"/>
+      <c r="D41" s="249"/>
+      <c r="E41" s="249"/>
+      <c r="F41" s="249"/>
+      <c r="G41" s="249"/>
+      <c r="H41" s="249"/>
+      <c r="I41" s="249"/>
+      <c r="J41" s="249"/>
+      <c r="K41" s="250"/>
     </row>
     <row r="42" spans="2:11" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B42" s="124" t="s">
@@ -17914,7 +17915,7 @@
         <v>0.83886719159169909</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="127" t="s">
         <v>132</v>
       </c>
@@ -18032,7 +18033,9 @@
   </sheetPr>
   <dimension ref="B1:U57"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="95" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -18355,7 +18358,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:21" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B7" s="118" t="s">
         <v>99</v>
       </c>
@@ -18666,28 +18669,28 @@
       </c>
     </row>
     <row r="12" spans="2:21" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="237" t="s">
+      <c r="B12" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="238"/>
-      <c r="D12" s="238"/>
-      <c r="E12" s="238"/>
-      <c r="F12" s="238"/>
-      <c r="G12" s="238"/>
-      <c r="H12" s="238"/>
-      <c r="I12" s="238"/>
-      <c r="J12" s="238"/>
-      <c r="K12" s="238"/>
-      <c r="L12" s="238"/>
-      <c r="M12" s="238"/>
-      <c r="N12" s="238"/>
-      <c r="O12" s="238"/>
-      <c r="P12" s="238"/>
-      <c r="Q12" s="238"/>
-      <c r="R12" s="238"/>
-      <c r="S12" s="238"/>
-      <c r="T12" s="238"/>
-      <c r="U12" s="239"/>
+      <c r="C12" s="246"/>
+      <c r="D12" s="246"/>
+      <c r="E12" s="246"/>
+      <c r="F12" s="246"/>
+      <c r="G12" s="246"/>
+      <c r="H12" s="246"/>
+      <c r="I12" s="246"/>
+      <c r="J12" s="246"/>
+      <c r="K12" s="246"/>
+      <c r="L12" s="246"/>
+      <c r="M12" s="246"/>
+      <c r="N12" s="246"/>
+      <c r="O12" s="246"/>
+      <c r="P12" s="246"/>
+      <c r="Q12" s="246"/>
+      <c r="R12" s="246"/>
+      <c r="S12" s="246"/>
+      <c r="T12" s="246"/>
+      <c r="U12" s="247"/>
     </row>
     <row r="13" spans="2:21" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="124" t="s">
@@ -19433,7 +19436,7 @@
         <v>0.45863832489702255</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B25" s="127" t="s">
         <v>132</v>
       </c>
@@ -19813,7 +19816,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B36" s="118" t="s">
         <v>99</v>
       </c>
@@ -19974,18 +19977,18 @@
       </c>
     </row>
     <row r="41" spans="2:11" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="240" t="s">
+      <c r="B41" s="248" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="241"/>
-      <c r="D41" s="241"/>
-      <c r="E41" s="241"/>
-      <c r="F41" s="241"/>
-      <c r="G41" s="241"/>
-      <c r="H41" s="241"/>
-      <c r="I41" s="241"/>
-      <c r="J41" s="241"/>
-      <c r="K41" s="242"/>
+      <c r="C41" s="249"/>
+      <c r="D41" s="249"/>
+      <c r="E41" s="249"/>
+      <c r="F41" s="249"/>
+      <c r="G41" s="249"/>
+      <c r="H41" s="249"/>
+      <c r="I41" s="249"/>
+      <c r="J41" s="249"/>
+      <c r="K41" s="250"/>
     </row>
     <row r="42" spans="2:11" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B42" s="124" t="s">
@@ -20371,7 +20374,7 @@
         <v>0.83886719159169909</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="127" t="s">
         <v>132</v>
       </c>
@@ -25652,11 +25655,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BG31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="11" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12:E30"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -25665,28 +25668,28 @@
     <col min="2" max="2" width="12.09765625" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.3984375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7.8984375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="7.3984375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="7.8984375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="7.3984375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.8984375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="7.3984375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="7.8984375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="7.3984375" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="7.8984375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="7.3984375" hidden="1" customWidth="1"/>
-    <col min="17" max="19" width="7.8984375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="7.3984375" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="7.8984375" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="7.3984375" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="7.8984375" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="7.3984375" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="7.8984375" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="7.3984375" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="7.8984375" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="7.3984375" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="7.8984375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.3984375" customWidth="1"/>
+    <col min="7" max="7" width="7.8984375" customWidth="1"/>
+    <col min="8" max="8" width="7.3984375" customWidth="1"/>
+    <col min="9" max="9" width="7.8984375" customWidth="1"/>
+    <col min="10" max="10" width="7.3984375" customWidth="1"/>
+    <col min="11" max="11" width="7.8984375" customWidth="1"/>
+    <col min="12" max="12" width="7.3984375" customWidth="1"/>
+    <col min="13" max="13" width="7.8984375" customWidth="1"/>
+    <col min="14" max="14" width="7.3984375" customWidth="1"/>
+    <col min="15" max="15" width="7.8984375" customWidth="1"/>
+    <col min="16" max="16" width="7.3984375" customWidth="1"/>
+    <col min="17" max="19" width="7.8984375" customWidth="1"/>
+    <col min="20" max="20" width="7.3984375" customWidth="1"/>
+    <col min="21" max="21" width="7.8984375" customWidth="1"/>
+    <col min="22" max="22" width="7.3984375" customWidth="1"/>
+    <col min="23" max="23" width="7.8984375" customWidth="1"/>
+    <col min="24" max="24" width="7.3984375" customWidth="1"/>
+    <col min="25" max="25" width="7.8984375" customWidth="1"/>
+    <col min="26" max="26" width="7.3984375" customWidth="1"/>
+    <col min="27" max="27" width="7.8984375" customWidth="1"/>
+    <col min="28" max="28" width="7.3984375" customWidth="1"/>
+    <col min="29" max="29" width="7.8984375" customWidth="1"/>
     <col min="30" max="31" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -25783,1078 +25786,1078 @@
       </c>
     </row>
     <row r="2" spans="2:59" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="203" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="198" t="s">
+      <c r="D2" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="199"/>
-      <c r="F2" s="198" t="s">
+      <c r="E2" s="207"/>
+      <c r="F2" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="199"/>
-      <c r="H2" s="198" t="s">
+      <c r="G2" s="207"/>
+      <c r="H2" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="199"/>
-      <c r="J2" s="198" t="s">
+      <c r="I2" s="207"/>
+      <c r="J2" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="199"/>
-      <c r="L2" s="192" t="s">
+      <c r="K2" s="207"/>
+      <c r="L2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="193"/>
-      <c r="N2" s="198" t="s">
+      <c r="M2" s="201"/>
+      <c r="N2" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="199"/>
-      <c r="P2" s="198" t="s">
+      <c r="O2" s="207"/>
+      <c r="P2" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="192" t="s">
+      <c r="Q2" s="207"/>
+      <c r="R2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="193"/>
-      <c r="T2" s="192" t="s">
+      <c r="S2" s="201"/>
+      <c r="T2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="193"/>
-      <c r="V2" s="192" t="s">
+      <c r="U2" s="201"/>
+      <c r="V2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="193"/>
-      <c r="X2" s="192" t="s">
+      <c r="W2" s="201"/>
+      <c r="X2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="192" t="s">
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="193"/>
-      <c r="AB2" s="192" t="s">
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="193"/>
-      <c r="AD2" s="198" t="s">
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="198" t="s">
+      <c r="AE2" s="207"/>
+      <c r="AF2" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="AG2" s="199"/>
-      <c r="AH2" s="198" t="s">
+      <c r="AG2" s="207"/>
+      <c r="AH2" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="198" t="s">
+      <c r="AI2" s="207"/>
+      <c r="AJ2" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="AK2" s="199"/>
-      <c r="AL2" s="192" t="s">
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="AM2" s="193"/>
-      <c r="AN2" s="198" t="s">
+      <c r="AM2" s="201"/>
+      <c r="AN2" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="198" t="s">
+      <c r="AO2" s="207"/>
+      <c r="AP2" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="199"/>
-      <c r="AR2" s="192" t="s">
+      <c r="AQ2" s="207"/>
+      <c r="AR2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="AS2" s="193"/>
-      <c r="AT2" s="192" t="s">
+      <c r="AS2" s="201"/>
+      <c r="AT2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="AU2" s="193"/>
-      <c r="AV2" s="192" t="s">
+      <c r="AU2" s="201"/>
+      <c r="AV2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="AW2" s="193"/>
-      <c r="AX2" s="192" t="s">
+      <c r="AW2" s="201"/>
+      <c r="AX2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="AY2" s="193"/>
-      <c r="AZ2" s="192" t="s">
+      <c r="AY2" s="201"/>
+      <c r="AZ2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="BA2" s="193"/>
-      <c r="BB2" s="192" t="s">
+      <c r="BA2" s="201"/>
+      <c r="BB2" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="BC2" s="193"/>
-      <c r="BD2" s="198" t="s">
+      <c r="BC2" s="201"/>
+      <c r="BD2" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="BE2" s="199"/>
-      <c r="BF2" s="192" t="s">
+      <c r="BE2" s="207"/>
+      <c r="BF2" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="BG2" s="194"/>
+      <c r="BG2" s="202"/>
     </row>
     <row r="3" spans="2:59" x14ac:dyDescent="0.3">
-      <c r="B3" s="196"/>
+      <c r="B3" s="204"/>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="184">
+      <c r="D3" s="192">
         <v>11</v>
       </c>
-      <c r="E3" s="185"/>
-      <c r="F3" s="184">
+      <c r="E3" s="193"/>
+      <c r="F3" s="192">
         <v>11</v>
       </c>
-      <c r="G3" s="185"/>
-      <c r="H3" s="184">
+      <c r="G3" s="193"/>
+      <c r="H3" s="192">
         <v>11</v>
       </c>
-      <c r="I3" s="185"/>
-      <c r="J3" s="184">
+      <c r="I3" s="193"/>
+      <c r="J3" s="192">
         <v>15</v>
       </c>
-      <c r="K3" s="185"/>
-      <c r="L3" s="177">
+      <c r="K3" s="193"/>
+      <c r="L3" s="185">
         <v>18</v>
       </c>
-      <c r="M3" s="176"/>
-      <c r="N3" s="184">
+      <c r="M3" s="184"/>
+      <c r="N3" s="192">
         <v>18</v>
       </c>
-      <c r="O3" s="185"/>
-      <c r="P3" s="184">
+      <c r="O3" s="193"/>
+      <c r="P3" s="192">
         <v>11</v>
       </c>
-      <c r="Q3" s="185"/>
-      <c r="R3" s="177">
+      <c r="Q3" s="193"/>
+      <c r="R3" s="185">
         <v>15</v>
       </c>
-      <c r="S3" s="176"/>
-      <c r="T3" s="177">
+      <c r="S3" s="184"/>
+      <c r="T3" s="185">
         <v>15</v>
       </c>
-      <c r="U3" s="176"/>
-      <c r="V3" s="177">
+      <c r="U3" s="184"/>
+      <c r="V3" s="185">
         <v>15</v>
       </c>
-      <c r="W3" s="176"/>
-      <c r="X3" s="177">
+      <c r="W3" s="184"/>
+      <c r="X3" s="185">
         <v>18</v>
       </c>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="177">
+      <c r="Y3" s="184"/>
+      <c r="Z3" s="185">
         <v>18</v>
       </c>
-      <c r="AA3" s="176"/>
-      <c r="AB3" s="177">
+      <c r="AA3" s="184"/>
+      <c r="AB3" s="185">
         <v>11</v>
       </c>
-      <c r="AC3" s="176"/>
-      <c r="AD3" s="184">
+      <c r="AC3" s="184"/>
+      <c r="AD3" s="192">
         <v>15</v>
       </c>
-      <c r="AE3" s="185"/>
-      <c r="AF3" s="184">
+      <c r="AE3" s="193"/>
+      <c r="AF3" s="192">
         <v>18</v>
       </c>
-      <c r="AG3" s="185"/>
-      <c r="AH3" s="184">
+      <c r="AG3" s="193"/>
+      <c r="AH3" s="192">
         <v>18</v>
       </c>
-      <c r="AI3" s="185"/>
-      <c r="AJ3" s="184">
+      <c r="AI3" s="193"/>
+      <c r="AJ3" s="192">
         <v>11</v>
       </c>
-      <c r="AK3" s="185"/>
-      <c r="AL3" s="177">
+      <c r="AK3" s="193"/>
+      <c r="AL3" s="185">
         <v>15</v>
       </c>
-      <c r="AM3" s="176"/>
-      <c r="AN3" s="184">
+      <c r="AM3" s="184"/>
+      <c r="AN3" s="192">
         <v>11</v>
       </c>
-      <c r="AO3" s="185"/>
-      <c r="AP3" s="184">
+      <c r="AO3" s="193"/>
+      <c r="AP3" s="192">
         <v>15</v>
       </c>
-      <c r="AQ3" s="185"/>
-      <c r="AR3" s="177">
+      <c r="AQ3" s="193"/>
+      <c r="AR3" s="185">
         <v>18</v>
       </c>
-      <c r="AS3" s="176"/>
-      <c r="AT3" s="177">
+      <c r="AS3" s="184"/>
+      <c r="AT3" s="185">
         <v>18</v>
       </c>
-      <c r="AU3" s="176"/>
-      <c r="AV3" s="177">
+      <c r="AU3" s="184"/>
+      <c r="AV3" s="185">
         <v>11</v>
       </c>
-      <c r="AW3" s="176"/>
-      <c r="AX3" s="177">
+      <c r="AW3" s="184"/>
+      <c r="AX3" s="185">
         <v>15</v>
       </c>
-      <c r="AY3" s="176"/>
-      <c r="AZ3" s="177">
+      <c r="AY3" s="184"/>
+      <c r="AZ3" s="185">
         <v>11</v>
       </c>
-      <c r="BA3" s="176"/>
-      <c r="BB3" s="177">
+      <c r="BA3" s="184"/>
+      <c r="BB3" s="185">
         <v>11</v>
       </c>
-      <c r="BC3" s="176"/>
-      <c r="BD3" s="184">
+      <c r="BC3" s="184"/>
+      <c r="BD3" s="192">
         <v>15</v>
       </c>
-      <c r="BE3" s="185"/>
-      <c r="BF3" s="177">
+      <c r="BE3" s="193"/>
+      <c r="BF3" s="185">
         <v>18</v>
       </c>
-      <c r="BG3" s="178"/>
+      <c r="BG3" s="186"/>
     </row>
     <row r="4" spans="2:59" x14ac:dyDescent="0.3">
-      <c r="B4" s="196"/>
+      <c r="B4" s="204"/>
       <c r="C4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="184">
+      <c r="D4" s="192">
         <v>12</v>
       </c>
-      <c r="E4" s="185"/>
-      <c r="F4" s="184">
+      <c r="E4" s="193"/>
+      <c r="F4" s="192">
         <v>12</v>
       </c>
-      <c r="G4" s="185"/>
-      <c r="H4" s="184">
+      <c r="G4" s="193"/>
+      <c r="H4" s="192">
         <v>12</v>
       </c>
-      <c r="I4" s="185"/>
-      <c r="J4" s="184">
+      <c r="I4" s="193"/>
+      <c r="J4" s="192">
         <v>18</v>
       </c>
-      <c r="K4" s="185"/>
-      <c r="L4" s="177">
+      <c r="K4" s="193"/>
+      <c r="L4" s="185">
         <v>24</v>
       </c>
-      <c r="M4" s="176"/>
-      <c r="N4" s="184">
+      <c r="M4" s="184"/>
+      <c r="N4" s="192">
         <v>18</v>
       </c>
-      <c r="O4" s="185"/>
-      <c r="P4" s="184">
+      <c r="O4" s="193"/>
+      <c r="P4" s="192">
         <v>24</v>
       </c>
-      <c r="Q4" s="185"/>
-      <c r="R4" s="177">
+      <c r="Q4" s="193"/>
+      <c r="R4" s="185">
         <v>12</v>
       </c>
-      <c r="S4" s="176"/>
-      <c r="T4" s="177">
+      <c r="S4" s="184"/>
+      <c r="T4" s="185">
         <v>12</v>
       </c>
-      <c r="U4" s="176"/>
-      <c r="V4" s="177">
+      <c r="U4" s="184"/>
+      <c r="V4" s="185">
         <v>24</v>
       </c>
-      <c r="W4" s="176"/>
-      <c r="X4" s="177">
+      <c r="W4" s="184"/>
+      <c r="X4" s="185">
         <v>12</v>
       </c>
-      <c r="Y4" s="176"/>
-      <c r="Z4" s="177">
+      <c r="Y4" s="184"/>
+      <c r="Z4" s="185">
         <v>12</v>
       </c>
-      <c r="AA4" s="176"/>
-      <c r="AB4" s="177">
+      <c r="AA4" s="184"/>
+      <c r="AB4" s="185">
         <v>18</v>
       </c>
-      <c r="AC4" s="176"/>
-      <c r="AD4" s="184">
+      <c r="AC4" s="184"/>
+      <c r="AD4" s="192">
         <v>18</v>
       </c>
-      <c r="AE4" s="185"/>
-      <c r="AF4" s="184">
+      <c r="AE4" s="193"/>
+      <c r="AF4" s="192">
         <v>24</v>
       </c>
-      <c r="AG4" s="185"/>
-      <c r="AH4" s="184">
+      <c r="AG4" s="193"/>
+      <c r="AH4" s="192">
         <v>18</v>
       </c>
-      <c r="AI4" s="185"/>
-      <c r="AJ4" s="184">
+      <c r="AI4" s="193"/>
+      <c r="AJ4" s="192">
         <v>24</v>
       </c>
-      <c r="AK4" s="185"/>
-      <c r="AL4" s="177">
+      <c r="AK4" s="193"/>
+      <c r="AL4" s="185">
         <v>24</v>
       </c>
-      <c r="AM4" s="176"/>
-      <c r="AN4" s="184">
+      <c r="AM4" s="184"/>
+      <c r="AN4" s="192">
         <v>18</v>
       </c>
-      <c r="AO4" s="185"/>
-      <c r="AP4" s="184">
+      <c r="AO4" s="193"/>
+      <c r="AP4" s="192">
         <v>18</v>
       </c>
-      <c r="AQ4" s="185"/>
-      <c r="AR4" s="177">
+      <c r="AQ4" s="193"/>
+      <c r="AR4" s="185">
         <v>24</v>
       </c>
-      <c r="AS4" s="176"/>
-      <c r="AT4" s="177">
+      <c r="AS4" s="184"/>
+      <c r="AT4" s="185">
         <v>18</v>
       </c>
-      <c r="AU4" s="176"/>
-      <c r="AV4" s="177">
+      <c r="AU4" s="184"/>
+      <c r="AV4" s="185">
         <v>24</v>
       </c>
-      <c r="AW4" s="176"/>
-      <c r="AX4" s="177">
+      <c r="AW4" s="184"/>
+      <c r="AX4" s="185">
         <v>24</v>
       </c>
-      <c r="AY4" s="176"/>
-      <c r="AZ4" s="177">
+      <c r="AY4" s="184"/>
+      <c r="AZ4" s="185">
         <v>18</v>
       </c>
-      <c r="BA4" s="176"/>
-      <c r="BB4" s="177">
+      <c r="BA4" s="184"/>
+      <c r="BB4" s="185">
         <v>12</v>
       </c>
-      <c r="BC4" s="176"/>
-      <c r="BD4" s="184">
+      <c r="BC4" s="184"/>
+      <c r="BD4" s="192">
         <v>12</v>
       </c>
-      <c r="BE4" s="185"/>
-      <c r="BF4" s="177">
+      <c r="BE4" s="193"/>
+      <c r="BF4" s="185">
         <v>12</v>
       </c>
-      <c r="BG4" s="178"/>
+      <c r="BG4" s="186"/>
     </row>
     <row r="5" spans="2:59" x14ac:dyDescent="0.3">
-      <c r="B5" s="196"/>
+      <c r="B5" s="204"/>
       <c r="C5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="225">
+      <c r="D5" s="233">
         <v>525</v>
       </c>
-      <c r="E5" s="190"/>
-      <c r="F5" s="225">
+      <c r="E5" s="198"/>
+      <c r="F5" s="233">
         <v>525</v>
       </c>
-      <c r="G5" s="190"/>
-      <c r="H5" s="225">
+      <c r="G5" s="198"/>
+      <c r="H5" s="233">
         <v>550</v>
       </c>
-      <c r="I5" s="190"/>
-      <c r="J5" s="225">
+      <c r="I5" s="198"/>
+      <c r="J5" s="233">
         <v>525</v>
       </c>
-      <c r="K5" s="226"/>
-      <c r="L5" s="225">
+      <c r="K5" s="234"/>
+      <c r="L5" s="233">
         <v>550</v>
       </c>
-      <c r="M5" s="226"/>
-      <c r="N5" s="225">
+      <c r="M5" s="234"/>
+      <c r="N5" s="233">
         <v>575</v>
       </c>
-      <c r="O5" s="190"/>
-      <c r="P5" s="225">
+      <c r="O5" s="198"/>
+      <c r="P5" s="233">
         <v>525</v>
       </c>
-      <c r="Q5" s="190"/>
-      <c r="R5" s="225">
+      <c r="Q5" s="198"/>
+      <c r="R5" s="233">
         <v>575</v>
       </c>
-      <c r="S5" s="226"/>
-      <c r="T5" s="225">
+      <c r="S5" s="234"/>
+      <c r="T5" s="233">
         <v>525</v>
       </c>
-      <c r="U5" s="226"/>
-      <c r="V5" s="225">
+      <c r="U5" s="234"/>
+      <c r="V5" s="233">
         <v>575</v>
       </c>
-      <c r="W5" s="226"/>
-      <c r="X5" s="225">
+      <c r="W5" s="234"/>
+      <c r="X5" s="233">
         <v>550</v>
       </c>
-      <c r="Y5" s="226"/>
-      <c r="Z5" s="225">
+      <c r="Y5" s="234"/>
+      <c r="Z5" s="233">
         <v>575</v>
       </c>
-      <c r="AA5" s="226"/>
-      <c r="AB5" s="225">
+      <c r="AA5" s="234"/>
+      <c r="AB5" s="233">
         <v>550</v>
       </c>
-      <c r="AC5" s="226"/>
-      <c r="AD5" s="225">
+      <c r="AC5" s="234"/>
+      <c r="AD5" s="233">
         <v>550</v>
       </c>
-      <c r="AE5" s="190"/>
-      <c r="AF5" s="225">
+      <c r="AE5" s="198"/>
+      <c r="AF5" s="233">
         <v>525</v>
       </c>
-      <c r="AG5" s="190"/>
-      <c r="AH5" s="225">
+      <c r="AG5" s="198"/>
+      <c r="AH5" s="233">
         <v>525</v>
       </c>
-      <c r="AI5" s="190"/>
-      <c r="AJ5" s="225">
+      <c r="AI5" s="198"/>
+      <c r="AJ5" s="233">
         <v>575</v>
       </c>
-      <c r="AK5" s="226"/>
-      <c r="AL5" s="225">
+      <c r="AK5" s="234"/>
+      <c r="AL5" s="233">
         <v>550</v>
       </c>
-      <c r="AM5" s="226"/>
-      <c r="AN5" s="225">
+      <c r="AM5" s="234"/>
+      <c r="AN5" s="233">
         <v>575</v>
       </c>
-      <c r="AO5" s="190"/>
-      <c r="AP5" s="225">
+      <c r="AO5" s="198"/>
+      <c r="AP5" s="233">
         <v>575</v>
       </c>
-      <c r="AQ5" s="190"/>
-      <c r="AR5" s="225">
+      <c r="AQ5" s="198"/>
+      <c r="AR5" s="233">
         <v>575</v>
       </c>
-      <c r="AS5" s="226"/>
-      <c r="AT5" s="225">
+      <c r="AS5" s="234"/>
+      <c r="AT5" s="233">
         <v>550</v>
       </c>
-      <c r="AU5" s="226"/>
-      <c r="AV5" s="225">
+      <c r="AU5" s="234"/>
+      <c r="AV5" s="233">
         <v>550</v>
       </c>
-      <c r="AW5" s="226"/>
-      <c r="AX5" s="225">
+      <c r="AW5" s="234"/>
+      <c r="AX5" s="233">
         <v>525</v>
       </c>
-      <c r="AY5" s="226"/>
-      <c r="AZ5" s="225">
+      <c r="AY5" s="234"/>
+      <c r="AZ5" s="233">
         <v>525</v>
       </c>
-      <c r="BA5" s="226"/>
-      <c r="BB5" s="225">
+      <c r="BA5" s="234"/>
+      <c r="BB5" s="233">
         <v>575</v>
       </c>
-      <c r="BC5" s="226"/>
-      <c r="BD5" s="225">
+      <c r="BC5" s="234"/>
+      <c r="BD5" s="233">
         <v>550</v>
       </c>
-      <c r="BE5" s="190"/>
-      <c r="BF5" s="225">
+      <c r="BE5" s="198"/>
+      <c r="BF5" s="233">
         <v>525</v>
       </c>
-      <c r="BG5" s="191"/>
+      <c r="BG5" s="199"/>
     </row>
     <row r="6" spans="2:59" x14ac:dyDescent="0.3">
-      <c r="B6" s="196"/>
+      <c r="B6" s="204"/>
       <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="187" t="s">
+      <c r="D6" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="188"/>
-      <c r="F6" s="187" t="s">
+      <c r="E6" s="196"/>
+      <c r="F6" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="188"/>
-      <c r="H6" s="187" t="s">
+      <c r="G6" s="196"/>
+      <c r="H6" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="188"/>
-      <c r="J6" s="187" t="s">
+      <c r="I6" s="196"/>
+      <c r="J6" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="K6" s="188"/>
-      <c r="L6" s="187" t="s">
+      <c r="K6" s="196"/>
+      <c r="L6" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="M6" s="188"/>
-      <c r="N6" s="187" t="s">
+      <c r="M6" s="196"/>
+      <c r="N6" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="O6" s="188"/>
-      <c r="P6" s="187" t="s">
+      <c r="O6" s="196"/>
+      <c r="P6" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="Q6" s="188"/>
-      <c r="R6" s="187" t="s">
+      <c r="Q6" s="196"/>
+      <c r="R6" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="S6" s="188"/>
-      <c r="T6" s="187" t="s">
+      <c r="S6" s="196"/>
+      <c r="T6" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="U6" s="188"/>
-      <c r="V6" s="187" t="s">
+      <c r="U6" s="196"/>
+      <c r="V6" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="W6" s="188"/>
-      <c r="X6" s="187" t="s">
+      <c r="W6" s="196"/>
+      <c r="X6" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="Y6" s="188"/>
-      <c r="Z6" s="187" t="s">
+      <c r="Y6" s="196"/>
+      <c r="Z6" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="AA6" s="188"/>
-      <c r="AB6" s="187" t="s">
+      <c r="AA6" s="196"/>
+      <c r="AB6" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="AC6" s="188"/>
-      <c r="AD6" s="187" t="s">
+      <c r="AC6" s="196"/>
+      <c r="AD6" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="AE6" s="188"/>
-      <c r="AF6" s="187" t="s">
+      <c r="AE6" s="196"/>
+      <c r="AF6" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="AG6" s="188"/>
-      <c r="AH6" s="187" t="s">
+      <c r="AG6" s="196"/>
+      <c r="AH6" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="AI6" s="188"/>
-      <c r="AJ6" s="187" t="s">
+      <c r="AI6" s="196"/>
+      <c r="AJ6" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="AK6" s="188"/>
-      <c r="AL6" s="187" t="s">
+      <c r="AK6" s="196"/>
+      <c r="AL6" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="AM6" s="188"/>
-      <c r="AN6" s="187" t="s">
+      <c r="AM6" s="196"/>
+      <c r="AN6" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="AO6" s="188"/>
-      <c r="AP6" s="187" t="s">
+      <c r="AO6" s="196"/>
+      <c r="AP6" s="195" t="s">
         <v>105</v>
       </c>
-      <c r="AQ6" s="188"/>
-      <c r="AR6" s="187" t="s">
+      <c r="AQ6" s="196"/>
+      <c r="AR6" s="195" t="s">
         <v>105</v>
       </c>
-      <c r="AS6" s="188"/>
-      <c r="AT6" s="187" t="s">
+      <c r="AS6" s="196"/>
+      <c r="AT6" s="195" t="s">
         <v>105</v>
       </c>
-      <c r="AU6" s="188"/>
-      <c r="AV6" s="187" t="s">
+      <c r="AU6" s="196"/>
+      <c r="AV6" s="195" t="s">
         <v>105</v>
       </c>
-      <c r="AW6" s="188"/>
-      <c r="AX6" s="187" t="s">
+      <c r="AW6" s="196"/>
+      <c r="AX6" s="195" t="s">
         <v>105</v>
       </c>
-      <c r="AY6" s="188"/>
-      <c r="AZ6" s="187" t="s">
+      <c r="AY6" s="196"/>
+      <c r="AZ6" s="195" t="s">
         <v>105</v>
       </c>
-      <c r="BA6" s="188"/>
-      <c r="BB6" s="187" t="s">
+      <c r="BA6" s="196"/>
+      <c r="BB6" s="195" t="s">
         <v>105</v>
       </c>
-      <c r="BC6" s="188"/>
-      <c r="BD6" s="187" t="s">
+      <c r="BC6" s="196"/>
+      <c r="BD6" s="195" t="s">
         <v>105</v>
       </c>
-      <c r="BE6" s="188"/>
-      <c r="BF6" s="177" t="s">
+      <c r="BE6" s="196"/>
+      <c r="BF6" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="BG6" s="178"/>
+      <c r="BG6" s="186"/>
     </row>
     <row r="7" spans="2:59" x14ac:dyDescent="0.3">
-      <c r="B7" s="243"/>
+      <c r="B7" s="253"/>
       <c r="C7" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="187" t="s">
+      <c r="D7" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="188"/>
-      <c r="F7" s="187" t="s">
+      <c r="E7" s="196"/>
+      <c r="F7" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="188"/>
-      <c r="H7" s="187" t="s">
+      <c r="G7" s="196"/>
+      <c r="H7" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="188"/>
-      <c r="J7" s="187" t="s">
+      <c r="I7" s="196"/>
+      <c r="J7" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="188"/>
-      <c r="L7" s="187" t="s">
+      <c r="K7" s="196"/>
+      <c r="L7" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="M7" s="188"/>
-      <c r="N7" s="187" t="s">
+      <c r="M7" s="196"/>
+      <c r="N7" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="O7" s="188"/>
-      <c r="P7" s="187" t="s">
+      <c r="O7" s="196"/>
+      <c r="P7" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="Q7" s="188"/>
-      <c r="R7" s="187" t="s">
+      <c r="Q7" s="196"/>
+      <c r="R7" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="S7" s="188"/>
-      <c r="T7" s="187" t="s">
+      <c r="S7" s="196"/>
+      <c r="T7" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="U7" s="188"/>
-      <c r="V7" s="187" t="s">
+      <c r="U7" s="196"/>
+      <c r="V7" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="W7" s="188"/>
-      <c r="X7" s="187" t="s">
+      <c r="W7" s="196"/>
+      <c r="X7" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="Y7" s="188"/>
-      <c r="Z7" s="187" t="s">
+      <c r="Y7" s="196"/>
+      <c r="Z7" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="AA7" s="188"/>
-      <c r="AB7" s="187" t="s">
+      <c r="AA7" s="196"/>
+      <c r="AB7" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="AC7" s="188"/>
-      <c r="AD7" s="187" t="s">
+      <c r="AC7" s="196"/>
+      <c r="AD7" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="AE7" s="188"/>
-      <c r="AF7" s="187" t="s">
+      <c r="AE7" s="196"/>
+      <c r="AF7" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="AG7" s="188"/>
-      <c r="AH7" s="187" t="s">
+      <c r="AG7" s="196"/>
+      <c r="AH7" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="AI7" s="188"/>
-      <c r="AJ7" s="187" t="s">
+      <c r="AI7" s="196"/>
+      <c r="AJ7" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="AK7" s="188"/>
-      <c r="AL7" s="187" t="s">
+      <c r="AK7" s="196"/>
+      <c r="AL7" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="AM7" s="188"/>
-      <c r="AN7" s="187" t="s">
+      <c r="AM7" s="196"/>
+      <c r="AN7" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="AO7" s="188"/>
-      <c r="AP7" s="187" t="s">
+      <c r="AO7" s="196"/>
+      <c r="AP7" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="AQ7" s="188"/>
-      <c r="AR7" s="187" t="s">
+      <c r="AQ7" s="196"/>
+      <c r="AR7" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="AS7" s="188"/>
-      <c r="AT7" s="187" t="s">
+      <c r="AS7" s="196"/>
+      <c r="AT7" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="AU7" s="188"/>
-      <c r="AV7" s="187" t="s">
+      <c r="AU7" s="196"/>
+      <c r="AV7" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="AW7" s="188"/>
-      <c r="AX7" s="187" t="s">
+      <c r="AW7" s="196"/>
+      <c r="AX7" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="AY7" s="188"/>
-      <c r="AZ7" s="187" t="s">
+      <c r="AY7" s="196"/>
+      <c r="AZ7" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="BA7" s="188"/>
-      <c r="BB7" s="187" t="s">
+      <c r="BA7" s="196"/>
+      <c r="BB7" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="BC7" s="188"/>
-      <c r="BD7" s="187" t="s">
+      <c r="BC7" s="196"/>
+      <c r="BD7" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="BE7" s="188"/>
-      <c r="BF7" s="248" t="s">
+      <c r="BE7" s="196"/>
+      <c r="BF7" s="258" t="s">
         <v>118</v>
       </c>
-      <c r="BG7" s="249"/>
+      <c r="BG7" s="259"/>
     </row>
     <row r="8" spans="2:59" x14ac:dyDescent="0.3">
-      <c r="B8" s="243"/>
+      <c r="B8" s="253"/>
       <c r="C8" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="244" t="s">
+      <c r="D8" s="251" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="245"/>
-      <c r="F8" s="244" t="s">
+      <c r="E8" s="252"/>
+      <c r="F8" s="251" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="245"/>
-      <c r="H8" s="244" t="s">
+      <c r="G8" s="252"/>
+      <c r="H8" s="251" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="245"/>
-      <c r="J8" s="244" t="s">
+      <c r="I8" s="252"/>
+      <c r="J8" s="251" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="245"/>
-      <c r="L8" s="246" t="s">
+      <c r="K8" s="252"/>
+      <c r="L8" s="256" t="s">
         <v>119</v>
       </c>
-      <c r="M8" s="247"/>
-      <c r="N8" s="244" t="s">
+      <c r="M8" s="257"/>
+      <c r="N8" s="251" t="s">
         <v>69</v>
       </c>
-      <c r="O8" s="245"/>
-      <c r="P8" s="244" t="s">
+      <c r="O8" s="252"/>
+      <c r="P8" s="251" t="s">
         <v>120</v>
       </c>
-      <c r="Q8" s="245"/>
-      <c r="R8" s="246" t="s">
+      <c r="Q8" s="252"/>
+      <c r="R8" s="256" t="s">
         <v>119</v>
       </c>
-      <c r="S8" s="247"/>
-      <c r="T8" s="246" t="s">
+      <c r="S8" s="257"/>
+      <c r="T8" s="256" t="s">
         <v>119</v>
       </c>
-      <c r="U8" s="247"/>
-      <c r="V8" s="246" t="s">
+      <c r="U8" s="257"/>
+      <c r="V8" s="256" t="s">
         <v>69</v>
       </c>
-      <c r="W8" s="247"/>
-      <c r="X8" s="246" t="s">
+      <c r="W8" s="257"/>
+      <c r="X8" s="256" t="s">
         <v>120</v>
       </c>
-      <c r="Y8" s="247"/>
-      <c r="Z8" s="246" t="s">
+      <c r="Y8" s="257"/>
+      <c r="Z8" s="256" t="s">
         <v>120</v>
       </c>
-      <c r="AA8" s="247"/>
-      <c r="AB8" s="246" t="s">
+      <c r="AA8" s="257"/>
+      <c r="AB8" s="256" t="s">
         <v>119</v>
       </c>
-      <c r="AC8" s="247"/>
-      <c r="AD8" s="244" t="s">
+      <c r="AC8" s="257"/>
+      <c r="AD8" s="251" t="s">
         <v>120</v>
       </c>
-      <c r="AE8" s="245"/>
-      <c r="AF8" s="244" t="s">
+      <c r="AE8" s="252"/>
+      <c r="AF8" s="251" t="s">
         <v>119</v>
       </c>
-      <c r="AG8" s="245"/>
-      <c r="AH8" s="244" t="s">
+      <c r="AG8" s="252"/>
+      <c r="AH8" s="251" t="s">
         <v>69</v>
       </c>
-      <c r="AI8" s="245"/>
-      <c r="AJ8" s="244" t="s">
+      <c r="AI8" s="252"/>
+      <c r="AJ8" s="251" t="s">
         <v>120</v>
       </c>
-      <c r="AK8" s="245"/>
-      <c r="AL8" s="246" t="s">
+      <c r="AK8" s="252"/>
+      <c r="AL8" s="256" t="s">
         <v>69</v>
       </c>
-      <c r="AM8" s="247"/>
-      <c r="AN8" s="244" t="s">
+      <c r="AM8" s="257"/>
+      <c r="AN8" s="251" t="s">
         <v>119</v>
       </c>
-      <c r="AO8" s="245"/>
-      <c r="AP8" s="244" t="s">
+      <c r="AO8" s="252"/>
+      <c r="AP8" s="251" t="s">
         <v>120</v>
       </c>
-      <c r="AQ8" s="245"/>
-      <c r="AR8" s="246" t="s">
+      <c r="AQ8" s="252"/>
+      <c r="AR8" s="256" t="s">
         <v>119</v>
       </c>
-      <c r="AS8" s="247"/>
-      <c r="AT8" s="246" t="s">
+      <c r="AS8" s="257"/>
+      <c r="AT8" s="256" t="s">
         <v>69</v>
       </c>
-      <c r="AU8" s="247"/>
-      <c r="AV8" s="246" t="s">
+      <c r="AU8" s="257"/>
+      <c r="AV8" s="256" t="s">
         <v>120</v>
       </c>
-      <c r="AW8" s="247"/>
-      <c r="AX8" s="246" t="s">
+      <c r="AW8" s="257"/>
+      <c r="AX8" s="256" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="247"/>
-      <c r="AZ8" s="246" t="s">
+      <c r="AY8" s="257"/>
+      <c r="AZ8" s="256" t="s">
         <v>119</v>
       </c>
-      <c r="BA8" s="247"/>
-      <c r="BB8" s="246" t="s">
+      <c r="BA8" s="257"/>
+      <c r="BB8" s="256" t="s">
         <v>69</v>
       </c>
-      <c r="BC8" s="247"/>
-      <c r="BD8" s="244" t="s">
+      <c r="BC8" s="257"/>
+      <c r="BD8" s="251" t="s">
         <v>119</v>
       </c>
-      <c r="BE8" s="245"/>
-      <c r="BF8" s="246" t="s">
+      <c r="BE8" s="252"/>
+      <c r="BF8" s="256" t="s">
         <v>120</v>
       </c>
-      <c r="BG8" s="250"/>
+      <c r="BG8" s="260"/>
     </row>
     <row r="9" spans="2:59" x14ac:dyDescent="0.3">
-      <c r="B9" s="243"/>
+      <c r="B9" s="253"/>
       <c r="C9" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="184" t="s">
+      <c r="D9" s="192" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="185"/>
-      <c r="F9" s="184" t="s">
+      <c r="E9" s="193"/>
+      <c r="F9" s="192" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="185"/>
-      <c r="H9" s="184" t="s">
+      <c r="G9" s="193"/>
+      <c r="H9" s="192" t="s">
         <v>120</v>
       </c>
-      <c r="I9" s="185"/>
-      <c r="J9" s="184" t="s">
+      <c r="I9" s="193"/>
+      <c r="J9" s="192" t="s">
         <v>119</v>
       </c>
-      <c r="K9" s="185"/>
-      <c r="L9" s="177" t="s">
+      <c r="K9" s="193"/>
+      <c r="L9" s="185" t="s">
         <v>119</v>
       </c>
-      <c r="M9" s="176"/>
-      <c r="N9" s="184" t="s">
+      <c r="M9" s="184"/>
+      <c r="N9" s="192" t="s">
         <v>119</v>
       </c>
-      <c r="O9" s="185"/>
-      <c r="P9" s="184" t="s">
+      <c r="O9" s="193"/>
+      <c r="P9" s="192" t="s">
         <v>119</v>
       </c>
-      <c r="Q9" s="185"/>
-      <c r="R9" s="177" t="s">
+      <c r="Q9" s="193"/>
+      <c r="R9" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="S9" s="176"/>
-      <c r="T9" s="177" t="s">
+      <c r="S9" s="184"/>
+      <c r="T9" s="185" t="s">
         <v>120</v>
       </c>
-      <c r="U9" s="176"/>
-      <c r="V9" s="177" t="s">
+      <c r="U9" s="184"/>
+      <c r="V9" s="185" t="s">
         <v>119</v>
       </c>
-      <c r="W9" s="176"/>
-      <c r="X9" s="177" t="s">
+      <c r="W9" s="184"/>
+      <c r="X9" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="Y9" s="176"/>
-      <c r="Z9" s="177" t="s">
+      <c r="Y9" s="184"/>
+      <c r="Z9" s="185" t="s">
         <v>120</v>
       </c>
-      <c r="AA9" s="176"/>
-      <c r="AB9" s="177" t="s">
+      <c r="AA9" s="184"/>
+      <c r="AB9" s="185" t="s">
         <v>119</v>
       </c>
-      <c r="AC9" s="176"/>
-      <c r="AD9" s="184" t="s">
+      <c r="AC9" s="184"/>
+      <c r="AD9" s="192" t="s">
         <v>69</v>
       </c>
-      <c r="AE9" s="185"/>
-      <c r="AF9" s="184" t="s">
+      <c r="AE9" s="193"/>
+      <c r="AF9" s="192" t="s">
         <v>120</v>
       </c>
-      <c r="AG9" s="185"/>
-      <c r="AH9" s="184" t="s">
+      <c r="AG9" s="193"/>
+      <c r="AH9" s="192" t="s">
         <v>69</v>
       </c>
-      <c r="AI9" s="185"/>
-      <c r="AJ9" s="184" t="s">
+      <c r="AI9" s="193"/>
+      <c r="AJ9" s="192" t="s">
         <v>120</v>
       </c>
-      <c r="AK9" s="185"/>
-      <c r="AL9" s="177" t="s">
+      <c r="AK9" s="193"/>
+      <c r="AL9" s="185" t="s">
         <v>120</v>
       </c>
-      <c r="AM9" s="176"/>
-      <c r="AN9" s="184" t="s">
+      <c r="AM9" s="184"/>
+      <c r="AN9" s="192" t="s">
         <v>69</v>
       </c>
-      <c r="AO9" s="185"/>
-      <c r="AP9" s="184" t="s">
+      <c r="AO9" s="193"/>
+      <c r="AP9" s="192" t="s">
         <v>120</v>
       </c>
-      <c r="AQ9" s="185"/>
-      <c r="AR9" s="177" t="s">
+      <c r="AQ9" s="193"/>
+      <c r="AR9" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="AS9" s="176"/>
-      <c r="AT9" s="177" t="s">
+      <c r="AS9" s="184"/>
+      <c r="AT9" s="185" t="s">
         <v>120</v>
       </c>
-      <c r="AU9" s="176"/>
-      <c r="AV9" s="177" t="s">
+      <c r="AU9" s="184"/>
+      <c r="AV9" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="AW9" s="176"/>
-      <c r="AX9" s="177" t="s">
+      <c r="AW9" s="184"/>
+      <c r="AX9" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="AY9" s="176"/>
-      <c r="AZ9" s="177" t="s">
+      <c r="AY9" s="184"/>
+      <c r="AZ9" s="185" t="s">
         <v>120</v>
       </c>
-      <c r="BA9" s="176"/>
-      <c r="BB9" s="177" t="s">
+      <c r="BA9" s="184"/>
+      <c r="BB9" s="185" t="s">
         <v>119</v>
       </c>
-      <c r="BC9" s="176"/>
-      <c r="BD9" s="184" t="s">
+      <c r="BC9" s="184"/>
+      <c r="BD9" s="192" t="s">
         <v>119</v>
       </c>
-      <c r="BE9" s="185"/>
-      <c r="BF9" s="177" t="s">
+      <c r="BE9" s="193"/>
+      <c r="BF9" s="185" t="s">
         <v>119</v>
       </c>
-      <c r="BG9" s="178"/>
+      <c r="BG9" s="186"/>
     </row>
     <row r="10" spans="2:59" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="197"/>
+      <c r="B10" s="205"/>
       <c r="C10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="179" t="s">
+      <c r="D10" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="180"/>
-      <c r="F10" s="179">
+      <c r="E10" s="188"/>
+      <c r="F10" s="187">
         <v>0</v>
       </c>
-      <c r="G10" s="180"/>
-      <c r="H10" s="182">
+      <c r="G10" s="188"/>
+      <c r="H10" s="190">
         <v>7</v>
       </c>
-      <c r="I10" s="180"/>
-      <c r="J10" s="182">
+      <c r="I10" s="188"/>
+      <c r="J10" s="190">
         <v>7</v>
       </c>
-      <c r="K10" s="218"/>
-      <c r="L10" s="182">
+      <c r="K10" s="226"/>
+      <c r="L10" s="190">
         <v>0</v>
       </c>
-      <c r="M10" s="218"/>
-      <c r="N10" s="182" t="s">
+      <c r="M10" s="226"/>
+      <c r="N10" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="O10" s="180"/>
-      <c r="P10" s="182">
+      <c r="O10" s="188"/>
+      <c r="P10" s="190">
         <v>7</v>
       </c>
-      <c r="Q10" s="180"/>
-      <c r="R10" s="182">
+      <c r="Q10" s="188"/>
+      <c r="R10" s="190">
         <v>7</v>
       </c>
-      <c r="S10" s="218"/>
-      <c r="T10" s="182" t="s">
+      <c r="S10" s="226"/>
+      <c r="T10" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="U10" s="218"/>
-      <c r="V10" s="182" t="s">
+      <c r="U10" s="226"/>
+      <c r="V10" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="W10" s="218"/>
-      <c r="X10" s="182" t="s">
+      <c r="W10" s="226"/>
+      <c r="X10" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="Y10" s="218"/>
-      <c r="Z10" s="182">
+      <c r="Y10" s="226"/>
+      <c r="Z10" s="190">
         <v>0</v>
       </c>
-      <c r="AA10" s="218"/>
-      <c r="AB10" s="182">
+      <c r="AA10" s="226"/>
+      <c r="AB10" s="190">
         <v>0</v>
       </c>
-      <c r="AC10" s="218"/>
-      <c r="AD10" s="179" t="s">
+      <c r="AC10" s="226"/>
+      <c r="AD10" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="AE10" s="180"/>
-      <c r="AF10" s="179" t="s">
+      <c r="AE10" s="188"/>
+      <c r="AF10" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="AG10" s="180"/>
-      <c r="AH10" s="182">
+      <c r="AG10" s="188"/>
+      <c r="AH10" s="190">
         <v>0</v>
       </c>
-      <c r="AI10" s="180"/>
-      <c r="AJ10" s="182">
+      <c r="AI10" s="188"/>
+      <c r="AJ10" s="190">
         <v>0</v>
       </c>
-      <c r="AK10" s="218"/>
-      <c r="AL10" s="182">
+      <c r="AK10" s="226"/>
+      <c r="AL10" s="190">
         <v>7</v>
       </c>
-      <c r="AM10" s="218"/>
-      <c r="AN10" s="182">
+      <c r="AM10" s="226"/>
+      <c r="AN10" s="190">
         <v>7</v>
       </c>
-      <c r="AO10" s="180"/>
-      <c r="AP10" s="182">
+      <c r="AO10" s="188"/>
+      <c r="AP10" s="190">
         <v>0</v>
       </c>
-      <c r="AQ10" s="180"/>
-      <c r="AR10" s="182">
+      <c r="AQ10" s="188"/>
+      <c r="AR10" s="190">
         <v>7</v>
       </c>
-      <c r="AS10" s="218"/>
-      <c r="AT10" s="182">
+      <c r="AS10" s="226"/>
+      <c r="AT10" s="190">
         <v>7</v>
       </c>
-      <c r="AU10" s="218"/>
-      <c r="AV10" s="182" t="s">
+      <c r="AU10" s="226"/>
+      <c r="AV10" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="AW10" s="218"/>
-      <c r="AX10" s="182">
+      <c r="AW10" s="226"/>
+      <c r="AX10" s="190">
         <v>0</v>
       </c>
-      <c r="AY10" s="218"/>
-      <c r="AZ10" s="182" t="s">
+      <c r="AY10" s="226"/>
+      <c r="AZ10" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="BA10" s="218"/>
-      <c r="BB10" s="182" t="s">
+      <c r="BA10" s="226"/>
+      <c r="BB10" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="BC10" s="218"/>
-      <c r="BD10" s="179">
+      <c r="BC10" s="226"/>
+      <c r="BD10" s="187">
         <v>0</v>
       </c>
-      <c r="BE10" s="180"/>
-      <c r="BF10" s="177">
+      <c r="BE10" s="188"/>
+      <c r="BF10" s="185">
         <v>7</v>
       </c>
-      <c r="BG10" s="178"/>
+      <c r="BG10" s="186"/>
     </row>
     <row r="11" spans="2:59" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="221" t="s">
+      <c r="B11" s="229" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="222"/>
-      <c r="D11" s="223" t="s">
+      <c r="C11" s="230"/>
+      <c r="D11" s="231" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="224"/>
+      <c r="E11" s="232"/>
       <c r="F11" s="63" t="s">
         <v>11</v>
       </c>
@@ -27019,24 +27022,24 @@
       </c>
     </row>
     <row r="12" spans="2:59" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="153" t="s">
+      <c r="B12" s="161" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="155">
+      <c r="D12" s="163">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!D$1)</f>
-        <v>9.6500708138113005</v>
-      </c>
-      <c r="E12" s="156"/>
+        <v>11.3</v>
+      </c>
+      <c r="E12" s="164"/>
       <c r="F12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!F$1)</f>
         <v>11.171752640486234</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" ref="G12:G30" ca="1" si="0">(F12-$D12)/$D12</f>
-        <v>0.15768607878991769</v>
+        <v>-1.1349323850775779E-2</v>
       </c>
       <c r="H12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!H$1)</f>
@@ -27044,7 +27047,7 @@
       </c>
       <c r="I12" s="12">
         <f t="shared" ref="I12:I16" ca="1" si="1">(H12-$D12)/$D12</f>
-        <v>0.20977950455519417</v>
+        <v>3.3137866199572909E-2</v>
       </c>
       <c r="J12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!J$1)</f>
@@ -27052,7 +27055,7 @@
       </c>
       <c r="K12" s="12">
         <f t="shared" ref="K12:K16" ca="1" si="2">(J12-$D12)/$D12</f>
-        <v>0.17457767002811911</v>
+        <v>3.0759019551178635E-3</v>
       </c>
       <c r="L12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!L$1)</f>
@@ -27060,7 +27063,7 @@
       </c>
       <c r="M12" s="12">
         <f t="shared" ref="M12:M16" ca="1" si="3">(L12-$D12)/$D12</f>
-        <v>0.17262586557830109</v>
+        <v>1.4090832687943212E-3</v>
       </c>
       <c r="N12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!N$1)</f>
@@ -27068,7 +27071,7 @@
       </c>
       <c r="O12" s="12">
         <f t="shared" ref="O12:O16" ca="1" si="4">(N12-$D12)/$D12</f>
-        <v>0.33025362569915523</v>
+        <v>0.13602138834744062</v>
       </c>
       <c r="P12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!P$1)</f>
@@ -27076,7 +27079,7 @@
       </c>
       <c r="Q12" s="12">
         <f t="shared" ref="Q12:Q16" ca="1" si="5">(P12-$D12)/$D12</f>
-        <v>0.33681998556629861</v>
+        <v>0.14162898460468859</v>
       </c>
       <c r="R12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!R$1)</f>
@@ -27084,7 +27087,7 @@
       </c>
       <c r="S12" s="12">
         <f t="shared" ref="S12:S16" ca="1" si="6">(R12-$D12)/$D12</f>
-        <v>0.33371417950960974</v>
+        <v>0.13897666173911236</v>
       </c>
       <c r="T12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!T$1)</f>
@@ -27092,7 +27095,7 @@
       </c>
       <c r="U12" s="12">
         <f t="shared" ref="U12:U16" ca="1" si="7">(T12-$D12)/$D12</f>
-        <v>0.33394514116923329</v>
+        <v>0.13917390035598343</v>
       </c>
       <c r="V12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!V$1)</f>
@@ -27100,7 +27103,7 @@
       </c>
       <c r="W12" s="12">
         <f t="shared" ref="W12:W16" ca="1" si="8">(V12-$D12)/$D12</f>
-        <v>0.25731138388841951</v>
+        <v>7.3729547746401072E-2</v>
       </c>
       <c r="X12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!X$1)</f>
@@ -27108,7 +27111,7 @@
       </c>
       <c r="Y12" s="12">
         <f t="shared" ref="Y12:Y16" ca="1" si="9">(X12-$D12)/$D12</f>
-        <v>0.25756001368127224</v>
+        <v>7.3941874747060529E-2</v>
       </c>
       <c r="Z12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!Z$1)</f>
@@ -27116,7 +27119,7 @@
       </c>
       <c r="AA12" s="12">
         <f t="shared" ref="AA12:AA16" ca="1" si="10">(Z12-$D12)/$D12</f>
-        <v>0.25328403301619312</v>
+        <v>7.0290236143830315E-2</v>
       </c>
       <c r="AB12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!AB$1)</f>
@@ -27124,7 +27127,7 @@
       </c>
       <c r="AC12" s="12">
         <f t="shared" ref="AC12:AC16" ca="1" si="11">(AB12-$D12)/$D12</f>
-        <v>0.24842957124436574</v>
+        <v>6.6144581288868021E-2</v>
       </c>
       <c r="AD12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!AD$1)</f>
@@ -27132,7 +27135,7 @@
       </c>
       <c r="AE12" s="12">
         <f t="shared" ref="AE12:AE16" ca="1" si="12">(AD12-$D12)/$D12</f>
-        <v>7.462779246171071E-2</v>
+        <v>-8.2280150819006956E-2</v>
       </c>
       <c r="AF12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!AF$1)</f>
@@ -27140,7 +27143,7 @@
       </c>
       <c r="AG12" s="12">
         <f t="shared" ref="AG12:AG16" ca="1" si="13">(AF12-$D12)/$D12</f>
-        <v>5.9376473500744896E-2</v>
+        <v>-9.5304602852400153E-2</v>
       </c>
       <c r="AH12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!AH$1)</f>
@@ -27148,7 +27151,7 @@
       </c>
       <c r="AI12" s="12">
         <f t="shared" ref="AI12:AI16" ca="1" si="14">(AH12-$D12)/$D12</f>
-        <v>0.33205992411168317</v>
+        <v>0.13756394654140255</v>
       </c>
       <c r="AJ12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!AJ$1)</f>
@@ -27156,7 +27159,7 @@
       </c>
       <c r="AK12" s="12">
         <f t="shared" ref="AK12:AK16" ca="1" si="15">(AJ12-$D12)/$D12</f>
-        <v>0.32378198256145735</v>
+        <v>0.13049467909429902</v>
       </c>
       <c r="AL12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!AL$1)</f>
@@ -27164,7 +27167,7 @@
       </c>
       <c r="AM12" s="12">
         <f t="shared" ref="AM12:AM16" ca="1" si="16">(AL12-$D12)/$D12</f>
-        <v>0.22660381882696082</v>
+        <v>4.7505638245268864E-2</v>
       </c>
       <c r="AN12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!AN$1)</f>
@@ -27172,7 +27175,7 @@
       </c>
       <c r="AO12" s="12">
         <f t="shared" ref="AO12:AO16" ca="1" si="17">(AN12-$D12)/$D12</f>
-        <v>0.26222087579144993</v>
+        <v>7.7922197704283949E-2</v>
       </c>
       <c r="AP12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!AP$1)</f>
@@ -27180,7 +27183,7 @@
       </c>
       <c r="AQ12" s="12">
         <f t="shared" ref="AQ12:AQ16" ca="1" si="18">(AP12-$D12)/$D12</f>
-        <v>0.11947504654783643</v>
+        <v>-4.3981108541475862E-2</v>
       </c>
       <c r="AR12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!AR$1)</f>
@@ -27188,7 +27191,7 @@
       </c>
       <c r="AS12" s="12">
         <f t="shared" ref="AS12:AS16" ca="1" si="19">(AR12-$D12)/$D12</f>
-        <v>0.11951265989304806</v>
+        <v>-4.3948987174676164E-2</v>
       </c>
       <c r="AT12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!AT$1)</f>
@@ -27196,7 +27199,7 @@
       </c>
       <c r="AU12" s="12">
         <f t="shared" ref="AU12:AU16" ca="1" si="20">(AT12-$D12)/$D12</f>
-        <v>0.33084817661248805</v>
+        <v>0.13652912803027942</v>
       </c>
       <c r="AV12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!AV$1)</f>
@@ -27204,7 +27207,7 @@
       </c>
       <c r="AW12" s="12">
         <f t="shared" ref="AW12:AW16" ca="1" si="21">(AV12-$D12)/$D12</f>
-        <v>0.34437325247007472</v>
+        <v>0.14807938818849894</v>
       </c>
       <c r="AX12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!AX$1)</f>
@@ -27212,7 +27215,7 @@
       </c>
       <c r="AY12" s="12">
         <f t="shared" ref="AY12:AY16" ca="1" si="22">(AX12-$D12)/$D12</f>
-        <v>0.24360230162418262</v>
+        <v>6.2022148220538184E-2</v>
       </c>
       <c r="AZ12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!AZ$1)</f>
@@ -27220,7 +27223,7 @@
       </c>
       <c r="BA12" s="12">
         <f t="shared" ref="BA12:BA16" ca="1" si="23">(AZ12-$D12)/$D12</f>
-        <v>0.23824140985775535</v>
+        <v>5.7444007939900933E-2</v>
       </c>
       <c r="BB12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!BB$1)</f>
@@ -27228,7 +27231,7 @@
       </c>
       <c r="BC12" s="12">
         <f t="shared" ref="BC12:BC16" ca="1" si="24">(BB12-$D12)/$D12</f>
-        <v>0.13798131788734647</v>
+        <v>-2.8176964388743269E-2</v>
       </c>
       <c r="BD12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!BD$1)</f>
@@ -27236,7 +27239,7 @@
       </c>
       <c r="BE12" s="12">
         <f t="shared" ref="BE12:BE16" ca="1" si="25">(BD12-$D12)/$D12</f>
-        <v>0.3343512426648339</v>
+        <v>0.13952070639050912</v>
       </c>
       <c r="BF12" s="11">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!BF$1)</f>
@@ -27244,19 +27247,19 @@
       </c>
       <c r="BG12" s="36">
         <f t="shared" ref="BG12:BG30" ca="1" si="26">(BF12-$D12)/$D12</f>
-        <v>0.2517956612998058</v>
+        <v>6.9019183713705398E-2</v>
       </c>
     </row>
     <row r="13" spans="2:59" x14ac:dyDescent="0.3">
-      <c r="B13" s="154"/>
+      <c r="B13" s="162"/>
       <c r="C13" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="157">
+      <c r="D13" s="165">
         <f ca="1">OFFSET(Runs2!$B3,0,1*'Scenarios (2)'!D$1)</f>
         <v>4.0789391604602052</v>
       </c>
-      <c r="E13" s="158"/>
+      <c r="E13" s="166"/>
       <c r="F13" s="9">
         <f ca="1">OFFSET(Runs2!$B3,0,1*'Scenarios (2)'!F$1)</f>
         <v>4.2985626008993476</v>
@@ -27475,471 +27478,471 @@
       </c>
     </row>
     <row r="14" spans="2:59" x14ac:dyDescent="0.3">
-      <c r="B14" s="154"/>
-      <c r="C14" s="251" t="s">
+      <c r="B14" s="162"/>
+      <c r="C14" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="252">
+      <c r="D14" s="255">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!D$1)</f>
         <v>1.4827043705642553</v>
       </c>
-      <c r="E14" s="252"/>
-      <c r="F14" s="253">
+      <c r="E14" s="255"/>
+      <c r="F14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!F$1)</f>
         <v>1.7833076647471193</v>
       </c>
-      <c r="G14" s="254">
+      <c r="G14" s="155">
         <f ca="1">(F14-$D14)/$D14</f>
         <v>0.20273987191962412</v>
       </c>
-      <c r="H14" s="253">
+      <c r="H14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!H$1)</f>
         <v>0.95146485411465809</v>
       </c>
-      <c r="I14" s="254">
+      <c r="I14" s="155">
         <f ca="1">(H14-$D14)/$D14</f>
         <v>-0.35829092231476301</v>
       </c>
-      <c r="J14" s="253">
+      <c r="J14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!J$1)</f>
         <v>0.98567460585767797</v>
       </c>
-      <c r="K14" s="254">
+      <c r="K14" s="155">
         <f ca="1">(J14-$D14)/$D14</f>
         <v>-0.33521838511707402</v>
       </c>
-      <c r="L14" s="253">
+      <c r="L14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!L$1)</f>
         <v>1.0443187989536766</v>
       </c>
-      <c r="M14" s="254">
+      <c r="M14" s="155">
         <f ca="1">(L14-$D14)/$D14</f>
         <v>-0.29566620313107156</v>
       </c>
-      <c r="N14" s="253">
+      <c r="N14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!N$1)</f>
         <v>1.0935059998438914</v>
       </c>
-      <c r="O14" s="254">
+      <c r="O14" s="155">
         <f ca="1">(N14-$D14)/$D14</f>
         <v>-0.26249222599394595</v>
       </c>
-      <c r="P14" s="253">
+      <c r="P14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!P$1)</f>
         <v>0.89215929340254652</v>
       </c>
-      <c r="Q14" s="254">
+      <c r="Q14" s="155">
         <f ca="1">(P14-$D14)/$D14</f>
         <v>-0.39828915924552916</v>
       </c>
-      <c r="R14" s="253">
+      <c r="R14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!R$1)</f>
         <v>1.4645207880839215</v>
       </c>
-      <c r="S14" s="254">
+      <c r="S14" s="155">
         <f ca="1">(R14-$D14)/$D14</f>
         <v>-1.2263795023018576E-2</v>
       </c>
-      <c r="T14" s="253">
+      <c r="T14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!T$1)</f>
         <v>1.6394108455547567</v>
       </c>
-      <c r="U14" s="254">
+      <c r="U14" s="155">
         <f ca="1">(T14-$D14)/$D14</f>
         <v>0.10568962910041566</v>
       </c>
-      <c r="V14" s="253">
+      <c r="V14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!V$1)</f>
         <v>1.1433073497293269</v>
       </c>
-      <c r="W14" s="254">
+      <c r="W14" s="155">
         <f ca="1">(V14-$D14)/$D14</f>
         <v>-0.22890404019364163</v>
       </c>
-      <c r="X14" s="253">
+      <c r="X14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!X$1)</f>
         <v>1.7761820350633275</v>
       </c>
-      <c r="Y14" s="254">
+      <c r="Y14" s="155">
         <f ca="1">(X14-$D14)/$D14</f>
         <v>0.19793403885859381</v>
       </c>
-      <c r="Z14" s="253">
+      <c r="Z14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!Z$1)</f>
         <v>1.7203127367417856</v>
       </c>
-      <c r="AA14" s="254">
+      <c r="AA14" s="155">
         <f ca="1">(Z14-$D14)/$D14</f>
         <v>0.16025336600788903</v>
       </c>
-      <c r="AB14" s="253">
+      <c r="AB14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!AB$1)</f>
         <v>1.0705106882994895</v>
       </c>
-      <c r="AC14" s="254">
+      <c r="AC14" s="155">
         <f ca="1">(AB14-$D14)/$D14</f>
         <v>-0.27800125935280151</v>
       </c>
-      <c r="AD14" s="253">
+      <c r="AD14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!AD$1)</f>
         <v>1.9239880157583851</v>
       </c>
-      <c r="AE14" s="254">
+      <c r="AE14" s="155">
         <f ca="1">(AD14-$D14)/$D14</f>
         <v>0.29762078938648817</v>
       </c>
-      <c r="AF14" s="253">
+      <c r="AF14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!AF$1)</f>
         <v>1.7176117566434621</v>
       </c>
-      <c r="AG14" s="254">
+      <c r="AG14" s="155">
         <f ca="1">(AF14-$D14)/$D14</f>
         <v>0.15843170812925497</v>
       </c>
-      <c r="AH14" s="253">
+      <c r="AH14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!AH$1)</f>
         <v>2.9704855811957307</v>
       </c>
-      <c r="AI14" s="254">
+      <c r="AI14" s="155">
         <f ca="1">(AH14-$D14)/$D14</f>
         <v>1.0034240406705539</v>
       </c>
-      <c r="AJ14" s="253">
+      <c r="AJ14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!AJ$1)</f>
         <v>1.5831723567123606</v>
       </c>
-      <c r="AK14" s="254">
+      <c r="AK14" s="155">
         <f ca="1">(AJ14-$D14)/$D14</f>
         <v>6.7759958183620475E-2</v>
       </c>
-      <c r="AL14" s="253">
+      <c r="AL14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!AL$1)</f>
         <v>1.1981735258001336</v>
       </c>
-      <c r="AM14" s="254">
+      <c r="AM14" s="155">
         <f ca="1">(AL14-$D14)/$D14</f>
         <v>-0.19189991640467152</v>
       </c>
-      <c r="AN14" s="253">
+      <c r="AN14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!AN$1)</f>
         <v>0.95788589656118373</v>
       </c>
-      <c r="AO14" s="254">
+      <c r="AO14" s="155">
         <f ca="1">(AN14-$D14)/$D14</f>
         <v>-0.35396029338157786</v>
       </c>
-      <c r="AP14" s="253">
+      <c r="AP14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!AP$1)</f>
         <v>1.2475948492010682</v>
       </c>
-      <c r="AQ14" s="254">
+      <c r="AQ14" s="155">
         <f ca="1">(AP14-$D14)/$D14</f>
         <v>-0.15856803691332899</v>
       </c>
-      <c r="AR14" s="253">
+      <c r="AR14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!AR$1)</f>
         <v>1.0542084417464834</v>
       </c>
-      <c r="AS14" s="254">
+      <c r="AS14" s="155">
         <f ca="1">(AR14-$D14)/$D14</f>
         <v>-0.28899620000088366</v>
       </c>
-      <c r="AT14" s="253">
+      <c r="AT14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!AT$1)</f>
         <v>1.3126802010550056</v>
       </c>
-      <c r="AU14" s="254">
+      <c r="AU14" s="155">
         <f ca="1">(AT14-$D14)/$D14</f>
         <v>-0.11467165868307626</v>
       </c>
-      <c r="AV14" s="253">
+      <c r="AV14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!AV$1)</f>
         <v>1.1252472159378231</v>
       </c>
-      <c r="AW14" s="254">
+      <c r="AW14" s="155">
         <f ca="1">(AV14-$D14)/$D14</f>
         <v>-0.24108457607796691</v>
       </c>
-      <c r="AX14" s="253">
+      <c r="AX14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!AX$1)</f>
         <v>1.6861373916512667</v>
       </c>
-      <c r="AY14" s="254">
+      <c r="AY14" s="155">
         <f ca="1">(AX14-$D14)/$D14</f>
         <v>0.13720403414579088</v>
       </c>
-      <c r="AZ14" s="253">
+      <c r="AZ14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!AZ$1)</f>
         <v>1.0936144614322918</v>
       </c>
-      <c r="BA14" s="254">
+      <c r="BA14" s="155">
         <f ca="1">(AZ14-$D14)/$D14</f>
         <v>-0.26241907480443466</v>
       </c>
-      <c r="BB14" s="253">
+      <c r="BB14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!BB$1)</f>
         <v>2.4624197794370319</v>
       </c>
-      <c r="BC14" s="254">
+      <c r="BC14" s="155">
         <f ca="1">(BB14-$D14)/$D14</f>
         <v>0.66076247451805781</v>
       </c>
-      <c r="BD14" s="253">
+      <c r="BD14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!BD$1)</f>
         <v>3.1402084953469025</v>
       </c>
-      <c r="BE14" s="254">
+      <c r="BE14" s="155">
         <f ca="1">(BD14-$D14)/$D14</f>
         <v>1.1178925197015979</v>
       </c>
-      <c r="BF14" s="253">
+      <c r="BF14" s="154">
         <f ca="1">OFFSET(Runs2!$B18,0,1*'Scenarios (2)'!BF$1)</f>
         <v>2.6305343146465185</v>
       </c>
-      <c r="BG14" s="255">
+      <c r="BG14" s="156">
         <f ca="1">(BF14-$D14)/$D14</f>
         <v>0.77414619317905375</v>
       </c>
     </row>
     <row r="15" spans="2:59" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="164"/>
-      <c r="C15" s="256" t="s">
+      <c r="B15" s="172"/>
+      <c r="C15" s="157" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="257">
+      <c r="D15" s="254">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!D$1)</f>
         <v>2.4327875605142184</v>
       </c>
-      <c r="E15" s="257"/>
-      <c r="F15" s="258">
+      <c r="E15" s="254"/>
+      <c r="F15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!F$1)</f>
         <v>2.4315836864895379</v>
       </c>
-      <c r="G15" s="259">
+      <c r="G15" s="159">
         <f ca="1">(F15-$D15)/$D15</f>
         <v>-4.9485374071298299E-4</v>
       </c>
-      <c r="H15" s="258">
+      <c r="H15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!H$1)</f>
         <v>2.4260661676723569</v>
       </c>
-      <c r="I15" s="259">
+      <c r="I15" s="159">
         <f ca="1">(H15-$D15)/$D15</f>
         <v>-2.7628359134000014E-3</v>
       </c>
-      <c r="J15" s="258">
+      <c r="J15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!J$1)</f>
         <v>2.4304742845464493</v>
       </c>
-      <c r="K15" s="259">
+      <c r="K15" s="159">
         <f ca="1">(J15-$D15)/$D15</f>
         <v>-9.5087462847768481E-4</v>
       </c>
-      <c r="L15" s="258">
+      <c r="L15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!L$1)</f>
         <v>2.4299566089124403</v>
       </c>
-      <c r="M15" s="259">
+      <c r="M15" s="159">
         <f ca="1">(L15-$D15)/$D15</f>
         <v>-1.1636657666811545E-3</v>
       </c>
-      <c r="N15" s="258">
+      <c r="N15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!N$1)</f>
         <v>2.4096648143249135</v>
       </c>
-      <c r="O15" s="259">
+      <c r="O15" s="159">
         <f ca="1">(N15-$D15)/$D15</f>
         <v>-9.5046302293725227E-3</v>
       </c>
-      <c r="P15" s="258">
+      <c r="P15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!P$1)</f>
         <v>2.4221044753822651</v>
       </c>
-      <c r="Q15" s="259">
+      <c r="Q15" s="159">
         <f ca="1">(P15-$D15)/$D15</f>
         <v>-4.3912938825185288E-3</v>
       </c>
-      <c r="R15" s="258">
+      <c r="R15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!R$1)</f>
         <v>2.4159151564872965</v>
       </c>
-      <c r="S15" s="259">
+      <c r="S15" s="159">
         <f ca="1">(R15-$D15)/$D15</f>
         <v>-6.9354202153827172E-3</v>
       </c>
-      <c r="T15" s="258">
+      <c r="T15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!T$1)</f>
         <v>2.4173007199389924</v>
       </c>
-      <c r="U15" s="259">
+      <c r="U15" s="159">
         <f ca="1">(T15-$D15)/$D15</f>
         <v>-6.3658828360469441E-3</v>
       </c>
-      <c r="V15" s="258">
+      <c r="V15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!V$1)</f>
         <v>2.4273023183927447</v>
       </c>
-      <c r="W15" s="259">
+      <c r="W15" s="159">
         <f ca="1">(V15-$D15)/$D15</f>
         <v>-2.2547148014495379E-3</v>
       </c>
-      <c r="X15" s="258">
+      <c r="X15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!X$1)</f>
         <v>2.4235156236439579</v>
       </c>
-      <c r="Y15" s="259">
+      <c r="Y15" s="159">
         <f ca="1">(X15-$D15)/$D15</f>
         <v>-3.8112398389198855E-3</v>
       </c>
-      <c r="Z15" s="258">
+      <c r="Z15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!Z$1)</f>
         <v>2.4221104743145929</v>
       </c>
-      <c r="AA15" s="259">
+      <c r="AA15" s="159">
         <f ca="1">(Z15-$D15)/$D15</f>
         <v>-4.3888280147933133E-3</v>
       </c>
-      <c r="AB15" s="258">
+      <c r="AB15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!AB$1)</f>
         <v>2.4230099920269654</v>
       </c>
-      <c r="AC15" s="259">
+      <c r="AC15" s="159">
         <f ca="1">(AB15-$D15)/$D15</f>
         <v>-4.0190802706942027E-3</v>
       </c>
-      <c r="AD15" s="258">
+      <c r="AD15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!AD$1)</f>
         <v>2.3497601234276941</v>
       </c>
-      <c r="AE15" s="259">
+      <c r="AE15" s="159">
         <f ca="1">(AD15-$D15)/$D15</f>
         <v>-3.4128519248501403E-2</v>
       </c>
-      <c r="AF15" s="258">
+      <c r="AF15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!AF$1)</f>
         <v>2.3329712197613128</v>
       </c>
-      <c r="AG15" s="259">
+      <c r="AG15" s="159">
         <f ca="1">(AF15-$D15)/$D15</f>
         <v>-4.1029616548930149E-2</v>
       </c>
-      <c r="AH15" s="258">
+      <c r="AH15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!AH$1)</f>
         <v>2.3414099406187385</v>
       </c>
-      <c r="AI15" s="259">
+      <c r="AI15" s="159">
         <f ca="1">(AH15-$D15)/$D15</f>
         <v>-3.756087106765927E-2</v>
       </c>
-      <c r="AJ15" s="258">
+      <c r="AJ15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!AJ$1)</f>
         <v>2.3582542932821937</v>
       </c>
-      <c r="AK15" s="259">
+      <c r="AK15" s="159">
         <f ca="1">(AJ15-$D15)/$D15</f>
         <v>-3.0636981396053583E-2</v>
       </c>
-      <c r="AL15" s="258">
+      <c r="AL15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!AL$1)</f>
         <v>2.3861878922020927</v>
       </c>
-      <c r="AM15" s="259">
+      <c r="AM15" s="159">
         <f ca="1">(AL15-$D15)/$D15</f>
         <v>-1.9154844865400381E-2</v>
       </c>
-      <c r="AN15" s="258">
+      <c r="AN15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!AN$1)</f>
         <v>2.4223374526123198</v>
       </c>
-      <c r="AO15" s="259">
+      <c r="AO15" s="159">
         <f ca="1">(AN15-$D15)/$D15</f>
         <v>-4.2955283360992516E-3</v>
       </c>
-      <c r="AP15" s="258">
+      <c r="AP15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!AP$1)</f>
         <v>2.4248761922613458</v>
       </c>
-      <c r="AQ15" s="259">
+      <c r="AQ15" s="159">
         <f ca="1">(AP15-$D15)/$D15</f>
         <v>-3.2519766136918323E-3</v>
       </c>
-      <c r="AR15" s="258">
+      <c r="AR15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!AR$1)</f>
         <v>2.4306701802468891</v>
       </c>
-      <c r="AS15" s="259">
+      <c r="AS15" s="159">
         <f ca="1">(AR15-$D15)/$D15</f>
         <v>-8.7035148555337756E-4</v>
       </c>
-      <c r="AT15" s="258">
+      <c r="AT15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!AT$1)</f>
         <v>2.4237233201561073</v>
       </c>
-      <c r="AU15" s="259">
+      <c r="AU15" s="159">
         <f ca="1">(AT15-$D15)/$D15</f>
         <v>-3.7258659593751146E-3</v>
       </c>
-      <c r="AV15" s="258">
+      <c r="AV15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!AV$1)</f>
         <v>2.4171550792918173</v>
       </c>
-      <c r="AW15" s="259">
+      <c r="AW15" s="159">
         <f ca="1">(AV15-$D15)/$D15</f>
         <v>-6.4257485841044378E-3</v>
       </c>
-      <c r="AX15" s="258">
+      <c r="AX15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!AX$1)</f>
         <v>2.4292784712743036</v>
       </c>
-      <c r="AY15" s="259">
+      <c r="AY15" s="159">
         <f ca="1">(AX15-$D15)/$D15</f>
         <v>-1.4424149880037447E-3</v>
       </c>
-      <c r="AZ15" s="258">
+      <c r="AZ15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!AZ$1)</f>
         <v>2.420720391434215</v>
       </c>
-      <c r="BA15" s="259">
+      <c r="BA15" s="159">
         <f ca="1">(AZ15-$D15)/$D15</f>
         <v>-4.9602231102549472E-3</v>
       </c>
-      <c r="BB15" s="258">
+      <c r="BB15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!BB$1)</f>
         <v>2.4044873203813588</v>
       </c>
-      <c r="BC15" s="259">
+      <c r="BC15" s="159">
         <f ca="1">(BB15-$D15)/$D15</f>
         <v>-1.1632844804121641E-2</v>
       </c>
-      <c r="BD15" s="258">
+      <c r="BD15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!BD$1)</f>
         <v>2.43016273683758</v>
       </c>
-      <c r="BE15" s="259">
+      <c r="BE15" s="159">
         <f ca="1">(BD15-$D15)/$D15</f>
         <v>-1.078936656550316E-3</v>
       </c>
-      <c r="BF15" s="258">
+      <c r="BF15" s="158">
         <f ca="1">OFFSET(Runs2!$B19,0,1*'Scenarios (2)'!BF$1)</f>
         <v>2.3522161580531131</v>
       </c>
-      <c r="BG15" s="260">
+      <c r="BG15" s="160">
         <f ca="1">(BF15-$D15)/$D15</f>
         <v>-3.3118963516927426E-2</v>
       </c>
     </row>
     <row r="16" spans="2:59" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="154" t="s">
+      <c r="B16" s="162" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="229">
+      <c r="D16" s="237">
         <f ca="1">OFFSET(Runs2!$B4,0,1*'Scenarios (2)'!D$1)</f>
         <v>9695</v>
       </c>
-      <c r="E16" s="230"/>
+      <c r="E16" s="238"/>
       <c r="F16" s="69">
         <f ca="1">OFFSET(Runs2!$B4,0,1*'Scenarios (2)'!F$1)</f>
         <v>9695</v>
@@ -28158,15 +28161,15 @@
       </c>
     </row>
     <row r="17" spans="2:59" x14ac:dyDescent="0.3">
-      <c r="B17" s="154"/>
+      <c r="B17" s="162"/>
       <c r="C17" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="229">
+      <c r="D17" s="237">
         <f ca="1">OFFSET(Runs2!$B5,0,1*'Scenarios (2)'!D$1)</f>
         <v>1447</v>
       </c>
-      <c r="E17" s="230"/>
+      <c r="E17" s="238"/>
       <c r="F17" s="69">
         <f ca="1">OFFSET(Runs2!$B5,0,1*'Scenarios (2)'!F$1)</f>
         <v>1594</v>
@@ -28385,15 +28388,15 @@
       </c>
     </row>
     <row r="18" spans="2:59" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="164"/>
+      <c r="B18" s="172"/>
       <c r="C18" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="167">
+      <c r="D18" s="175">
         <f ca="1">D17/D16</f>
         <v>0.14925219185146982</v>
       </c>
-      <c r="E18" s="168"/>
+      <c r="E18" s="176"/>
       <c r="F18" s="16">
         <f ca="1">F17/F16</f>
         <v>0.16441464672511605</v>
@@ -28612,17 +28615,17 @@
       </c>
     </row>
     <row r="19" spans="2:59" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="231" t="s">
+      <c r="B19" s="239" t="s">
         <v>73</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="227">
+      <c r="D19" s="235">
         <f ca="1">OFFSET(Runs2!$B6,0,1*'Scenarios (2)'!D$1)</f>
         <v>636</v>
       </c>
-      <c r="E19" s="228"/>
+      <c r="E19" s="236"/>
       <c r="F19" s="70">
         <f ca="1">OFFSET(Runs2!$B6,0,1*'Scenarios (2)'!F$1)</f>
         <v>695</v>
@@ -28841,15 +28844,15 @@
       </c>
     </row>
     <row r="20" spans="2:59" x14ac:dyDescent="0.3">
-      <c r="B20" s="232"/>
+      <c r="B20" s="240"/>
       <c r="C20" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="229">
+      <c r="D20" s="237">
         <f ca="1">OFFSET(Runs2!$B7,0,1*'Scenarios (2)'!D$1)</f>
         <v>397</v>
       </c>
-      <c r="E20" s="230"/>
+      <c r="E20" s="238"/>
       <c r="F20" s="69">
         <f ca="1">OFFSET(Runs2!$B7,0,1*'Scenarios (2)'!F$1)</f>
         <v>440</v>
@@ -29068,15 +29071,15 @@
       </c>
     </row>
     <row r="21" spans="2:59" x14ac:dyDescent="0.3">
-      <c r="B21" s="232"/>
+      <c r="B21" s="240"/>
       <c r="C21" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="229">
+      <c r="D21" s="237">
         <f ca="1">OFFSET(Runs2!$B8,0,1*'Scenarios (2)'!D$1)</f>
         <v>411</v>
       </c>
-      <c r="E21" s="230"/>
+      <c r="E21" s="238"/>
       <c r="F21" s="69">
         <f ca="1">OFFSET(Runs2!$B8,0,1*'Scenarios (2)'!F$1)</f>
         <v>459</v>
@@ -29295,15 +29298,15 @@
       </c>
     </row>
     <row r="22" spans="2:59" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="233"/>
+      <c r="B22" s="241"/>
       <c r="C22" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="219">
+      <c r="D22" s="227">
         <f ca="1">OFFSET(Runs2!$B9,0,1*'Scenarios (2)'!D$1)</f>
         <v>223</v>
       </c>
-      <c r="E22" s="220"/>
+      <c r="E22" s="228"/>
       <c r="F22" s="71">
         <f ca="1">OFFSET(Runs2!$B9,0,1*'Scenarios (2)'!F$1)</f>
         <v>307</v>
@@ -29522,17 +29525,17 @@
       </c>
     </row>
     <row r="23" spans="2:59" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="231" t="s">
+      <c r="B23" s="239" t="s">
         <v>74</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="160">
+      <c r="D23" s="168">
         <f ca="1">OFFSET(Runs2!$B10,0,1*'Scenarios (2)'!D$1)/D$16</f>
         <v>0.56162970603403817</v>
       </c>
-      <c r="E23" s="161"/>
+      <c r="E23" s="169"/>
       <c r="F23" s="16">
         <f ca="1">OFFSET(Runs2!$B10,0,1*'Scenarios (2)'!F$1)/F$16</f>
         <v>0.56162970603403817</v>
@@ -29751,15 +29754,15 @@
       </c>
     </row>
     <row r="24" spans="2:59" x14ac:dyDescent="0.3">
-      <c r="B24" s="232"/>
+      <c r="B24" s="240"/>
       <c r="C24" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="165">
+      <c r="D24" s="173">
         <f ca="1">OFFSET(Runs2!$B11,0,1*'Scenarios (2)'!D$1)/D$16</f>
         <v>0.10211449200618876</v>
       </c>
-      <c r="E24" s="166"/>
+      <c r="E24" s="174"/>
       <c r="F24" s="16">
         <f ca="1">OFFSET(Runs2!$B11,0,1*'Scenarios (2)'!F$1)/F$16</f>
         <v>0.10211449200618876</v>
@@ -29978,15 +29981,15 @@
       </c>
     </row>
     <row r="25" spans="2:59" x14ac:dyDescent="0.3">
-      <c r="B25" s="232"/>
+      <c r="B25" s="240"/>
       <c r="C25" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="234">
+      <c r="D25" s="242">
         <f ca="1">OFFSET(Runs2!$B12,0,1*'Scenarios (2)'!D$1)/D$16</f>
         <v>2.4239298607529654E-2</v>
       </c>
-      <c r="E25" s="235"/>
+      <c r="E25" s="243"/>
       <c r="F25" s="80">
         <f ca="1">OFFSET(Runs2!$B12,0,1*'Scenarios (2)'!F$1)/F$16</f>
         <v>9.0768437338834447E-3</v>
@@ -30205,15 +30208,15 @@
       </c>
     </row>
     <row r="26" spans="2:59" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="233"/>
+      <c r="B26" s="241"/>
       <c r="C26" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="219">
+      <c r="D26" s="227">
         <f ca="1">OFFSET(Runs2!$B13,0,1*'Scenarios (2)'!D$1)</f>
         <v>66</v>
       </c>
-      <c r="E26" s="220"/>
+      <c r="E26" s="228"/>
       <c r="F26" s="69">
         <f ca="1">OFFSET(Runs2!$B13,0,1*'Scenarios (2)'!F$1)</f>
         <v>94</v>
@@ -30432,17 +30435,17 @@
       </c>
     </row>
     <row r="27" spans="2:59" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="153" t="s">
+      <c r="B27" s="161" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="160">
+      <c r="D27" s="168">
         <f ca="1">OFFSET(Runs2!$B14,0,1*'Scenarios (2)'!D$1)</f>
         <v>0.45965037043425389</v>
       </c>
-      <c r="E27" s="161"/>
+      <c r="E27" s="169"/>
       <c r="F27" s="25">
         <f ca="1">OFFSET(Runs2!$B14,0,1*'Scenarios (2)'!F$1)</f>
         <v>0.43677467040297285</v>
@@ -30661,15 +30664,15 @@
       </c>
     </row>
     <row r="28" spans="2:59" x14ac:dyDescent="0.3">
-      <c r="B28" s="154"/>
+      <c r="B28" s="162"/>
       <c r="C28" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="165">
+      <c r="D28" s="173">
         <f ca="1">OFFSET(Runs2!$B15,0,1*'Scenarios (2)'!D$1)</f>
         <v>0.50325771477664527</v>
       </c>
-      <c r="E28" s="166"/>
+      <c r="E28" s="174"/>
       <c r="F28" s="16">
         <f ca="1">OFFSET(Runs2!$B15,0,1*'Scenarios (2)'!F$1)</f>
         <v>0.53993441367599948</v>
@@ -30888,15 +30891,15 @@
       </c>
     </row>
     <row r="29" spans="2:59" x14ac:dyDescent="0.3">
-      <c r="B29" s="154"/>
+      <c r="B29" s="162"/>
       <c r="C29" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="165">
+      <c r="D29" s="173">
         <f ca="1">OFFSET(Runs2!$B16,0,1*'Scenarios (2)'!D$1)</f>
         <v>0.4071495384586476</v>
       </c>
-      <c r="E29" s="166"/>
+      <c r="E29" s="174"/>
       <c r="F29" s="16">
         <f ca="1">OFFSET(Runs2!$B16,0,1*'Scenarios (2)'!F$1)</f>
         <v>0.44886096152067484</v>
@@ -31115,15 +31118,15 @@
       </c>
     </row>
     <row r="30" spans="2:59" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="159"/>
+      <c r="B30" s="167"/>
       <c r="C30" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="162">
+      <c r="D30" s="170">
         <f ca="1">OFFSET(Runs2!$B17,0,1*'Scenarios (2)'!D$1)</f>
         <v>0.21240817710327242</v>
       </c>
-      <c r="E30" s="163"/>
+      <c r="E30" s="171"/>
       <c r="F30" s="21">
         <f ca="1">OFFSET(Runs2!$B17,0,1*'Scenarios (2)'!F$1)</f>
         <v>0.23182262220080474</v>
@@ -31377,6 +31380,12 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="V8:W8"/>
     <mergeCell ref="V9:W9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="R9:S9"/>
@@ -31386,16 +31395,6 @@
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="BD2:BE2"/>
     <mergeCell ref="BD3:BE3"/>
     <mergeCell ref="BD4:BE4"/>
@@ -31559,8 +31558,6 @@
     <mergeCell ref="Z6:AA6"/>
     <mergeCell ref="AB6:AC6"/>
     <mergeCell ref="B2:B10"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
     <mergeCell ref="AD4:AE4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
@@ -31580,6 +31577,9 @@
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -31599,9 +31599,6 @@
     <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="T3:U3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
@@ -31623,6 +31620,12 @@
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="78" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -31645,306 +31648,306 @@
   <sheetData>
     <row r="2" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="195" t="s">
+      <c r="B3" s="203" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="206" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="261"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="196"/>
+      <c r="B4" s="204"/>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="184">
+      <c r="D4" s="192">
         <v>11</v>
       </c>
       <c r="E4" s="262"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="196"/>
+      <c r="B5" s="204"/>
       <c r="C5" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="184">
+      <c r="D5" s="192">
         <v>12</v>
       </c>
       <c r="E5" s="262"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="196"/>
+      <c r="B6" s="204"/>
       <c r="C6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="225">
+      <c r="D6" s="233">
         <v>525</v>
       </c>
-      <c r="E6" s="191"/>
+      <c r="E6" s="199"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="196"/>
+      <c r="B7" s="204"/>
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="187" t="s">
+      <c r="D7" s="195" t="s">
         <v>104</v>
       </c>
       <c r="E7" s="263"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="243"/>
+      <c r="B8" s="253"/>
       <c r="C8" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="187" t="s">
+      <c r="D8" s="195" t="s">
         <v>69</v>
       </c>
       <c r="E8" s="263"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="243"/>
+      <c r="B9" s="253"/>
       <c r="C9" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="244" t="s">
+      <c r="D9" s="251" t="s">
         <v>69</v>
       </c>
       <c r="E9" s="264"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="243"/>
+      <c r="B10" s="253"/>
       <c r="C10" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="184" t="s">
+      <c r="D10" s="192" t="s">
         <v>69</v>
       </c>
       <c r="E10" s="262"/>
     </row>
     <row r="11" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="197"/>
+      <c r="B11" s="205"/>
       <c r="C11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="179" t="s">
+      <c r="D11" s="187" t="s">
         <v>69</v>
       </c>
       <c r="E11" s="265"/>
     </row>
     <row r="12" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="221" t="s">
+      <c r="B12" s="229" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="222"/>
-      <c r="D12" s="223" t="s">
+      <c r="C12" s="230"/>
+      <c r="D12" s="231" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="266"/>
     </row>
     <row r="13" spans="2:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="161" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="155">
+      <c r="D13" s="163">
         <v>9.6500708138113005</v>
       </c>
       <c r="E13" s="267"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="154"/>
+      <c r="B14" s="162"/>
       <c r="C14" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="157">
+      <c r="D14" s="165">
         <v>4.0789391604602052</v>
       </c>
       <c r="E14" s="268"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="154"/>
-      <c r="C15" s="251" t="s">
+      <c r="B15" s="162"/>
+      <c r="C15" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="252">
+      <c r="D15" s="255">
         <v>1.4827043705642553</v>
       </c>
       <c r="E15" s="269"/>
     </row>
     <row r="16" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="164"/>
-      <c r="C16" s="256" t="s">
+      <c r="B16" s="172"/>
+      <c r="C16" s="157" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="257">
+      <c r="D16" s="254">
         <v>2.4327875605142184</v>
       </c>
       <c r="E16" s="270"/>
     </row>
     <row r="17" spans="2:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="154" t="s">
+      <c r="B17" s="162" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="229">
+      <c r="D17" s="237">
         <v>9695</v>
       </c>
       <c r="E17" s="271"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="154"/>
+      <c r="B18" s="162"/>
       <c r="C18" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="229">
+      <c r="D18" s="237">
         <v>1447</v>
       </c>
       <c r="E18" s="271"/>
     </row>
     <row r="19" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="164"/>
+      <c r="B19" s="172"/>
       <c r="C19" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="167">
+      <c r="D19" s="175">
         <v>0.14925219185146982</v>
       </c>
       <c r="E19" s="272"/>
     </row>
     <row r="20" spans="2:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="231" t="s">
+      <c r="B20" s="239" t="s">
         <v>73</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="227">
+      <c r="D20" s="235">
         <v>636</v>
       </c>
       <c r="E20" s="273"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="232"/>
+      <c r="B21" s="240"/>
       <c r="C21" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="229">
+      <c r="D21" s="237">
         <v>397</v>
       </c>
       <c r="E21" s="271"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="232"/>
+      <c r="B22" s="240"/>
       <c r="C22" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="229">
+      <c r="D22" s="237">
         <v>411</v>
       </c>
       <c r="E22" s="271"/>
     </row>
     <row r="23" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="233"/>
+      <c r="B23" s="241"/>
       <c r="C23" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="219">
+      <c r="D23" s="227">
         <v>223</v>
       </c>
       <c r="E23" s="274"/>
     </row>
     <row r="24" spans="2:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="231" t="s">
+      <c r="B24" s="239" t="s">
         <v>74</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="160">
+      <c r="D24" s="168">
         <v>0.56162970603403817</v>
       </c>
       <c r="E24" s="275"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="232"/>
+      <c r="B25" s="240"/>
       <c r="C25" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="165">
+      <c r="D25" s="173">
         <v>0.10211449200618876</v>
       </c>
       <c r="E25" s="276"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="232"/>
+      <c r="B26" s="240"/>
       <c r="C26" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="234">
+      <c r="D26" s="242">
         <v>2.4239298607529654E-2</v>
       </c>
-      <c r="E26" s="277"/>
+      <c r="E26" s="278"/>
     </row>
     <row r="27" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="233"/>
+      <c r="B27" s="241"/>
       <c r="C27" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="219">
+      <c r="D27" s="227">
         <v>66</v>
       </c>
       <c r="E27" s="274"/>
     </row>
     <row r="28" spans="2:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="153" t="s">
+      <c r="B28" s="161" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="160">
+      <c r="D28" s="168">
         <v>0.45965037043425389</v>
       </c>
       <c r="E28" s="275"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="154"/>
+      <c r="B29" s="162"/>
       <c r="C29" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="165">
+      <c r="D29" s="173">
         <v>0.50325771477664527</v>
       </c>
       <c r="E29" s="276"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="154"/>
+      <c r="B30" s="162"/>
       <c r="C30" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="165">
+      <c r="D30" s="173">
         <v>0.4071495384586476</v>
       </c>
       <c r="E30" s="276"/>
     </row>
     <row r="31" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="159"/>
+      <c r="B31" s="167"/>
       <c r="C31" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="162">
+      <c r="D31" s="170">
         <v>0.21240817710327242</v>
       </c>
-      <c r="E31" s="278"/>
+      <c r="E31" s="277"/>
     </row>
     <row r="32" spans="2:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -32034,268 +32037,268 @@
   <sheetData>
     <row r="1" spans="2:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="203" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="198" t="s">
+      <c r="D2" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="199"/>
-      <c r="F2" s="192" t="s">
+      <c r="E2" s="207"/>
+      <c r="F2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="193"/>
-      <c r="H2" s="198" t="s">
+      <c r="G2" s="201"/>
+      <c r="H2" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="199"/>
-      <c r="J2" s="192" t="s">
+      <c r="I2" s="207"/>
+      <c r="J2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="193"/>
-      <c r="L2" s="192" t="s">
+      <c r="K2" s="201"/>
+      <c r="L2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="193"/>
-      <c r="N2" s="192" t="s">
+      <c r="M2" s="201"/>
+      <c r="N2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="193"/>
-      <c r="P2" s="192" t="s">
+      <c r="O2" s="201"/>
+      <c r="P2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="192" t="s">
+      <c r="Q2" s="201"/>
+      <c r="R2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="193"/>
-      <c r="T2" s="192" t="s">
+      <c r="S2" s="201"/>
+      <c r="T2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="194"/>
+      <c r="U2" s="202"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="196"/>
+      <c r="B3" s="204"/>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="184">
+      <c r="D3" s="192">
         <v>11</v>
       </c>
-      <c r="E3" s="185"/>
-      <c r="F3" s="177">
+      <c r="E3" s="193"/>
+      <c r="F3" s="185">
         <v>11</v>
       </c>
-      <c r="G3" s="176"/>
-      <c r="H3" s="184">
+      <c r="G3" s="184"/>
+      <c r="H3" s="192">
         <v>11</v>
       </c>
-      <c r="I3" s="185"/>
-      <c r="J3" s="177">
+      <c r="I3" s="193"/>
+      <c r="J3" s="185">
         <v>11</v>
       </c>
-      <c r="K3" s="176"/>
-      <c r="L3" s="177">
+      <c r="K3" s="184"/>
+      <c r="L3" s="185">
         <v>18</v>
       </c>
-      <c r="M3" s="176"/>
-      <c r="N3" s="177">
+      <c r="M3" s="184"/>
+      <c r="N3" s="185">
         <v>18</v>
       </c>
-      <c r="O3" s="176"/>
-      <c r="P3" s="177">
+      <c r="O3" s="184"/>
+      <c r="P3" s="185">
         <v>18</v>
       </c>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="177">
+      <c r="Q3" s="184"/>
+      <c r="R3" s="185">
         <v>18</v>
       </c>
-      <c r="S3" s="176"/>
-      <c r="T3" s="177">
+      <c r="S3" s="184"/>
+      <c r="T3" s="185">
         <v>18</v>
       </c>
-      <c r="U3" s="178"/>
+      <c r="U3" s="186"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B4" s="196"/>
+      <c r="B4" s="204"/>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="184">
+      <c r="D4" s="192">
         <v>12</v>
       </c>
-      <c r="E4" s="185"/>
-      <c r="F4" s="177">
+      <c r="E4" s="193"/>
+      <c r="F4" s="185">
         <v>12</v>
       </c>
-      <c r="G4" s="176"/>
-      <c r="H4" s="184">
+      <c r="G4" s="184"/>
+      <c r="H4" s="192">
         <v>24</v>
       </c>
-      <c r="I4" s="185"/>
-      <c r="J4" s="177">
+      <c r="I4" s="193"/>
+      <c r="J4" s="185">
         <v>24</v>
       </c>
-      <c r="K4" s="176"/>
-      <c r="L4" s="177">
+      <c r="K4" s="184"/>
+      <c r="L4" s="185">
         <v>12</v>
       </c>
-      <c r="M4" s="176"/>
-      <c r="N4" s="177">
+      <c r="M4" s="184"/>
+      <c r="N4" s="185">
         <v>12</v>
       </c>
-      <c r="O4" s="176"/>
-      <c r="P4" s="177">
+      <c r="O4" s="184"/>
+      <c r="P4" s="185">
         <v>24</v>
       </c>
-      <c r="Q4" s="176"/>
-      <c r="R4" s="177">
+      <c r="Q4" s="184"/>
+      <c r="R4" s="185">
         <v>24</v>
       </c>
-      <c r="S4" s="176"/>
-      <c r="T4" s="177">
+      <c r="S4" s="184"/>
+      <c r="T4" s="185">
         <v>24</v>
       </c>
-      <c r="U4" s="178"/>
+      <c r="U4" s="186"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="196"/>
+      <c r="B5" s="204"/>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="187" t="s">
+      <c r="D5" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="188"/>
-      <c r="F5" s="189" t="s">
+      <c r="E5" s="196"/>
+      <c r="F5" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="190"/>
-      <c r="H5" s="187" t="s">
+      <c r="G5" s="198"/>
+      <c r="H5" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="188"/>
-      <c r="J5" s="189" t="s">
+      <c r="I5" s="196"/>
+      <c r="J5" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="190"/>
-      <c r="L5" s="189" t="s">
+      <c r="K5" s="198"/>
+      <c r="L5" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="190"/>
-      <c r="N5" s="189" t="s">
+      <c r="M5" s="198"/>
+      <c r="N5" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="190"/>
-      <c r="P5" s="189" t="s">
+      <c r="O5" s="198"/>
+      <c r="P5" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="190"/>
-      <c r="R5" s="189" t="s">
+      <c r="Q5" s="198"/>
+      <c r="R5" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="190"/>
-      <c r="T5" s="189" t="s">
+      <c r="S5" s="198"/>
+      <c r="T5" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="191"/>
+      <c r="U5" s="199"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="196"/>
+      <c r="B6" s="204"/>
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="184">
+      <c r="D6" s="192">
         <v>0</v>
       </c>
-      <c r="E6" s="185"/>
-      <c r="F6" s="175" t="s">
+      <c r="E6" s="193"/>
+      <c r="F6" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="176"/>
-      <c r="H6" s="186" t="s">
+      <c r="G6" s="184"/>
+      <c r="H6" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="185"/>
-      <c r="J6" s="175" t="s">
+      <c r="I6" s="193"/>
+      <c r="J6" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="176"/>
-      <c r="L6" s="175" t="s">
+      <c r="K6" s="184"/>
+      <c r="L6" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="176"/>
-      <c r="N6" s="175" t="s">
+      <c r="M6" s="184"/>
+      <c r="N6" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="176"/>
-      <c r="P6" s="175" t="s">
+      <c r="O6" s="184"/>
+      <c r="P6" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="176"/>
-      <c r="R6" s="177">
+      <c r="Q6" s="184"/>
+      <c r="R6" s="185">
         <v>0</v>
       </c>
-      <c r="S6" s="176"/>
-      <c r="T6" s="177" t="s">
+      <c r="S6" s="184"/>
+      <c r="T6" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="178"/>
+      <c r="U6" s="186"/>
     </row>
     <row r="7" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="197"/>
+      <c r="B7" s="205"/>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="179">
+      <c r="D7" s="187">
         <v>0</v>
       </c>
-      <c r="E7" s="180"/>
-      <c r="F7" s="169" t="s">
+      <c r="E7" s="188"/>
+      <c r="F7" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="181"/>
-      <c r="H7" s="182" t="s">
+      <c r="G7" s="189"/>
+      <c r="H7" s="190" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="180"/>
-      <c r="J7" s="183">
+      <c r="I7" s="188"/>
+      <c r="J7" s="191">
         <v>0</v>
       </c>
-      <c r="K7" s="181"/>
-      <c r="L7" s="169" t="s">
+      <c r="K7" s="189"/>
+      <c r="L7" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="181"/>
-      <c r="N7" s="183">
+      <c r="M7" s="189"/>
+      <c r="N7" s="191">
         <v>0</v>
       </c>
-      <c r="O7" s="181"/>
-      <c r="P7" s="183">
+      <c r="O7" s="189"/>
+      <c r="P7" s="191">
         <v>0</v>
       </c>
-      <c r="Q7" s="181"/>
-      <c r="R7" s="169" t="s">
+      <c r="Q7" s="189"/>
+      <c r="R7" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="181"/>
-      <c r="T7" s="169">
+      <c r="S7" s="189"/>
+      <c r="T7" s="177">
         <v>0</v>
       </c>
-      <c r="U7" s="170"/>
+      <c r="U7" s="178"/>
     </row>
     <row r="8" spans="2:21" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="171" t="s">
+      <c r="B8" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="172"/>
-      <c r="D8" s="173" t="s">
+      <c r="C8" s="180"/>
+      <c r="D8" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="174"/>
+      <c r="E8" s="182"/>
       <c r="F8" s="5" t="s">
         <v>11</v>
       </c>
@@ -32346,16 +32349,16 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="153" t="s">
+      <c r="B9" s="161" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="155">
+      <c r="D9" s="163">
         <v>7.5998151667119513</v>
       </c>
-      <c r="E9" s="156"/>
+      <c r="E9" s="164"/>
       <c r="F9" s="11">
         <v>6.8642348556048045</v>
       </c>
@@ -32414,14 +32417,14 @@
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="154"/>
+      <c r="B10" s="162"/>
       <c r="C10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="157">
+      <c r="D10" s="165">
         <v>9.550203450601856</v>
       </c>
-      <c r="E10" s="158"/>
+      <c r="E10" s="166"/>
       <c r="F10" s="7">
         <v>8.5377658332199378</v>
       </c>
@@ -32480,14 +32483,14 @@
       </c>
     </row>
     <row r="11" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="154"/>
+      <c r="B11" s="162"/>
       <c r="C11" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="157">
+      <c r="D11" s="165">
         <v>4.6176326157115044</v>
       </c>
-      <c r="E11" s="158"/>
+      <c r="E11" s="166"/>
       <c r="F11" s="7">
         <v>3.0585979892401243</v>
       </c>
@@ -32546,16 +32549,16 @@
       </c>
     </row>
     <row r="12" spans="2:21" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="153" t="s">
+      <c r="B12" s="161" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="160">
+      <c r="D12" s="168">
         <v>0.84055520156674202</v>
       </c>
-      <c r="E12" s="161"/>
+      <c r="E12" s="169"/>
       <c r="F12" s="24">
         <v>0.863981953151301</v>
       </c>
@@ -32614,14 +32617,14 @@
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="154"/>
+      <c r="B13" s="162"/>
       <c r="C13" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="165">
+      <c r="D13" s="173">
         <v>0.75810278510343632</v>
       </c>
-      <c r="E13" s="166"/>
+      <c r="E13" s="174"/>
       <c r="F13" s="15">
         <v>0.43004227736455841</v>
       </c>
@@ -32680,14 +32683,14 @@
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="154"/>
+      <c r="B14" s="162"/>
       <c r="C14" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="165">
+      <c r="D14" s="173">
         <v>0.5422982725121448</v>
       </c>
-      <c r="E14" s="166"/>
+      <c r="E14" s="174"/>
       <c r="F14" s="15">
         <v>0.38043979668475386</v>
       </c>
@@ -32746,14 +32749,14 @@
       </c>
     </row>
     <row r="15" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="164"/>
+      <c r="B15" s="172"/>
       <c r="C15" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="167">
+      <c r="D15" s="175">
         <v>0.49102653244984601</v>
       </c>
-      <c r="E15" s="168"/>
+      <c r="E15" s="176"/>
       <c r="F15" s="28">
         <v>0.34902965483537801</v>
       </c>
@@ -32812,16 +32815,16 @@
       </c>
     </row>
     <row r="16" spans="2:21" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="154" t="s">
+      <c r="B16" s="162" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="160">
+      <c r="D16" s="168">
         <v>0.16670263993517509</v>
       </c>
-      <c r="E16" s="161"/>
+      <c r="E16" s="169"/>
       <c r="F16" s="15">
         <v>0.23159274114647435</v>
       </c>
@@ -32880,14 +32883,14 @@
       </c>
     </row>
     <row r="17" spans="2:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="159"/>
+      <c r="B17" s="167"/>
       <c r="C17" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="162">
+      <c r="D17" s="170">
         <v>0.21357759626448486</v>
       </c>
-      <c r="E17" s="163"/>
+      <c r="E17" s="171"/>
       <c r="F17" s="20">
         <v>0.15698222170257425</v>
       </c>
@@ -32947,312 +32950,312 @@
     </row>
     <row r="18" spans="2:25" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:25" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="195" t="s">
+      <c r="B19" s="203" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="192" t="s">
+      <c r="D19" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="193"/>
-      <c r="F19" s="192" t="s">
+      <c r="E19" s="201"/>
+      <c r="F19" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="193"/>
-      <c r="H19" s="192" t="s">
+      <c r="G19" s="201"/>
+      <c r="H19" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="193"/>
-      <c r="J19" s="192" t="s">
+      <c r="I19" s="201"/>
+      <c r="J19" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="193"/>
-      <c r="L19" s="192" t="s">
+      <c r="K19" s="201"/>
+      <c r="L19" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="193"/>
-      <c r="N19" s="192" t="s">
+      <c r="M19" s="201"/>
+      <c r="N19" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="O19" s="193"/>
-      <c r="P19" s="192" t="s">
+      <c r="O19" s="201"/>
+      <c r="P19" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="Q19" s="193"/>
-      <c r="R19" s="192" t="s">
+      <c r="Q19" s="201"/>
+      <c r="R19" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="193"/>
-      <c r="T19" s="192" t="s">
+      <c r="S19" s="201"/>
+      <c r="T19" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="U19" s="193"/>
-      <c r="V19" s="192" t="s">
+      <c r="U19" s="201"/>
+      <c r="V19" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="W19" s="193"/>
-      <c r="X19" s="192" t="s">
+      <c r="W19" s="201"/>
+      <c r="X19" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="Y19" s="194"/>
+      <c r="Y19" s="202"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B20" s="196"/>
+      <c r="B20" s="204"/>
       <c r="C20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="177">
+      <c r="D20" s="185">
         <v>11</v>
       </c>
-      <c r="E20" s="176"/>
-      <c r="F20" s="177">
+      <c r="E20" s="184"/>
+      <c r="F20" s="185">
         <v>11</v>
       </c>
-      <c r="G20" s="176"/>
-      <c r="H20" s="177">
+      <c r="G20" s="184"/>
+      <c r="H20" s="185">
         <v>11</v>
       </c>
-      <c r="I20" s="176"/>
-      <c r="J20" s="177">
+      <c r="I20" s="184"/>
+      <c r="J20" s="185">
         <v>11</v>
       </c>
-      <c r="K20" s="176"/>
-      <c r="L20" s="177">
+      <c r="K20" s="184"/>
+      <c r="L20" s="185">
         <v>11</v>
       </c>
-      <c r="M20" s="176"/>
-      <c r="N20" s="177">
+      <c r="M20" s="184"/>
+      <c r="N20" s="185">
         <v>18</v>
       </c>
-      <c r="O20" s="176"/>
-      <c r="P20" s="177">
+      <c r="O20" s="184"/>
+      <c r="P20" s="185">
         <v>18</v>
       </c>
-      <c r="Q20" s="176"/>
-      <c r="R20" s="177">
+      <c r="Q20" s="184"/>
+      <c r="R20" s="185">
         <v>18</v>
       </c>
-      <c r="S20" s="176"/>
-      <c r="T20" s="177">
+      <c r="S20" s="184"/>
+      <c r="T20" s="185">
         <v>18</v>
       </c>
-      <c r="U20" s="176"/>
-      <c r="V20" s="177">
+      <c r="U20" s="184"/>
+      <c r="V20" s="185">
         <v>18</v>
       </c>
-      <c r="W20" s="176"/>
-      <c r="X20" s="177">
+      <c r="W20" s="184"/>
+      <c r="X20" s="185">
         <v>18</v>
       </c>
-      <c r="Y20" s="178"/>
+      <c r="Y20" s="186"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B21" s="196"/>
+      <c r="B21" s="204"/>
       <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="177">
+      <c r="D21" s="185">
         <v>12</v>
       </c>
-      <c r="E21" s="176"/>
-      <c r="F21" s="177">
+      <c r="E21" s="184"/>
+      <c r="F21" s="185">
         <v>12</v>
       </c>
-      <c r="G21" s="176"/>
-      <c r="H21" s="177">
+      <c r="G21" s="184"/>
+      <c r="H21" s="185">
         <v>24</v>
       </c>
-      <c r="I21" s="176"/>
-      <c r="J21" s="177">
+      <c r="I21" s="184"/>
+      <c r="J21" s="185">
         <v>24</v>
       </c>
-      <c r="K21" s="176"/>
-      <c r="L21" s="177">
+      <c r="K21" s="184"/>
+      <c r="L21" s="185">
         <v>24</v>
       </c>
-      <c r="M21" s="176"/>
-      <c r="N21" s="177">
+      <c r="M21" s="184"/>
+      <c r="N21" s="185">
         <v>12</v>
       </c>
-      <c r="O21" s="176"/>
-      <c r="P21" s="177">
+      <c r="O21" s="184"/>
+      <c r="P21" s="185">
         <v>12</v>
       </c>
-      <c r="Q21" s="176"/>
-      <c r="R21" s="177">
+      <c r="Q21" s="184"/>
+      <c r="R21" s="185">
         <v>24</v>
       </c>
-      <c r="S21" s="176"/>
-      <c r="T21" s="177">
+      <c r="S21" s="184"/>
+      <c r="T21" s="185">
         <v>24</v>
       </c>
-      <c r="U21" s="176"/>
-      <c r="V21" s="177">
+      <c r="U21" s="184"/>
+      <c r="V21" s="185">
         <v>24</v>
       </c>
-      <c r="W21" s="176"/>
-      <c r="X21" s="177">
+      <c r="W21" s="184"/>
+      <c r="X21" s="185">
         <v>24</v>
       </c>
-      <c r="Y21" s="178"/>
+      <c r="Y21" s="186"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B22" s="196"/>
+      <c r="B22" s="204"/>
       <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="189" t="s">
+      <c r="D22" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="190"/>
-      <c r="F22" s="189" t="s">
+      <c r="E22" s="198"/>
+      <c r="F22" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="190"/>
-      <c r="H22" s="189" t="s">
+      <c r="G22" s="198"/>
+      <c r="H22" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="190"/>
-      <c r="J22" s="189" t="s">
+      <c r="I22" s="198"/>
+      <c r="J22" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="K22" s="190"/>
-      <c r="L22" s="189" t="s">
+      <c r="K22" s="198"/>
+      <c r="L22" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="M22" s="190"/>
-      <c r="N22" s="189" t="s">
+      <c r="M22" s="198"/>
+      <c r="N22" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="O22" s="190"/>
-      <c r="P22" s="189" t="s">
+      <c r="O22" s="198"/>
+      <c r="P22" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="Q22" s="190"/>
-      <c r="R22" s="189" t="s">
+      <c r="Q22" s="198"/>
+      <c r="R22" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="S22" s="190"/>
-      <c r="T22" s="189" t="s">
+      <c r="S22" s="198"/>
+      <c r="T22" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="U22" s="190"/>
-      <c r="V22" s="189" t="s">
+      <c r="U22" s="198"/>
+      <c r="V22" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="W22" s="190"/>
-      <c r="X22" s="189" t="s">
+      <c r="W22" s="198"/>
+      <c r="X22" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="Y22" s="191"/>
+      <c r="Y22" s="199"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B23" s="196"/>
+      <c r="B23" s="204"/>
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="175">
+      <c r="D23" s="183">
         <v>0</v>
       </c>
-      <c r="E23" s="176"/>
-      <c r="F23" s="175" t="s">
+      <c r="E23" s="184"/>
+      <c r="F23" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="176"/>
-      <c r="H23" s="175" t="s">
+      <c r="G23" s="184"/>
+      <c r="H23" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="176"/>
-      <c r="J23" s="175" t="s">
+      <c r="I23" s="184"/>
+      <c r="J23" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="176"/>
-      <c r="L23" s="175" t="s">
+      <c r="K23" s="184"/>
+      <c r="L23" s="183" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="176"/>
-      <c r="N23" s="175">
+      <c r="M23" s="184"/>
+      <c r="N23" s="183">
         <v>0</v>
       </c>
-      <c r="O23" s="176"/>
-      <c r="P23" s="175" t="s">
+      <c r="O23" s="184"/>
+      <c r="P23" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="Q23" s="176"/>
-      <c r="R23" s="177" t="s">
+      <c r="Q23" s="184"/>
+      <c r="R23" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="S23" s="176"/>
-      <c r="T23" s="177" t="s">
+      <c r="S23" s="184"/>
+      <c r="T23" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="U23" s="176"/>
-      <c r="V23" s="177" t="s">
+      <c r="U23" s="184"/>
+      <c r="V23" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="W23" s="176"/>
-      <c r="X23" s="175" t="s">
+      <c r="W23" s="184"/>
+      <c r="X23" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="Y23" s="200"/>
+      <c r="Y23" s="208"/>
     </row>
     <row r="24" spans="2:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="197"/>
+      <c r="B24" s="205"/>
       <c r="C24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="169">
+      <c r="D24" s="177">
         <v>0</v>
       </c>
-      <c r="E24" s="181"/>
-      <c r="F24" s="169" t="s">
+      <c r="E24" s="189"/>
+      <c r="F24" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="181"/>
-      <c r="H24" s="183">
+      <c r="G24" s="189"/>
+      <c r="H24" s="191">
         <v>0</v>
       </c>
-      <c r="I24" s="181"/>
-      <c r="J24" s="169">
+      <c r="I24" s="189"/>
+      <c r="J24" s="177">
         <v>0</v>
       </c>
-      <c r="K24" s="181"/>
-      <c r="L24" s="169" t="s">
+      <c r="K24" s="189"/>
+      <c r="L24" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="M24" s="181"/>
-      <c r="N24" s="183">
+      <c r="M24" s="189"/>
+      <c r="N24" s="191">
         <v>0</v>
       </c>
-      <c r="O24" s="181"/>
-      <c r="P24" s="169" t="s">
+      <c r="O24" s="189"/>
+      <c r="P24" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="Q24" s="181"/>
-      <c r="R24" s="169" t="s">
+      <c r="Q24" s="189"/>
+      <c r="R24" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="S24" s="181"/>
-      <c r="T24" s="169">
+      <c r="S24" s="189"/>
+      <c r="T24" s="177">
         <v>0</v>
       </c>
-      <c r="U24" s="181"/>
-      <c r="V24" s="169">
+      <c r="U24" s="189"/>
+      <c r="V24" s="177">
         <v>0</v>
       </c>
-      <c r="W24" s="181"/>
-      <c r="X24" s="183">
+      <c r="W24" s="189"/>
+      <c r="X24" s="191">
         <v>0</v>
       </c>
-      <c r="Y24" s="170"/>
+      <c r="Y24" s="178"/>
     </row>
     <row r="25" spans="2:25" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="171" t="s">
+      <c r="B25" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="172"/>
+      <c r="C25" s="180"/>
       <c r="D25" s="5" t="s">
         <v>11</v>
       </c>
@@ -33321,7 +33324,7 @@
       </c>
     </row>
     <row r="26" spans="2:25" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="153" t="s">
+      <c r="B26" s="161" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="32" t="s">
@@ -33406,7 +33409,7 @@
       </c>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B27" s="154"/>
+      <c r="B27" s="162"/>
       <c r="C27" s="33" t="s">
         <v>17</v>
       </c>
@@ -33489,7 +33492,7 @@
       </c>
     </row>
     <row r="28" spans="2:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="154"/>
+      <c r="B28" s="162"/>
       <c r="C28" s="33" t="s">
         <v>16</v>
       </c>
@@ -33572,7 +33575,7 @@
       </c>
     </row>
     <row r="29" spans="2:25" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="153" t="s">
+      <c r="B29" s="161" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="32" t="s">
@@ -33657,7 +33660,7 @@
       </c>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B30" s="154"/>
+      <c r="B30" s="162"/>
       <c r="C30" s="33" t="s">
         <v>20</v>
       </c>
@@ -33740,7 +33743,7 @@
       </c>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B31" s="154"/>
+      <c r="B31" s="162"/>
       <c r="C31" s="33" t="s">
         <v>21</v>
       </c>
@@ -33823,7 +33826,7 @@
       </c>
     </row>
     <row r="32" spans="2:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="164"/>
+      <c r="B32" s="172"/>
       <c r="C32" s="34" t="s">
         <v>22</v>
       </c>
@@ -33906,7 +33909,7 @@
       </c>
     </row>
     <row r="33" spans="2:25" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="154" t="s">
+      <c r="B33" s="162" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="33" t="s">
@@ -33991,7 +33994,7 @@
       </c>
     </row>
     <row r="34" spans="2:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="159"/>
+      <c r="B34" s="167"/>
       <c r="C34" s="35" t="s">
         <v>44</v>
       </c>
@@ -34236,24 +34239,24 @@
   <sheetData>
     <row r="1" spans="2:6" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="209" t="s">
+      <c r="B2" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="201" t="s">
+      <c r="C2" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="213"/>
-      <c r="E2" s="201" t="s">
+      <c r="D2" s="221"/>
+      <c r="E2" s="209" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="202"/>
+      <c r="F2" s="210"/>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="210"/>
-      <c r="C3" s="205" t="s">
+      <c r="B3" s="218"/>
+      <c r="C3" s="213" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="206"/>
+      <c r="D3" s="214"/>
       <c r="E3" s="59" t="s">
         <v>52</v>
       </c>
@@ -34265,10 +34268,10 @@
       <c r="B4" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="155">
+      <c r="C4" s="163">
         <v>10.43</v>
       </c>
-      <c r="D4" s="156"/>
+      <c r="D4" s="164"/>
       <c r="E4" s="13">
         <v>10.98</v>
       </c>
@@ -34281,10 +34284,10 @@
       <c r="B5" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="207">
+      <c r="C5" s="215">
         <v>4.46</v>
       </c>
-      <c r="D5" s="208"/>
+      <c r="D5" s="216"/>
       <c r="E5" s="52">
         <v>4.1900000000000004</v>
       </c>
@@ -34297,10 +34300,10 @@
       <c r="B6" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="211" t="s">
+      <c r="C6" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="166"/>
+      <c r="D6" s="174"/>
       <c r="E6" s="16">
         <v>0.56000000000000005</v>
       </c>
@@ -34312,10 +34315,10 @@
       <c r="B7" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="211" t="s">
+      <c r="C7" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="166"/>
+      <c r="D7" s="174"/>
       <c r="E7" s="16">
         <v>0.44</v>
       </c>
@@ -34327,10 +34330,10 @@
       <c r="B8" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="212" t="s">
+      <c r="C8" s="220" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="168"/>
+      <c r="D8" s="176"/>
       <c r="E8" s="29">
         <v>0.24</v>
       </c>
@@ -34342,10 +34345,10 @@
       <c r="B9" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="203">
+      <c r="C9" s="211">
         <v>1453</v>
       </c>
-      <c r="D9" s="204"/>
+      <c r="D9" s="212"/>
       <c r="E9" s="54">
         <v>1546.8</v>
       </c>
@@ -34358,10 +34361,10 @@
       <c r="B10" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="165">
+      <c r="C10" s="173">
         <v>0.15</v>
       </c>
-      <c r="D10" s="166"/>
+      <c r="D10" s="174"/>
       <c r="E10" s="15">
         <v>0.16</v>
       </c>
@@ -34374,10 +34377,10 @@
       <c r="B11" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="162">
+      <c r="C11" s="170">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D11" s="163"/>
+      <c r="D11" s="171"/>
       <c r="E11" s="21">
         <v>0.25</v>
       </c>
@@ -42127,388 +42130,388 @@
       <c r="AE1" s="72"/>
     </row>
     <row r="2" spans="2:31" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="203" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="198" t="s">
+      <c r="D2" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="199"/>
-      <c r="F2" s="198" t="s">
+      <c r="E2" s="207"/>
+      <c r="F2" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="199"/>
-      <c r="H2" s="198" t="s">
+      <c r="G2" s="207"/>
+      <c r="H2" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="199"/>
-      <c r="J2" s="198" t="s">
+      <c r="I2" s="207"/>
+      <c r="J2" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="199"/>
-      <c r="L2" s="192" t="s">
+      <c r="K2" s="207"/>
+      <c r="L2" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="193"/>
-      <c r="N2" s="198" t="s">
+      <c r="M2" s="201"/>
+      <c r="N2" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="199"/>
-      <c r="P2" s="198" t="s">
+      <c r="O2" s="207"/>
+      <c r="P2" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="192" t="s">
+      <c r="Q2" s="207"/>
+      <c r="R2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="193"/>
-      <c r="T2" s="192" t="s">
+      <c r="S2" s="201"/>
+      <c r="T2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="193"/>
-      <c r="V2" s="192" t="s">
+      <c r="U2" s="201"/>
+      <c r="V2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="193"/>
-      <c r="X2" s="192" t="s">
+      <c r="W2" s="201"/>
+      <c r="X2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="192" t="s">
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="193"/>
-      <c r="AB2" s="192" t="s">
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="193"/>
-      <c r="AD2" s="192" t="s">
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="194"/>
+      <c r="AE2" s="202"/>
     </row>
     <row r="3" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B3" s="196"/>
+      <c r="B3" s="204"/>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="184">
+      <c r="D3" s="192">
         <v>11</v>
       </c>
-      <c r="E3" s="185"/>
-      <c r="F3" s="184">
+      <c r="E3" s="193"/>
+      <c r="F3" s="192">
         <v>1000</v>
       </c>
-      <c r="G3" s="185"/>
-      <c r="H3" s="184">
+      <c r="G3" s="193"/>
+      <c r="H3" s="192">
         <v>1000</v>
       </c>
-      <c r="I3" s="185"/>
-      <c r="J3" s="184">
+      <c r="I3" s="193"/>
+      <c r="J3" s="192">
         <v>1000</v>
       </c>
-      <c r="K3" s="185"/>
-      <c r="L3" s="177">
+      <c r="K3" s="193"/>
+      <c r="L3" s="185">
         <v>1000</v>
       </c>
-      <c r="M3" s="176"/>
-      <c r="N3" s="184">
+      <c r="M3" s="184"/>
+      <c r="N3" s="192">
         <v>15</v>
       </c>
-      <c r="O3" s="185"/>
-      <c r="P3" s="184">
+      <c r="O3" s="193"/>
+      <c r="P3" s="192">
         <v>18</v>
       </c>
-      <c r="Q3" s="185"/>
-      <c r="R3" s="177">
+      <c r="Q3" s="193"/>
+      <c r="R3" s="185">
         <v>11</v>
       </c>
-      <c r="S3" s="176"/>
-      <c r="T3" s="177">
+      <c r="S3" s="184"/>
+      <c r="T3" s="185">
         <v>11</v>
       </c>
-      <c r="U3" s="176"/>
-      <c r="V3" s="177">
+      <c r="U3" s="184"/>
+      <c r="V3" s="185">
         <v>11</v>
       </c>
-      <c r="W3" s="176"/>
-      <c r="X3" s="177">
+      <c r="W3" s="184"/>
+      <c r="X3" s="185">
         <v>11</v>
       </c>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="177">
+      <c r="Y3" s="184"/>
+      <c r="Z3" s="185">
         <v>11</v>
       </c>
-      <c r="AA3" s="176"/>
-      <c r="AB3" s="177">
+      <c r="AA3" s="184"/>
+      <c r="AB3" s="185">
         <v>11</v>
       </c>
-      <c r="AC3" s="176"/>
-      <c r="AD3" s="177">
+      <c r="AC3" s="184"/>
+      <c r="AD3" s="185">
         <v>11</v>
       </c>
-      <c r="AE3" s="178"/>
+      <c r="AE3" s="186"/>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B4" s="196"/>
+      <c r="B4" s="204"/>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="184">
+      <c r="D4" s="192">
         <v>12</v>
       </c>
-      <c r="E4" s="185"/>
-      <c r="F4" s="184">
+      <c r="E4" s="193"/>
+      <c r="F4" s="192">
         <v>12</v>
       </c>
-      <c r="G4" s="185"/>
-      <c r="H4" s="184">
+      <c r="G4" s="193"/>
+      <c r="H4" s="192">
         <v>12</v>
       </c>
-      <c r="I4" s="185"/>
-      <c r="J4" s="184">
+      <c r="I4" s="193"/>
+      <c r="J4" s="192">
         <v>1000</v>
       </c>
-      <c r="K4" s="185"/>
-      <c r="L4" s="177">
+      <c r="K4" s="193"/>
+      <c r="L4" s="185">
         <v>1000</v>
       </c>
-      <c r="M4" s="176"/>
-      <c r="N4" s="184">
+      <c r="M4" s="184"/>
+      <c r="N4" s="192">
         <v>12</v>
       </c>
-      <c r="O4" s="185"/>
-      <c r="P4" s="184">
+      <c r="O4" s="193"/>
+      <c r="P4" s="192">
         <v>12</v>
       </c>
-      <c r="Q4" s="185"/>
-      <c r="R4" s="177">
+      <c r="Q4" s="193"/>
+      <c r="R4" s="185">
         <v>18</v>
       </c>
-      <c r="S4" s="176"/>
-      <c r="T4" s="177">
+      <c r="S4" s="184"/>
+      <c r="T4" s="185">
         <v>24</v>
       </c>
-      <c r="U4" s="176"/>
-      <c r="V4" s="177">
+      <c r="U4" s="184"/>
+      <c r="V4" s="185">
         <v>12</v>
       </c>
-      <c r="W4" s="176"/>
-      <c r="X4" s="177">
+      <c r="W4" s="184"/>
+      <c r="X4" s="185">
         <v>12</v>
       </c>
-      <c r="Y4" s="176"/>
-      <c r="Z4" s="177">
+      <c r="Y4" s="184"/>
+      <c r="Z4" s="185">
         <v>12</v>
       </c>
-      <c r="AA4" s="176"/>
-      <c r="AB4" s="177">
+      <c r="AA4" s="184"/>
+      <c r="AB4" s="185">
         <v>12</v>
       </c>
-      <c r="AC4" s="176"/>
-      <c r="AD4" s="177">
+      <c r="AC4" s="184"/>
+      <c r="AD4" s="185">
         <v>12</v>
       </c>
-      <c r="AE4" s="178"/>
+      <c r="AE4" s="186"/>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B5" s="196"/>
+      <c r="B5" s="204"/>
       <c r="C5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="225">
+      <c r="D5" s="233">
         <v>525</v>
       </c>
-      <c r="E5" s="190"/>
-      <c r="F5" s="225">
+      <c r="E5" s="198"/>
+      <c r="F5" s="233">
         <v>525</v>
       </c>
-      <c r="G5" s="190"/>
-      <c r="H5" s="225">
+      <c r="G5" s="198"/>
+      <c r="H5" s="233">
         <v>525</v>
       </c>
-      <c r="I5" s="190"/>
-      <c r="J5" s="225">
+      <c r="I5" s="198"/>
+      <c r="J5" s="233">
         <v>1000</v>
       </c>
-      <c r="K5" s="226"/>
-      <c r="L5" s="225" t="s">
+      <c r="K5" s="234"/>
+      <c r="L5" s="233" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="226"/>
-      <c r="N5" s="225">
+      <c r="M5" s="234"/>
+      <c r="N5" s="233">
         <v>525</v>
       </c>
-      <c r="O5" s="190"/>
-      <c r="P5" s="225">
+      <c r="O5" s="198"/>
+      <c r="P5" s="233">
         <v>525</v>
       </c>
-      <c r="Q5" s="190"/>
-      <c r="R5" s="225">
+      <c r="Q5" s="198"/>
+      <c r="R5" s="233">
         <v>525</v>
       </c>
-      <c r="S5" s="226"/>
-      <c r="T5" s="225">
+      <c r="S5" s="234"/>
+      <c r="T5" s="233">
         <v>525</v>
       </c>
-      <c r="U5" s="226"/>
-      <c r="V5" s="225">
+      <c r="U5" s="234"/>
+      <c r="V5" s="233">
         <v>525</v>
       </c>
-      <c r="W5" s="226"/>
-      <c r="X5" s="225">
+      <c r="W5" s="234"/>
+      <c r="X5" s="233">
         <v>525</v>
       </c>
-      <c r="Y5" s="226"/>
-      <c r="Z5" s="225">
+      <c r="Y5" s="234"/>
+      <c r="Z5" s="233">
         <v>525</v>
       </c>
-      <c r="AA5" s="226"/>
-      <c r="AB5" s="225">
+      <c r="AA5" s="234"/>
+      <c r="AB5" s="233">
         <v>550</v>
       </c>
-      <c r="AC5" s="226"/>
-      <c r="AD5" s="225">
+      <c r="AC5" s="234"/>
+      <c r="AD5" s="233">
         <v>575</v>
       </c>
-      <c r="AE5" s="191"/>
+      <c r="AE5" s="199"/>
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B6" s="196"/>
+      <c r="B6" s="204"/>
       <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="187" t="s">
+      <c r="D6" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="188"/>
-      <c r="F6" s="187" t="s">
+      <c r="E6" s="196"/>
+      <c r="F6" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="188"/>
-      <c r="H6" s="187" t="s">
+      <c r="G6" s="196"/>
+      <c r="H6" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="188"/>
-      <c r="J6" s="187" t="s">
+      <c r="I6" s="196"/>
+      <c r="J6" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="188"/>
-      <c r="L6" s="187" t="s">
+      <c r="K6" s="196"/>
+      <c r="L6" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="188"/>
-      <c r="N6" s="187" t="s">
+      <c r="M6" s="196"/>
+      <c r="N6" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="188"/>
-      <c r="P6" s="187" t="s">
+      <c r="O6" s="196"/>
+      <c r="P6" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="188"/>
-      <c r="R6" s="187" t="s">
+      <c r="Q6" s="196"/>
+      <c r="R6" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="S6" s="188"/>
-      <c r="T6" s="187" t="s">
+      <c r="S6" s="196"/>
+      <c r="T6" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="U6" s="188"/>
-      <c r="V6" s="187" t="s">
+      <c r="U6" s="196"/>
+      <c r="V6" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="W6" s="188"/>
-      <c r="X6" s="187" t="s">
+      <c r="W6" s="196"/>
+      <c r="X6" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="Y6" s="188"/>
-      <c r="Z6" s="187" t="s">
+      <c r="Y6" s="196"/>
+      <c r="Z6" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="AA6" s="188"/>
-      <c r="AB6" s="187" t="s">
+      <c r="AA6" s="196"/>
+      <c r="AB6" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="AC6" s="188"/>
-      <c r="AD6" s="177" t="s">
+      <c r="AC6" s="196"/>
+      <c r="AD6" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="AE6" s="178"/>
+      <c r="AE6" s="186"/>
     </row>
     <row r="7" spans="2:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="197"/>
+      <c r="B7" s="205"/>
       <c r="C7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="179" t="s">
+      <c r="D7" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="180"/>
-      <c r="F7" s="179" t="s">
+      <c r="E7" s="188"/>
+      <c r="F7" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="180"/>
-      <c r="H7" s="182" t="s">
+      <c r="G7" s="188"/>
+      <c r="H7" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="180"/>
-      <c r="J7" s="182" t="s">
+      <c r="I7" s="188"/>
+      <c r="J7" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="218"/>
-      <c r="L7" s="182" t="s">
+      <c r="K7" s="226"/>
+      <c r="L7" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="M7" s="218"/>
-      <c r="N7" s="182" t="s">
+      <c r="M7" s="226"/>
+      <c r="N7" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="O7" s="180"/>
-      <c r="P7" s="182" t="s">
+      <c r="O7" s="188"/>
+      <c r="P7" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="Q7" s="180"/>
-      <c r="R7" s="182" t="s">
+      <c r="Q7" s="188"/>
+      <c r="R7" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="S7" s="218"/>
-      <c r="T7" s="182" t="s">
+      <c r="S7" s="226"/>
+      <c r="T7" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="U7" s="218"/>
-      <c r="V7" s="182" t="s">
+      <c r="U7" s="226"/>
+      <c r="V7" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="W7" s="218"/>
-      <c r="X7" s="182">
+      <c r="W7" s="226"/>
+      <c r="X7" s="190">
         <v>0</v>
       </c>
-      <c r="Y7" s="218"/>
-      <c r="Z7" s="182">
+      <c r="Y7" s="226"/>
+      <c r="Z7" s="190">
         <v>7</v>
       </c>
-      <c r="AA7" s="218"/>
-      <c r="AB7" s="182" t="s">
+      <c r="AA7" s="226"/>
+      <c r="AB7" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="AC7" s="218"/>
-      <c r="AD7" s="169" t="s">
+      <c r="AC7" s="226"/>
+      <c r="AD7" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="AE7" s="236"/>
+      <c r="AE7" s="244"/>
     </row>
     <row r="8" spans="2:31" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="221" t="s">
+      <c r="B8" s="229" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="222"/>
-      <c r="D8" s="223" t="s">
+      <c r="C8" s="230"/>
+      <c r="D8" s="231" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="224"/>
+      <c r="E8" s="232"/>
       <c r="F8" s="63" t="s">
         <v>11</v>
       </c>
@@ -42589,17 +42592,17 @@
       </c>
     </row>
     <row r="9" spans="2:31" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="153" t="s">
+      <c r="B9" s="161" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="155">
+      <c r="D9" s="163">
         <f ca="1">OFFSET(Runs1!$G2,6*Scenarios!D$1,0)</f>
         <v>11.211532121115027</v>
       </c>
-      <c r="E9" s="156"/>
+      <c r="E9" s="164"/>
       <c r="F9" s="11">
         <f ca="1">OFFSET(Runs1!$G2,0,6*Scenarios!F$1)</f>
         <v>9.7442291009736302</v>
@@ -42706,15 +42709,15 @@
       </c>
     </row>
     <row r="10" spans="2:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="164"/>
+      <c r="B10" s="172"/>
       <c r="C10" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="207">
+      <c r="D10" s="215">
         <f ca="1">OFFSET(Runs1!$G3,6*Scenarios!D$1,0)</f>
         <v>4.1737348949088195</v>
       </c>
-      <c r="E10" s="208"/>
+      <c r="E10" s="216"/>
       <c r="F10" s="52">
         <f ca="1">OFFSET(Runs1!$G3,0,6*Scenarios!F$1)</f>
         <v>4.3059978499080813</v>
@@ -42821,17 +42824,17 @@
       </c>
     </row>
     <row r="11" spans="2:31" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="153" t="s">
+      <c r="B11" s="161" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="227">
+      <c r="D11" s="235">
         <f ca="1">OFFSET(Runs1!$G4,6*Scenarios!D$1,0)</f>
         <v>9695</v>
       </c>
-      <c r="E11" s="228"/>
+      <c r="E11" s="236"/>
       <c r="F11" s="69">
         <f ca="1">OFFSET(Runs1!$G4,0,6*Scenarios!F$1)</f>
         <v>9695</v>
@@ -42938,15 +42941,15 @@
       </c>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B12" s="154"/>
+      <c r="B12" s="162"/>
       <c r="C12" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="229">
+      <c r="D12" s="237">
         <f ca="1">OFFSET(Runs1!$G5,6*Scenarios!D$1,0)</f>
         <v>1530</v>
       </c>
-      <c r="E12" s="230"/>
+      <c r="E12" s="238"/>
       <c r="F12" s="69">
         <f ca="1">OFFSET(Runs1!$G5,0,6*Scenarios!F$1)</f>
         <v>1682</v>
@@ -43053,15 +43056,15 @@
       </c>
     </row>
     <row r="13" spans="2:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="164"/>
+      <c r="B13" s="172"/>
       <c r="C13" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="167">
+      <c r="D13" s="175">
         <f ca="1">D12/D11</f>
         <v>0.15781330582774625</v>
       </c>
-      <c r="E13" s="168"/>
+      <c r="E13" s="176"/>
       <c r="F13" s="16">
         <f ca="1">F12/F11</f>
         <v>0.17349149045899948</v>
@@ -43168,17 +43171,17 @@
       </c>
     </row>
     <row r="14" spans="2:31" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="231" t="s">
+      <c r="B14" s="239" t="s">
         <v>73</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="235">
         <f ca="1">OFFSET(Runs1!$G6,6*Scenarios!D$1,0)</f>
         <v>665</v>
       </c>
-      <c r="E14" s="228"/>
+      <c r="E14" s="236"/>
       <c r="F14" s="70">
         <f ca="1">OFFSET(Runs1!$G6,0,6*Scenarios!F$1)</f>
         <v>758</v>
@@ -43285,15 +43288,15 @@
       </c>
     </row>
     <row r="15" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B15" s="232"/>
+      <c r="B15" s="240"/>
       <c r="C15" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="229">
+      <c r="D15" s="237">
         <f ca="1">OFFSET(Runs1!$G7,6*Scenarios!D$1,0)</f>
         <v>431</v>
       </c>
-      <c r="E15" s="230"/>
+      <c r="E15" s="238"/>
       <c r="F15" s="69">
         <f ca="1">OFFSET(Runs1!$G7,0,6*Scenarios!F$1)</f>
         <v>447</v>
@@ -43400,15 +43403,15 @@
       </c>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B16" s="232"/>
+      <c r="B16" s="240"/>
       <c r="C16" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="229">
+      <c r="D16" s="237">
         <f ca="1">OFFSET(Runs1!$G8,6*Scenarios!D$1,0)</f>
         <v>434</v>
       </c>
-      <c r="E16" s="230"/>
+      <c r="E16" s="238"/>
       <c r="F16" s="69">
         <f ca="1">OFFSET(Runs1!$G8,0,6*Scenarios!F$1)</f>
         <v>470</v>
@@ -43515,15 +43518,15 @@
       </c>
     </row>
     <row r="17" spans="2:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="233"/>
+      <c r="B17" s="241"/>
       <c r="C17" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="219">
+      <c r="D17" s="227">
         <f ca="1">OFFSET(Runs1!$G9,6*Scenarios!D$1,0)</f>
         <v>275</v>
       </c>
-      <c r="E17" s="220"/>
+      <c r="E17" s="228"/>
       <c r="F17" s="71">
         <f ca="1">OFFSET(Runs1!$G9,0,6*Scenarios!F$1)</f>
         <v>369</v>
@@ -43630,17 +43633,17 @@
       </c>
     </row>
     <row r="18" spans="2:31" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="231" t="s">
+      <c r="B18" s="239" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="160">
+      <c r="D18" s="168">
         <f ca="1">OFFSET(Runs1!$G10,6*Scenarios!D$1,0)</f>
         <v>5445</v>
       </c>
-      <c r="E18" s="161"/>
+      <c r="E18" s="169"/>
       <c r="F18" s="16">
         <f ca="1">OFFSET(Runs1!$G10,0,6*Scenarios!F$1)/F$11</f>
         <v>0.56162970603403817</v>
@@ -43747,15 +43750,15 @@
       </c>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B19" s="232"/>
+      <c r="B19" s="240"/>
       <c r="C19" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="165">
+      <c r="D19" s="173">
         <f ca="1">OFFSET(Runs1!$G11,6*Scenarios!D$1,0)</f>
         <v>990</v>
       </c>
-      <c r="E19" s="166"/>
+      <c r="E19" s="174"/>
       <c r="F19" s="16">
         <f ca="1">OFFSET(Runs1!$G11,0,6*Scenarios!F$1)/F$11</f>
         <v>0.10211449200618876</v>
@@ -43862,15 +43865,15 @@
       </c>
     </row>
     <row r="20" spans="2:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="232"/>
+      <c r="B20" s="240"/>
       <c r="C20" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="234">
+      <c r="D20" s="242">
         <f ca="1">OFFSET(Runs1!$G12,6*Scenarios!D$1,0)</f>
         <v>152</v>
       </c>
-      <c r="E20" s="235"/>
+      <c r="E20" s="243"/>
       <c r="F20" s="80">
         <f ca="1">OFFSET(Runs1!$G12,0,6*Scenarios!F$1)/F$11</f>
         <v>0</v>
@@ -43977,15 +43980,15 @@
       </c>
     </row>
     <row r="21" spans="2:31" ht="16.2" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="233"/>
+      <c r="B21" s="241"/>
       <c r="C21" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="219">
+      <c r="D21" s="227">
         <f ca="1">OFFSET(Runs1!$G13,6*Scenarios!D$1,0)</f>
         <v>93</v>
       </c>
-      <c r="E21" s="220"/>
+      <c r="E21" s="228"/>
       <c r="F21" s="69">
         <f ca="1">OFFSET(Runs1!$G13,0,6*Scenarios!F$1)</f>
         <v>29</v>
@@ -44092,17 +44095,17 @@
       </c>
     </row>
     <row r="22" spans="2:31" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="153" t="s">
+      <c r="B22" s="161" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="168">
         <f ca="1">OFFSET(Runs1!$G14,6*Scenarios!D$1,0)</f>
         <v>0.48468097380905806</v>
       </c>
-      <c r="E22" s="161"/>
+      <c r="E22" s="169"/>
       <c r="F22" s="25">
         <f ca="1">OFFSET(Runs1!$G14,0,6*Scenarios!F$1)</f>
         <v>0.63524940731755253</v>
@@ -44209,15 +44212,15 @@
       </c>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B23" s="154"/>
+      <c r="B23" s="162"/>
       <c r="C23" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="165">
+      <c r="D23" s="173">
         <f ca="1">OFFSET(Runs1!$G15,6*Scenarios!D$1,0)</f>
         <v>0.52445687672083607</v>
       </c>
-      <c r="E23" s="166"/>
+      <c r="E23" s="174"/>
       <c r="F23" s="16">
         <f ca="1">OFFSET(Runs1!$G15,0,6*Scenarios!F$1)</f>
         <v>0.63911561421147367</v>
@@ -44324,15 +44327,15 @@
       </c>
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B24" s="154"/>
+      <c r="B24" s="162"/>
       <c r="C24" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="165">
+      <c r="D24" s="173">
         <f ca="1">OFFSET(Runs1!$G16,6*Scenarios!D$1,0)</f>
         <v>0.42815930125427204</v>
       </c>
-      <c r="E24" s="166"/>
+      <c r="E24" s="174"/>
       <c r="F24" s="16">
         <f ca="1">OFFSET(Runs1!$G16,0,6*Scenarios!F$1)</f>
         <v>0.64049014324551656</v>
@@ -44439,15 +44442,15 @@
       </c>
     </row>
     <row r="25" spans="2:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="159"/>
+      <c r="B25" s="167"/>
       <c r="C25" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="162">
+      <c r="D25" s="170">
         <f ca="1">OFFSET(Runs1!$G17,6*Scenarios!D$1,0)</f>
         <v>0.2232859446591931</v>
       </c>
-      <c r="E25" s="163"/>
+      <c r="E25" s="171"/>
       <c r="F25" s="16">
         <f ca="1">OFFSET(Runs1!$G17,0,6*Scenarios!F$1)</f>
         <v>0.63847390697381656</v>
@@ -44557,11 +44560,11 @@
       <c r="C26" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="214">
+      <c r="D26" s="222">
         <f ca="1">OFFSET(Runs1!$G18,6*Scenarios!D$1,0)</f>
         <v>1.6406373421425262</v>
       </c>
-      <c r="E26" s="215"/>
+      <c r="E26" s="223"/>
       <c r="F26" s="74">
         <f ca="1">OFFSET(Runs1!$G18,0,6*Scenarios!F$1)</f>
         <v>1.6286398142752878</v>
@@ -44671,11 +44674,11 @@
       <c r="C27" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="216">
+      <c r="D27" s="224">
         <f ca="1">OFFSET(Runs1!$G19,6*Scenarios!D$1,0)</f>
         <v>2.4245642118789359</v>
       </c>
-      <c r="E27" s="217"/>
+      <c r="E27" s="225"/>
       <c r="F27" s="77">
         <f ca="1">OFFSET(Runs1!$G19,0,6*Scenarios!F$1)</f>
         <v>2.4522244385862342</v>
@@ -44903,10 +44906,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AD31"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3:Y30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -45054,7 +45060,7 @@
       </c>
       <c r="L3" s="99">
         <f ca="1">OFFSET(Runs2!$B2,0,1*'Scenarios (2)'!D$1)</f>
-        <v>9.6500708138113005</v>
+        <v>11.3</v>
       </c>
       <c r="M3" s="99">
         <f ca="1">OFFSET(Runs2!$B3,0,1*'Scenarios (2)'!D$1)</f>
@@ -48135,8 +48141,8 @@
     <sortCondition descending="1" ref="I3:I29"/>
     <sortCondition descending="1" ref="J3:J29"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="93" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="99" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -48149,7 +48155,7 @@
       <selection activeCell="D12" sqref="D12:E30"/>
       <selection pane="topRight" activeCell="D12" sqref="D12:E30"/>
       <selection pane="bottomLeft" activeCell="D12" sqref="D12:E30"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12:E30"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -48251,7 +48257,7 @@
         <v>55</v>
       </c>
       <c r="B2" s="45">
-        <v>9.6500708138113005</v>
+        <v>11.3</v>
       </c>
       <c r="C2" s="45">
         <v>11.171752640486234</v>
